--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
@@ -1359,9 +1359,6 @@
   </si>
   <si>
     <t>미야비노카미</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 경전록</t>
   </si>
   <si>
     <t>ES 여부</t>
@@ -4885,12 +4882,16 @@
       <t>君ツキハ</t>
     </r>
   </si>
+  <si>
+    <t>경전록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4927,13 +4928,6 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5285,9 +5279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S288"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B288" sqref="B288"/>
+      <selection pane="bottomLeft" activeCell="N289" sqref="N289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16695,7 +16689,7 @@
         <v>442</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>443</v>
+        <v>1594</v>
       </c>
     </row>
   </sheetData>
@@ -16733,13 +16727,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -16753,7 +16747,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E2" s="1">
         <v>101000011</v>
@@ -16761,13 +16755,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="B3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="E3" s="1">
         <v>101000021</v>
@@ -16781,7 +16775,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E4" s="1">
         <v>101000031</v>
@@ -16795,7 +16789,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E5" s="1">
         <v>101000041</v>
@@ -16823,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E7" s="1">
         <v>101000061</v>
@@ -16831,13 +16825,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="E8" s="1">
         <v>101000071</v>
@@ -16865,7 +16859,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E10" s="1">
         <v>101000101</v>
@@ -16879,10 +16873,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="E11" s="1">
         <v>101000111</v>
@@ -16896,7 +16890,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E12" s="1">
         <v>101000121</v>
@@ -16910,7 +16904,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E13" s="1">
         <v>101000141</v>
@@ -16918,7 +16912,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>0</v>
@@ -16932,13 +16926,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="B15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="E15" s="1">
         <v>101000161</v>
@@ -16952,7 +16946,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E16" s="1">
         <v>101000171</v>
@@ -16966,7 +16960,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E17" s="1">
         <v>101000191</v>
@@ -16980,7 +16974,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E18" s="1">
         <v>101000201</v>
@@ -16988,13 +16982,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E19" s="1">
         <v>101000211</v>
@@ -17008,7 +17002,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E20" s="1">
         <v>101000221</v>
@@ -17022,7 +17016,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E21" s="1">
         <v>101000231</v>
@@ -17036,7 +17030,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E22" s="1">
         <v>101000241</v>
@@ -17050,10 +17044,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="E23" s="1">
         <v>101000251</v>
@@ -17067,7 +17061,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E24" s="1">
         <v>101000261</v>
@@ -17081,7 +17075,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E25" s="1">
         <v>101000271</v>
@@ -17109,7 +17103,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E27" s="1">
         <v>101000291</v>
@@ -17123,7 +17117,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E28" s="1">
         <v>101010011</v>
@@ -17131,13 +17125,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="B29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="E29" s="1">
         <v>101010021</v>
@@ -17151,10 +17145,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="E30" s="1">
         <v>101010031</v>
@@ -17168,7 +17162,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E31" s="1">
         <v>101010041</v>
@@ -17182,7 +17176,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E32" s="1">
         <v>101010041</v>
@@ -17196,7 +17190,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E33" s="1">
         <v>101010051</v>
@@ -17204,13 +17198,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="E34" s="1">
         <v>101010061</v>
@@ -17238,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E36" s="1">
         <v>101010091</v>
@@ -17252,7 +17246,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E37" s="1">
         <v>101010101</v>
@@ -17266,7 +17260,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E38" s="1">
         <v>101010111</v>
@@ -17280,7 +17274,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E39" s="1">
         <v>101010121</v>
@@ -17294,7 +17288,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E40" s="1">
         <v>101020011</v>
@@ -17308,7 +17302,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E41" s="1">
         <v>101020021</v>
@@ -17322,7 +17316,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E42" s="1">
         <v>101020031</v>
@@ -17336,7 +17330,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E43" s="1">
         <v>101020041</v>
@@ -17350,7 +17344,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E44" s="1">
         <v>101020051</v>
@@ -17364,10 +17358,10 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="E45" s="1">
         <v>101020071</v>
@@ -17381,10 +17375,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E46" s="1">
         <v>101020071</v>
@@ -17398,7 +17392,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E47" s="1">
         <v>101020081</v>
@@ -17412,7 +17406,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E48" s="1">
         <v>101020081</v>
@@ -17426,10 +17420,10 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="E49" s="1">
         <v>101020091</v>
@@ -17443,7 +17437,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E50" s="1">
         <v>101020101</v>
@@ -17471,7 +17465,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E52" s="1">
         <v>101020121</v>
@@ -17485,7 +17479,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E53" s="1">
         <v>101020131</v>
@@ -17499,7 +17493,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E54" s="1">
         <v>101020141</v>
@@ -17513,10 +17507,10 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="E55" s="1">
         <v>101020151</v>
@@ -17524,7 +17518,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B56" s="1" t="b">
         <v>0</v>
@@ -17538,13 +17532,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="B57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="E57" s="1">
         <v>101030021</v>
@@ -17552,7 +17546,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B58" s="1" t="b">
         <v>0</v>
@@ -17566,7 +17560,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B59" s="1" t="b">
         <v>0</v>
@@ -17580,13 +17574,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="B60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="E60" s="1">
         <v>101030051</v>
@@ -17594,13 +17588,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="B61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="E61" s="1">
         <v>101030061</v>
@@ -17614,10 +17608,10 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="E62" s="1">
         <v>101030071</v>
@@ -17631,10 +17625,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E63" s="1">
         <v>101030071</v>
@@ -17642,13 +17636,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="B64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="E64" s="1">
         <v>101030081</v>
@@ -17662,10 +17656,10 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E65" s="1">
         <v>101030091</v>
@@ -17679,7 +17673,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E66" s="1">
         <v>101030101</v>
@@ -17707,7 +17701,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E68" s="1">
         <v>101030121</v>
@@ -17721,7 +17715,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E69" s="1">
         <v>101030131</v>
@@ -17735,7 +17729,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E70" s="1">
         <v>101030141</v>
@@ -17749,7 +17743,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E71" s="1">
         <v>101030151</v>
@@ -17763,7 +17757,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E72" s="1">
         <v>101030161</v>
@@ -17785,13 +17779,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="B74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="E74" s="1">
         <v>101040011</v>
@@ -17805,7 +17799,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E75" s="1">
         <v>101040021</v>
@@ -17819,10 +17813,10 @@
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E76" s="1">
         <v>101040031</v>
@@ -17836,10 +17830,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E77" s="1">
         <v>101040031</v>
@@ -17847,13 +17841,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="B78" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="E78" s="1">
         <v>101040041</v>
@@ -17867,7 +17861,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E79" s="1">
         <v>101040051</v>
@@ -17881,7 +17875,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E80" s="1">
         <v>101040071</v>
@@ -17895,7 +17889,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E81" s="1">
         <v>101040081</v>
@@ -17909,10 +17903,10 @@
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E82" s="1">
         <v>101040091</v>
@@ -17926,7 +17920,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E83" s="1">
         <v>101040101</v>
@@ -17940,7 +17934,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E84" s="1">
         <v>101040111</v>
@@ -17954,7 +17948,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E85" s="1">
         <v>101040121</v>
@@ -17968,7 +17962,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E86" s="1">
         <v>101040131</v>
@@ -17982,7 +17976,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E87" s="1">
         <v>101040141</v>
@@ -17996,7 +17990,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E88" s="1">
         <v>101040161</v>
@@ -18010,7 +18004,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E89" s="1">
         <v>101040171</v>
@@ -18024,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E90" s="1">
         <v>101050021</v>
@@ -18032,13 +18026,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E91" s="1">
         <v>101050031</v>
@@ -18046,13 +18040,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="B92" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="E92" s="1">
         <v>101050041</v>
@@ -18060,13 +18054,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B93" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="B93" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="E93" s="1">
         <v>101050051</v>
@@ -18088,13 +18082,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B95" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E95" s="1">
         <v>101050071</v>
@@ -18108,7 +18102,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E96" s="1">
         <v>101050081</v>
@@ -18122,7 +18116,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E97" s="1">
         <v>101050091</v>
@@ -18136,7 +18130,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E98" s="1">
         <v>101050101</v>
@@ -18164,7 +18158,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E100" s="1">
         <v>101050121</v>
@@ -18178,7 +18172,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E101" s="1">
         <v>101050131</v>
@@ -18192,7 +18186,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E102" s="1">
         <v>101050141</v>
@@ -18206,7 +18200,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E103" s="1">
         <v>101050151</v>
@@ -18228,13 +18222,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B105" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="B105" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="E105" s="1">
         <v>101060021</v>
@@ -18248,10 +18242,10 @@
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="E106" s="1">
         <v>101060031</v>
@@ -18259,13 +18253,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="B107" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="E107" s="1">
         <v>101060051</v>
@@ -18273,13 +18267,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B108" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="B108" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="E108" s="1">
         <v>101060061</v>
@@ -18287,13 +18281,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="B109" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="E109" s="1">
         <v>101060071</v>
@@ -18307,7 +18301,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E110" s="1">
         <v>101060081</v>
@@ -18321,7 +18315,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E111" s="1">
         <v>101060091</v>
@@ -18335,7 +18329,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E112" s="1">
         <v>101060101</v>
@@ -18349,7 +18343,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E113" s="1">
         <v>101060111</v>
@@ -18363,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E114" s="1">
         <v>101060121</v>
@@ -18377,10 +18371,10 @@
         <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="E115" s="1">
         <v>101060131</v>
@@ -18394,7 +18388,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E116" s="1">
         <v>101060141</v>
@@ -18408,7 +18402,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E117" s="1">
         <v>101070011</v>
@@ -18416,13 +18410,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B118" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="B118" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="E118" s="1">
         <v>101070021</v>
@@ -18436,7 +18430,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E119" s="1">
         <v>101070031</v>
@@ -18450,7 +18444,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E120" s="1">
         <v>101070051</v>
@@ -18464,10 +18458,10 @@
         <v>0</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="E121" s="1">
         <v>101070061</v>
@@ -18481,10 +18475,10 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E122" s="1">
         <v>101070061</v>
@@ -18492,13 +18486,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B123" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="B123" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="E123" s="1">
         <v>101070071</v>
@@ -18512,7 +18506,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E124" s="1">
         <v>101070081</v>
@@ -18526,7 +18520,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E125" s="1">
         <v>101070091</v>
@@ -18540,7 +18534,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E126" s="1">
         <v>101070101</v>
@@ -18554,7 +18548,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E127" s="1">
         <v>101070111</v>
@@ -18582,7 +18576,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E129" s="1">
         <v>101110041</v>
@@ -18596,10 +18590,10 @@
         <v>0</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E130" s="1">
         <v>101140021</v>
@@ -18613,7 +18607,7 @@
         <v>0</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E131" s="1">
         <v>101400011</v>
@@ -18627,7 +18621,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E132" s="1">
         <v>101400071</v>
@@ -18641,7 +18635,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E133" s="1">
         <v>101410011</v>
@@ -18655,7 +18649,7 @@
         <v>0</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E134" s="1">
         <v>101420011</v>
@@ -18767,7 +18761,7 @@
         <v>0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E142" s="1">
         <v>101800041</v>
@@ -18781,7 +18775,7 @@
         <v>0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E143" s="1">
         <v>101800052</v>
@@ -18789,13 +18783,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B144" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="B144" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="E144" s="1">
         <v>101800063</v>
@@ -18809,7 +18803,7 @@
         <v>0</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E145" s="1">
         <v>101800111</v>
@@ -18823,7 +18817,7 @@
         <v>0</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E146" s="1">
         <v>101900011</v>
@@ -18837,7 +18831,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E147" s="1">
         <v>101910011</v>
@@ -18851,7 +18845,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E148" s="1">
         <v>101920011</v>
@@ -18865,7 +18859,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E149" s="1">
         <v>101960011</v>
@@ -18879,7 +18873,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E150" s="1">
         <v>101970011</v>
@@ -18907,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E152" s="1">
         <v>101000301</v>
@@ -18921,7 +18915,7 @@
         <v>0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>406</v>
@@ -18949,7 +18943,7 @@
         <v>0</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>420</v>
@@ -18963,7 +18957,7 @@
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E156" s="1">
         <v>101050081</v>
@@ -18977,7 +18971,7 @@
         <v>0</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>440</v>
@@ -19011,13 +19005,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1" t="s">
         <v>599</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>600</v>
-      </c>
-      <c r="D1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -19025,41 +19019,41 @@
         <v>348</v>
       </c>
       <c r="B2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" t="s">
         <v>602</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>603</v>
-      </c>
-      <c r="D2" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C3" t="s">
         <v>602</v>
       </c>
-      <c r="C3" t="s">
-        <v>603</v>
-      </c>
       <c r="D3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C4" t="s">
         <v>602</v>
       </c>
-      <c r="C4" t="s">
-        <v>603</v>
-      </c>
       <c r="D4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -19067,27 +19061,27 @@
         <v>380</v>
       </c>
       <c r="B5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C5" t="s">
         <v>602</v>
       </c>
-      <c r="C5" t="s">
-        <v>603</v>
-      </c>
       <c r="D5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C6" t="s">
         <v>602</v>
       </c>
-      <c r="C6" t="s">
-        <v>603</v>
-      </c>
       <c r="D6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -19095,27 +19089,27 @@
         <v>394</v>
       </c>
       <c r="B7" t="s">
+        <v>601</v>
+      </c>
+      <c r="C7" t="s">
         <v>602</v>
       </c>
-      <c r="C7" t="s">
-        <v>603</v>
-      </c>
       <c r="D7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C8" t="s">
         <v>602</v>
       </c>
-      <c r="C8" t="s">
-        <v>603</v>
-      </c>
       <c r="D8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -19123,13 +19117,13 @@
         <v>244</v>
       </c>
       <c r="B9" t="s">
+        <v>601</v>
+      </c>
+      <c r="C9" t="s">
         <v>602</v>
       </c>
-      <c r="C9" t="s">
-        <v>603</v>
-      </c>
       <c r="D9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -19137,13 +19131,13 @@
         <v>201</v>
       </c>
       <c r="B10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C10" t="s">
         <v>602</v>
       </c>
-      <c r="C10" t="s">
-        <v>603</v>
-      </c>
       <c r="D10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -19151,13 +19145,13 @@
         <v>392</v>
       </c>
       <c r="B11" t="s">
+        <v>601</v>
+      </c>
+      <c r="C11" t="s">
         <v>602</v>
       </c>
-      <c r="C11" t="s">
-        <v>603</v>
-      </c>
       <c r="D11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -19165,13 +19159,13 @@
         <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -19179,27 +19173,27 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -19207,41 +19201,41 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C16" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -19249,27 +19243,27 @@
         <v>389</v>
       </c>
       <c r="B18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B19" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -19277,13 +19271,13 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D20" t="s">
         <v>607</v>
-      </c>
-      <c r="D20" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -19291,13 +19285,13 @@
         <v>278</v>
       </c>
       <c r="B21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C21" t="s">
+        <v>606</v>
+      </c>
+      <c r="D21" t="s">
         <v>607</v>
-      </c>
-      <c r="D21" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -19305,13 +19299,13 @@
         <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -19319,13 +19313,13 @@
         <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -19333,13 +19327,13 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -19347,13 +19341,13 @@
         <v>240</v>
       </c>
       <c r="B25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C25" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D25" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -19361,13 +19355,13 @@
         <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -19375,13 +19369,13 @@
         <v>242</v>
       </c>
       <c r="B27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -19389,13 +19383,13 @@
         <v>309</v>
       </c>
       <c r="B28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C28" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D28" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -19403,13 +19397,13 @@
         <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C29" t="s">
+        <v>609</v>
+      </c>
+      <c r="D29" t="s">
         <v>610</v>
-      </c>
-      <c r="D29" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -19417,13 +19411,13 @@
         <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C30" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -19431,27 +19425,27 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C31" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D31" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B32" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C32" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -19459,13 +19453,13 @@
         <v>423</v>
       </c>
       <c r="B33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -19473,13 +19467,13 @@
         <v>155</v>
       </c>
       <c r="B34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C34" t="s">
+        <v>611</v>
+      </c>
+      <c r="D34" t="s">
         <v>612</v>
-      </c>
-      <c r="D34" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -19487,13 +19481,13 @@
         <v>242</v>
       </c>
       <c r="B35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C35" t="s">
+        <v>611</v>
+      </c>
+      <c r="D35" t="s">
         <v>612</v>
-      </c>
-      <c r="D35" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -19501,13 +19495,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D36" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -19515,13 +19509,13 @@
         <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C37" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D37" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -19529,13 +19523,13 @@
         <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C38" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D38" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -19543,13 +19537,13 @@
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C39" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D39" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -19557,13 +19551,13 @@
         <v>302</v>
       </c>
       <c r="B40" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C40" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D40" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -19571,13 +19565,13 @@
         <v>243</v>
       </c>
       <c r="B41" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C41" t="s">
+        <v>614</v>
+      </c>
+      <c r="D41" t="s">
         <v>615</v>
-      </c>
-      <c r="D41" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -19585,13 +19579,13 @@
         <v>192</v>
       </c>
       <c r="B42" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C42" t="s">
+        <v>614</v>
+      </c>
+      <c r="D42" t="s">
         <v>615</v>
-      </c>
-      <c r="D42" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -19599,13 +19593,13 @@
         <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C43" t="s">
+        <v>614</v>
+      </c>
+      <c r="D43" t="s">
         <v>615</v>
-      </c>
-      <c r="D43" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -19613,13 +19607,13 @@
         <v>260</v>
       </c>
       <c r="B44" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C44" t="s">
+        <v>614</v>
+      </c>
+      <c r="D44" t="s">
         <v>615</v>
-      </c>
-      <c r="D44" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -19627,13 +19621,13 @@
         <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C45" t="s">
+        <v>614</v>
+      </c>
+      <c r="D45" t="s">
         <v>615</v>
-      </c>
-      <c r="D45" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -19641,13 +19635,13 @@
         <v>192</v>
       </c>
       <c r="B46" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C46" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D46" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -19655,13 +19649,13 @@
         <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C47" t="s">
+        <v>616</v>
+      </c>
+      <c r="D47" t="s">
         <v>617</v>
-      </c>
-      <c r="D47" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -19669,13 +19663,13 @@
         <v>334</v>
       </c>
       <c r="B48" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C48" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D48" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -19683,13 +19677,13 @@
         <v>410</v>
       </c>
       <c r="B49" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C49" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D49" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -19697,13 +19691,13 @@
         <v>243</v>
       </c>
       <c r="B50" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C50" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D50" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -19711,13 +19705,13 @@
         <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C51" t="s">
         <v>366</v>
       </c>
       <c r="D51" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -19725,13 +19719,13 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C52" t="s">
         <v>366</v>
       </c>
       <c r="D52" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -19739,13 +19733,13 @@
         <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C53" t="s">
         <v>366</v>
       </c>
       <c r="D53" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -19753,13 +19747,13 @@
         <v>304</v>
       </c>
       <c r="B54" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C54" t="s">
         <v>366</v>
       </c>
       <c r="D54" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -19767,13 +19761,13 @@
         <v>378</v>
       </c>
       <c r="B55" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C55" t="s">
         <v>366</v>
       </c>
       <c r="D55" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -19781,13 +19775,13 @@
         <v>382</v>
       </c>
       <c r="B56" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C56" t="s">
         <v>366</v>
       </c>
       <c r="D56" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -19795,13 +19789,13 @@
         <v>364</v>
       </c>
       <c r="B57" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C57" t="s">
         <v>366</v>
       </c>
       <c r="D57" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -19812,7 +19806,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -19823,7 +19817,7 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -19834,7 +19828,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -19845,7 +19839,7 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -19861,24 +19855,24 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -19900,7 +19894,7 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -19911,7 +19905,7 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -19922,7 +19916,7 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -19933,7 +19927,7 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -19944,7 +19938,7 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -19977,7 +19971,7 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -19988,7 +19982,7 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -20021,7 +20015,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -20032,7 +20026,7 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -20054,7 +20048,7 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -20065,7 +20059,7 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -20076,7 +20070,7 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -20087,7 +20081,7 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -20098,7 +20092,7 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -20109,7 +20103,7 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -20120,7 +20114,7 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -20131,7 +20125,7 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -20164,7 +20158,7 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -20175,7 +20169,7 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -20186,7 +20180,7 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -20197,7 +20191,7 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -20208,7 +20202,7 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -20219,7 +20213,7 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -20255,16 +20249,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -20272,13 +20266,13 @@
         <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -20286,13 +20280,13 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -20300,13 +20294,13 @@
         <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -20314,13 +20308,13 @@
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -20328,13 +20322,13 @@
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -20342,13 +20336,13 @@
         <v>204</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -20356,97 +20350,97 @@
         <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -20454,13 +20448,13 @@
         <v>96</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -20468,69 +20462,69 @@
         <v>366</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -20538,13 +20532,13 @@
         <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -20552,13 +20546,13 @@
         <v>132</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -20566,27 +20560,27 @@
         <v>272</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -20594,111 +20588,111 @@
         <v>112</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -20706,153 +20700,153 @@
         <v>388</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -20918,166 +20912,166 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>635</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>775</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>783</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>787</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>791</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>795</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>798</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>799</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>803</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>807</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>811</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -21208,13 +21202,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -21222,10 +21216,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -21233,10 +21227,10 @@
         <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -21244,10 +21238,10 @@
         <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -21255,10 +21249,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -21266,142 +21260,142 @@
         <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>820</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>823</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>831</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>840</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>846</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>852</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -21409,10 +21403,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -21420,10 +21414,10 @@
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -21431,10 +21425,10 @@
         <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>861</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -21442,10 +21436,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -21453,10 +21447,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -21464,10 +21458,10 @@
         <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -21475,10 +21469,10 @@
         <v>141</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -21486,10 +21480,10 @@
         <v>193</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -21497,10 +21491,10 @@
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>873</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -21508,10 +21502,10 @@
         <v>172</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -21519,10 +21513,10 @@
         <v>305</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -21530,10 +21524,10 @@
         <v>235</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -21541,10 +21535,10 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -21552,10 +21546,10 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -21563,65 +21557,65 @@
         <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -21629,10 +21623,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -21646,7 +21640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+    <sheetView topLeftCell="A269" workbookViewId="0">
       <selection activeCell="D291" sqref="D291"/>
     </sheetView>
   </sheetViews>
@@ -21657,13 +21651,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -21671,21 +21665,21 @@
         <v>294</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -21693,10 +21687,10 @@
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -21704,10 +21698,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -21715,21 +21709,21 @@
         <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -21737,21 +21731,21 @@
         <v>376</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -21759,10 +21753,10 @@
         <v>240</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -21770,10 +21764,10 @@
         <v>164</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -21781,10 +21775,10 @@
         <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -21792,10 +21786,10 @@
         <v>243</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -21803,10 +21797,10 @@
         <v>252</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -21814,10 +21808,10 @@
         <v>311</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -21825,10 +21819,10 @@
         <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -21836,10 +21830,10 @@
         <v>218</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -21847,10 +21841,10 @@
         <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -21858,10 +21852,10 @@
         <v>309</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -21869,10 +21863,10 @@
         <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -21880,10 +21874,10 @@
         <v>410</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -21891,10 +21885,10 @@
         <v>166</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>943</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -21902,10 +21896,10 @@
         <v>229</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -21913,10 +21907,10 @@
         <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -21924,10 +21918,10 @@
         <v>394</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -21935,10 +21929,10 @@
         <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>951</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -21946,10 +21940,10 @@
         <v>328</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -21957,10 +21951,10 @@
         <v>318</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -21968,32 +21962,32 @@
         <v>288</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>957</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>961</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -22001,10 +21995,10 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -22012,10 +22006,10 @@
         <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -22023,10 +22017,10 @@
         <v>269</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>967</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -22034,10 +22028,10 @@
         <v>144</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>969</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -22045,10 +22039,10 @@
         <v>322</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>971</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -22056,21 +22050,21 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>975</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -22078,10 +22072,10 @@
         <v>377</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>977</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -22089,21 +22083,21 @@
         <v>100</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>981</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -22111,10 +22105,10 @@
         <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -22122,10 +22116,10 @@
         <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>985</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -22133,10 +22127,10 @@
         <v>106</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -22144,32 +22138,32 @@
         <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -22177,10 +22171,10 @@
         <v>187</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -22188,10 +22182,10 @@
         <v>363</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -22199,10 +22193,10 @@
         <v>284</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>999</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -22210,10 +22204,10 @@
         <v>391</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -22221,21 +22215,21 @@
         <v>435</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>1005</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -22243,21 +22237,21 @@
         <v>238</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -22265,10 +22259,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -22276,10 +22270,10 @@
         <v>356</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -22287,10 +22281,10 @@
         <v>304</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -22298,10 +22292,10 @@
         <v>367</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -22309,21 +22303,21 @@
         <v>242</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -22331,10 +22325,10 @@
         <v>214</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -22342,10 +22336,10 @@
         <v>298</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>1025</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -22353,10 +22347,10 @@
         <v>371</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -22364,10 +22358,10 @@
         <v>191</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>1029</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -22375,21 +22369,21 @@
         <v>336</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -22397,21 +22391,21 @@
         <v>378</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -22419,10 +22413,10 @@
         <v>210</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -22430,10 +22424,10 @@
         <v>374</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -22441,10 +22435,10 @@
         <v>265</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -22452,21 +22446,21 @@
         <v>340</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>1047</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -22474,10 +22468,10 @@
         <v>179</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -22485,21 +22479,21 @@
         <v>136</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>1053</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -22507,10 +22501,10 @@
         <v>368</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -22518,10 +22512,10 @@
         <v>189</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -22529,10 +22523,10 @@
         <v>146</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>1059</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -22540,10 +22534,10 @@
         <v>372</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -22551,10 +22545,10 @@
         <v>370</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -22562,10 +22556,10 @@
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>1065</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -22573,10 +22567,10 @@
         <v>222</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -22584,10 +22578,10 @@
         <v>380</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>1069</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -22595,10 +22589,10 @@
         <v>155</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>1071</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -22606,10 +22600,10 @@
         <v>140</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>1073</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -22617,10 +22611,10 @@
         <v>423</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -22628,32 +22622,32 @@
         <v>71</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>1077</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>1079</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -22661,10 +22655,10 @@
         <v>330</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>1083</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -22672,10 +22666,10 @@
         <v>324</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>1085</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -22683,10 +22677,10 @@
         <v>260</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -22694,10 +22688,10 @@
         <v>360</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>1089</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -22705,10 +22699,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -22716,10 +22710,10 @@
         <v>175</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -22727,10 +22721,10 @@
         <v>120</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -22738,10 +22732,10 @@
         <v>244</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -22749,10 +22743,10 @@
         <v>201</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -22760,10 +22754,10 @@
         <v>302</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>1101</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -22771,10 +22765,10 @@
         <v>183</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>1103</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -22782,10 +22776,10 @@
         <v>278</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>1105</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -22793,10 +22787,10 @@
         <v>289</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -22804,10 +22798,10 @@
         <v>60</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -22815,10 +22809,10 @@
         <v>383</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -22826,10 +22820,10 @@
         <v>375</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>1113</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -22837,21 +22831,21 @@
         <v>386</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>1117</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -22859,10 +22853,10 @@
         <v>97</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -22870,10 +22864,10 @@
         <v>369</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -22881,10 +22875,10 @@
         <v>382</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -22892,21 +22886,21 @@
         <v>364</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -22914,10 +22908,10 @@
         <v>292</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -22925,10 +22919,10 @@
         <v>392</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>1131</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -22936,10 +22930,10 @@
         <v>256</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>1133</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -22947,10 +22941,10 @@
         <v>192</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -22958,21 +22952,21 @@
         <v>335</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>1137</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -22980,10 +22974,10 @@
         <v>352</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -22991,21 +22985,21 @@
         <v>29</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>1145</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -23013,21 +23007,21 @@
         <v>362</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>1147</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>1149</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -23035,21 +23029,21 @@
         <v>65</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>1151</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>1153</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -23057,21 +23051,21 @@
         <v>348</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>1155</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>1157</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -23079,10 +23073,10 @@
         <v>389</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>1159</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -23090,10 +23084,10 @@
         <v>119</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>1161</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -23101,10 +23095,10 @@
         <v>267</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>1163</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -23112,10 +23106,10 @@
         <v>55</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>1165</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -23123,10 +23117,10 @@
         <v>79</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>1167</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -23134,21 +23128,21 @@
         <v>17</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>1169</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>1171</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -23156,10 +23150,10 @@
         <v>206</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>1173</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -23167,21 +23161,21 @@
         <v>274</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>1175</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>1177</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -23189,10 +23183,10 @@
         <v>124</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>1179</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -23200,10 +23194,10 @@
         <v>248</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>1181</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -23211,10 +23205,10 @@
         <v>334</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -23222,10 +23216,10 @@
         <v>227</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>1185</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -23233,10 +23227,10 @@
         <v>373</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>1187</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -23244,10 +23238,10 @@
         <v>138</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>1189</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -23255,10 +23249,10 @@
         <v>158</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>1191</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -23266,10 +23260,10 @@
         <v>246</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>1193</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -23277,10 +23271,10 @@
         <v>212</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -23288,10 +23282,10 @@
         <v>37</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>1197</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -23299,10 +23293,10 @@
         <v>122</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>1199</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -23310,10 +23304,10 @@
         <v>365</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>1201</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -23321,10 +23315,10 @@
         <v>281</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>1203</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -23332,10 +23326,10 @@
         <v>359</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -23343,10 +23337,10 @@
         <v>390</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>1207</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -23354,10 +23348,10 @@
         <v>393</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>1209</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -23365,10 +23359,10 @@
         <v>254</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>1211</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -23376,10 +23370,10 @@
         <v>135</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>1213</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -23387,10 +23381,10 @@
         <v>220</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -23398,10 +23392,10 @@
         <v>69</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>1217</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -23409,10 +23403,10 @@
         <v>354</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>1219</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -23420,10 +23414,10 @@
         <v>98</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>1221</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -23431,10 +23425,10 @@
         <v>384</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>1223</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -23442,10 +23436,10 @@
         <v>258</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>1225</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -23453,10 +23447,10 @@
         <v>232</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>1227</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -23464,10 +23458,10 @@
         <v>291</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>1229</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -23475,10 +23469,10 @@
         <v>310</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>1231</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -23486,10 +23480,10 @@
         <v>361</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>1233</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -23497,10 +23491,10 @@
         <v>381</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>1235</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -23508,10 +23502,10 @@
         <v>57</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>1237</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -23519,10 +23513,10 @@
         <v>315</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>1239</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -23530,10 +23524,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>1241</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -23541,10 +23535,10 @@
         <v>226</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>1243</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -23552,10 +23546,10 @@
         <v>395</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>1245</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -23563,10 +23557,10 @@
         <v>332</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -23574,10 +23568,10 @@
         <v>208</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>1249</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -23585,10 +23579,10 @@
         <v>131</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>1251</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -23596,10 +23590,10 @@
         <v>31</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>1253</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -23607,10 +23601,10 @@
         <v>268</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>1255</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -23618,10 +23612,10 @@
         <v>185</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>1257</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -23629,10 +23623,10 @@
         <v>203</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>1259</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -23640,10 +23634,10 @@
         <v>296</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>1261</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -23651,10 +23645,10 @@
         <v>82</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>1263</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -23662,10 +23656,10 @@
         <v>177</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>1265</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -23673,10 +23667,10 @@
         <v>149</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>1267</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -23684,10 +23678,10 @@
         <v>351</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>1269</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -23695,10 +23689,10 @@
         <v>76</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>1271</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -23706,10 +23700,10 @@
         <v>266</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>1273</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -23717,10 +23711,10 @@
         <v>216</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>1275</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -23728,10 +23722,10 @@
         <v>329</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>1277</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -23739,10 +23733,10 @@
         <v>250</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>1279</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -23750,10 +23744,10 @@
         <v>343</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>1281</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -23761,10 +23755,10 @@
         <v>271</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>1283</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -23772,10 +23766,10 @@
         <v>387</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>1285</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -23783,10 +23777,10 @@
         <v>276</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>1287</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -23794,10 +23788,10 @@
         <v>169</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>1289</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -23805,10 +23799,10 @@
         <v>338</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>1291</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -23816,10 +23810,10 @@
         <v>286</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>1293</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -23827,10 +23821,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>1295</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -23838,10 +23832,10 @@
         <v>63</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>1297</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -23849,10 +23843,10 @@
         <v>103</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>1299</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -23860,10 +23854,10 @@
         <v>111</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>1301</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -23871,10 +23865,10 @@
         <v>23</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>1303</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -23882,10 +23876,10 @@
         <v>326</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>1305</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -23893,10 +23887,10 @@
         <v>303</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>1307</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -23904,10 +23898,10 @@
         <v>95</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>1309</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -23915,10 +23909,10 @@
         <v>190</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>1311</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -23926,10 +23920,10 @@
         <v>87</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>1313</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -23937,10 +23931,10 @@
         <v>379</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>1315</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -23948,10 +23942,10 @@
         <v>320</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>1317</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -23959,10 +23953,10 @@
         <v>188</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>1319</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -23970,10 +23964,10 @@
         <v>143</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>1321</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -23981,10 +23975,10 @@
         <v>307</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>1323</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -23992,10 +23986,10 @@
         <v>301</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>1325</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -24003,10 +23997,10 @@
         <v>181</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>1327</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -24014,10 +24008,10 @@
         <v>126</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>1329</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -24025,10 +24019,10 @@
         <v>51</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>1331</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -24036,10 +24030,10 @@
         <v>165</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>1333</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -24047,10 +24041,10 @@
         <v>228</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -24058,10 +24052,10 @@
         <v>239</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>1337</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -24069,10 +24063,10 @@
         <v>262</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>1339</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -24080,10 +24074,10 @@
         <v>293</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>1341</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24091,10 +24085,10 @@
         <v>323</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>1343</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24102,10 +24096,10 @@
         <v>139</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>1345</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -24113,10 +24107,10 @@
         <v>64</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>1347</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -24124,10 +24118,10 @@
         <v>255</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>1349</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -24135,10 +24129,10 @@
         <v>127</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>1351</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -24146,10 +24140,10 @@
         <v>277</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>1353</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -24157,10 +24151,10 @@
         <v>123</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>1355</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -24168,10 +24162,10 @@
         <v>234</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>1357</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -24179,10 +24173,10 @@
         <v>205</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>1359</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -24190,10 +24184,10 @@
         <v>247</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>1361</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -24201,10 +24195,10 @@
         <v>200</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>1363</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -24212,10 +24206,10 @@
         <v>339</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>1365</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -24223,10 +24217,10 @@
         <v>48</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>1367</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -24234,10 +24228,10 @@
         <v>78</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>1369</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -24245,10 +24239,10 @@
         <v>105</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>1371</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -24256,10 +24250,10 @@
         <v>259</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>1373</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -24267,10 +24261,10 @@
         <v>327</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>1375</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -24278,10 +24272,10 @@
         <v>70</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>1377</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -24289,10 +24283,10 @@
         <v>241</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>1379</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -24300,10 +24294,10 @@
         <v>347</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>1381</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -24311,10 +24305,10 @@
         <v>33</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>1383</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -24322,10 +24316,10 @@
         <v>40</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>1385</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24333,10 +24327,10 @@
         <v>163</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>1387</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -24344,10 +24338,10 @@
         <v>209</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>1389</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -24355,10 +24349,10 @@
         <v>283</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>1391</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -24366,10 +24360,10 @@
         <v>333</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>1393</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -24377,10 +24371,10 @@
         <v>273</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>1395</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -24388,10 +24382,10 @@
         <v>251</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>1397</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -24399,10 +24393,10 @@
         <v>154</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>1399</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -24410,10 +24404,10 @@
         <v>114</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>1401</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -24421,10 +24415,10 @@
         <v>186</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>1403</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24432,10 +24426,10 @@
         <v>178</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>1405</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -24443,10 +24437,10 @@
         <v>297</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>1407</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -24454,10 +24448,10 @@
         <v>308</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>1409</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -24465,10 +24459,10 @@
         <v>345</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>1411</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -24476,10 +24470,10 @@
         <v>84</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>1413</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -24487,10 +24481,10 @@
         <v>171</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>1415</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -24498,10 +24492,10 @@
         <v>72</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>1417</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -24509,10 +24503,10 @@
         <v>89</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>1419</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24520,10 +24514,10 @@
         <v>174</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>1421</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -24531,10 +24525,10 @@
         <v>317</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>1423</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -24542,10 +24536,10 @@
         <v>287</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>1425</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -24553,10 +24547,10 @@
         <v>107</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>1427</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -24564,10 +24558,10 @@
         <v>221</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>1429</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -24575,10 +24569,10 @@
         <v>161</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>1431</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -24586,10 +24580,10 @@
         <v>150</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>1433</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -24597,10 +24591,10 @@
         <v>182</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>1435</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -24608,10 +24602,10 @@
         <v>355</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>1437</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -24619,10 +24613,10 @@
         <v>198</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>1439</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -24630,10 +24624,10 @@
         <v>27</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>1441</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -24641,10 +24635,10 @@
         <v>217</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>1443</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -24652,10 +24646,10 @@
         <v>145</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>1445</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -24663,10 +24657,10 @@
         <v>117</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>1447</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -24674,10 +24668,10 @@
         <v>152</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>1449</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -24685,10 +24679,10 @@
         <v>213</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>1451</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -24696,10 +24690,10 @@
         <v>237</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>1453</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -24707,10 +24701,10 @@
         <v>264</v>
       </c>
       <c r="B278" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>1455</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -24718,10 +24712,10 @@
         <v>397</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>1457</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -24729,10 +24723,10 @@
         <v>396</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>1459</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -24740,10 +24734,10 @@
         <v>66</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>1461</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -24751,10 +24745,10 @@
         <v>400</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>1463</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -24762,10 +24756,10 @@
         <v>402</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>1465</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -24773,10 +24767,10 @@
         <v>404</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>1467</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -24784,10 +24778,10 @@
         <v>405</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>1469</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -24795,10 +24789,10 @@
         <v>409</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>1471</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -24806,10 +24800,10 @@
         <v>414</v>
       </c>
       <c r="B287" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C287" t="s">
         <v>1473</v>
-      </c>
-      <c r="C287" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -24817,10 +24811,10 @@
         <v>416</v>
       </c>
       <c r="B288" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C288" t="s">
         <v>1475</v>
-      </c>
-      <c r="C288" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -24828,10 +24822,10 @@
         <v>417</v>
       </c>
       <c r="B289" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C289" t="s">
         <v>1477</v>
-      </c>
-      <c r="C289" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -24839,10 +24833,10 @@
         <v>419</v>
       </c>
       <c r="B290" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C290" t="s">
         <v>1479</v>
-      </c>
-      <c r="C290" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -24850,10 +24844,10 @@
         <v>426</v>
       </c>
       <c r="B291" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C291" t="s">
         <v>1481</v>
-      </c>
-      <c r="C291" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -24861,10 +24855,10 @@
         <v>428</v>
       </c>
       <c r="B292" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C292" t="s">
         <v>1483</v>
-      </c>
-      <c r="C292" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -24872,10 +24866,10 @@
         <v>430</v>
       </c>
       <c r="B293" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C293" t="s">
         <v>1485</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -24883,10 +24877,10 @@
         <v>432</v>
       </c>
       <c r="B294" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C294" t="s">
         <v>1487</v>
-      </c>
-      <c r="C294" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -24894,10 +24888,10 @@
         <v>434</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -24905,10 +24899,10 @@
         <v>439</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -24916,10 +24910,10 @@
         <v>442</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
   </sheetData>
@@ -24928,7 +24922,7 @@
     <hyperlink ref="B282" r:id="rId1" tooltip="Shion (Alter)" display="https://anothereden.miraheze.org/wiki/Shion_(Alter)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -24947,365 +24941,365 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1491</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1493</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>1496</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>1499</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>1502</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>1505</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>1508</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>1511</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>1513</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>1514</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>1517</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>1520</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>1523</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>1526</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>1528</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>1531</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>1534</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>1537</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>1540</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>1543</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>1546</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>1549</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>1552</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>1555</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>1558</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>1561</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>1563</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>1564</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>1567</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>1570</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>1572</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1573</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>1575</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>1578</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>1581</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -25313,10 +25307,10 @@
         <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -25324,10 +25318,10 @@
         <v>141</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -25335,10 +25329,10 @@
         <v>193</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -25346,10 +25340,10 @@
         <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>873</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -25357,10 +25351,10 @@
         <v>172</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -25368,10 +25362,10 @@
         <v>305</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -25379,10 +25373,10 @@
         <v>235</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -25390,43 +25384,43 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>1584</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>1586</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>1587</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -5280,8 +5280,8 @@
   <dimension ref="A1:S288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N289" sqref="N289"/>
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L276" sqref="L276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16226,7 +16226,7 @@
         <v>20</v>
       </c>
       <c r="I276" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" s="1" t="b">
         <v>0</v>
@@ -16267,7 +16267,7 @@
         <v>43</v>
       </c>
       <c r="I277" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J277" s="1" t="b">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
@@ -5279,9 +5279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L276" sqref="L276"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16299,7 +16299,7 @@
         <v>20</v>
       </c>
       <c r="I278" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" s="1" t="b">
         <v>0</v>
@@ -16334,7 +16334,7 @@
         <v>20</v>
       </c>
       <c r="I279" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279" s="1" t="b">
         <v>0</v>
@@ -16370,7 +16370,7 @@
         <v>20</v>
       </c>
       <c r="I280" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" s="1" t="b">
         <v>0</v>
@@ -16405,7 +16405,7 @@
         <v>20</v>
       </c>
       <c r="I281" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" s="1" t="b">
         <v>0</v>
@@ -20891,7 +20891,7 @@
     <hyperlink ref="B40" r:id="rId37" tooltip="Sapient Complex: Midnight (Another Dungeon)" display="https://anothereden.miraheze.org/wiki/Sapient_Complex:_Midnight_(Another_Dungeon)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
 
@@ -21640,8 +21640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C297"/>
   <sheetViews>
-    <sheetView topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="D291" sqref="D291"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24796,57 +24796,57 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+      <c r="A287" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+      <c r="A288" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="1" t="s">
         <v>1475</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+      <c r="A289" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="1" t="s">
         <v>1477</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+      <c r="A290" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="1" t="s">
         <v>1479</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+      <c r="A291" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="1" t="s">
         <v>1481</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
@@ -2493,9 +2493,6 @@
   </si>
   <si>
     <t>地</t>
-  </si>
-  <si>
-    <t>루나틱/무속성</t>
   </si>
   <si>
     <t>Etc.</t>
@@ -4884,6 +4881,10 @@
   </si>
   <si>
     <t>경전록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루나틱/무속성/기타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16689,7 +16690,7 @@
         <v>442</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
   </sheetData>
@@ -21191,8 +21192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21268,134 +21269,134 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>822</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>854</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -21403,10 +21404,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>856</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -21414,10 +21415,10 @@
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>858</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -21425,10 +21426,10 @@
         <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -21436,10 +21437,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -21447,10 +21448,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -21458,10 +21459,10 @@
         <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -21469,10 +21470,10 @@
         <v>141</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -21480,10 +21481,10 @@
         <v>193</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -21491,10 +21492,10 @@
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -21502,10 +21503,10 @@
         <v>172</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -21513,10 +21514,10 @@
         <v>305</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -21524,10 +21525,10 @@
         <v>235</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>878</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -21535,10 +21536,10 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -21546,10 +21547,10 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -21557,32 +21558,32 @@
         <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -21590,32 +21591,32 @@
         <v>444</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -21623,10 +21624,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>901</v>
       </c>
     </row>
   </sheetData>
@@ -21640,7 +21641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+    <sheetView topLeftCell="A269" workbookViewId="0">
       <selection activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
@@ -21665,10 +21666,10 @@
         <v>294</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -21676,10 +21677,10 @@
         <v>572</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -21687,10 +21688,10 @@
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -21698,10 +21699,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -21709,10 +21710,10 @@
         <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -21720,10 +21721,10 @@
         <v>462</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -21731,10 +21732,10 @@
         <v>376</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -21742,10 +21743,10 @@
         <v>499</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>916</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -21753,10 +21754,10 @@
         <v>240</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -21764,10 +21765,10 @@
         <v>164</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -21775,10 +21776,10 @@
         <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>922</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -21786,10 +21787,10 @@
         <v>243</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>924</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -21797,10 +21798,10 @@
         <v>252</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>926</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -21808,10 +21809,10 @@
         <v>311</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -21819,10 +21820,10 @@
         <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>930</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -21830,10 +21831,10 @@
         <v>218</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -21841,10 +21842,10 @@
         <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>934</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -21852,10 +21853,10 @@
         <v>309</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -21863,10 +21864,10 @@
         <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>938</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -21874,10 +21875,10 @@
         <v>410</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -21885,10 +21886,10 @@
         <v>166</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>942</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -21896,10 +21897,10 @@
         <v>229</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -21907,10 +21908,10 @@
         <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -21918,10 +21919,10 @@
         <v>394</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>948</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -21929,10 +21930,10 @@
         <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>950</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -21940,10 +21941,10 @@
         <v>328</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>952</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -21951,10 +21952,10 @@
         <v>318</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>954</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -21962,10 +21963,10 @@
         <v>288</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>956</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -21973,10 +21974,10 @@
         <v>535</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>958</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -21984,10 +21985,10 @@
         <v>502</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>960</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -21995,10 +21996,10 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -22006,10 +22007,10 @@
         <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -22017,10 +22018,10 @@
         <v>269</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -22028,10 +22029,10 @@
         <v>144</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -22039,10 +22040,10 @@
         <v>322</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>970</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -22050,10 +22051,10 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>972</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -22061,10 +22062,10 @@
         <v>501</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>974</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -22072,10 +22073,10 @@
         <v>377</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>976</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -22083,10 +22084,10 @@
         <v>100</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>978</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -22094,10 +22095,10 @@
         <v>452</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -22105,10 +22106,10 @@
         <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -22116,10 +22117,10 @@
         <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>984</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -22127,10 +22128,10 @@
         <v>106</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -22138,10 +22139,10 @@
         <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -22149,10 +22150,10 @@
         <v>554</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>990</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -22160,10 +22161,10 @@
         <v>534</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>992</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -22171,10 +22172,10 @@
         <v>187</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -22182,10 +22183,10 @@
         <v>363</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -22193,10 +22194,10 @@
         <v>284</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -22204,10 +22205,10 @@
         <v>391</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -22215,10 +22216,10 @@
         <v>435</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>1002</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -22226,10 +22227,10 @@
         <v>585</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -22237,10 +22238,10 @@
         <v>238</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>1006</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -22248,10 +22249,10 @@
         <v>546</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>1008</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -22259,10 +22260,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -22270,10 +22271,10 @@
         <v>356</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>1012</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -22281,10 +22282,10 @@
         <v>304</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>1014</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -22292,10 +22293,10 @@
         <v>367</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>1016</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -22303,10 +22304,10 @@
         <v>242</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -22314,10 +22315,10 @@
         <v>552</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -22325,10 +22326,10 @@
         <v>214</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -22336,10 +22337,10 @@
         <v>298</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -22347,10 +22348,10 @@
         <v>371</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -22358,10 +22359,10 @@
         <v>191</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -22369,10 +22370,10 @@
         <v>336</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -22380,10 +22381,10 @@
         <v>510</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -22391,10 +22392,10 @@
         <v>378</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>1034</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -22402,10 +22403,10 @@
         <v>524</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>1036</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -22413,10 +22414,10 @@
         <v>210</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>1038</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -22424,10 +22425,10 @@
         <v>374</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>1040</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -22435,10 +22436,10 @@
         <v>265</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -22446,10 +22447,10 @@
         <v>340</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -22457,10 +22458,10 @@
         <v>471</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>1046</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -22468,10 +22469,10 @@
         <v>179</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>1048</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -22479,10 +22480,10 @@
         <v>136</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>1050</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -22490,10 +22491,10 @@
         <v>447</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -22501,10 +22502,10 @@
         <v>368</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>1054</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -22512,10 +22513,10 @@
         <v>189</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>1056</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -22523,10 +22524,10 @@
         <v>146</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -22534,10 +22535,10 @@
         <v>372</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -22545,10 +22546,10 @@
         <v>370</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -22556,10 +22557,10 @@
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -22567,10 +22568,10 @@
         <v>222</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -22578,10 +22579,10 @@
         <v>380</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>1068</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -22589,10 +22590,10 @@
         <v>155</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -22600,10 +22601,10 @@
         <v>140</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -22611,10 +22612,10 @@
         <v>423</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -22622,10 +22623,10 @@
         <v>71</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>1076</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -22633,10 +22634,10 @@
         <v>519</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -22644,10 +22645,10 @@
         <v>503</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -22655,10 +22656,10 @@
         <v>330</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -22666,10 +22667,10 @@
         <v>324</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -22677,10 +22678,10 @@
         <v>260</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -22688,10 +22689,10 @@
         <v>360</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -22699,10 +22700,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -22710,10 +22711,10 @@
         <v>175</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>1092</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -22721,10 +22722,10 @@
         <v>120</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -22732,10 +22733,10 @@
         <v>244</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>1096</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -22743,10 +22744,10 @@
         <v>201</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>1098</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -22754,10 +22755,10 @@
         <v>302</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>1100</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -22765,10 +22766,10 @@
         <v>183</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>1102</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -22776,10 +22777,10 @@
         <v>278</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>1104</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -22787,10 +22788,10 @@
         <v>289</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -22798,10 +22799,10 @@
         <v>60</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -22809,10 +22810,10 @@
         <v>383</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>1110</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -22820,10 +22821,10 @@
         <v>375</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -22831,10 +22832,10 @@
         <v>386</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -22842,10 +22843,10 @@
         <v>478</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>1116</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -22853,10 +22854,10 @@
         <v>97</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -22864,10 +22865,10 @@
         <v>369</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -22875,10 +22876,10 @@
         <v>382</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>1122</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -22886,10 +22887,10 @@
         <v>364</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -22897,10 +22898,10 @@
         <v>550</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -22908,10 +22909,10 @@
         <v>292</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>1128</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -22919,10 +22920,10 @@
         <v>392</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>1130</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -22930,10 +22931,10 @@
         <v>256</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -22941,10 +22942,10 @@
         <v>192</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>1134</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -22952,10 +22953,10 @@
         <v>335</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -22963,10 +22964,10 @@
         <v>498</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -22974,10 +22975,10 @@
         <v>352</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>1140</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -22985,10 +22986,10 @@
         <v>29</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>1142</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -22996,10 +22997,10 @@
         <v>505</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -23007,10 +23008,10 @@
         <v>362</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -23018,10 +23019,10 @@
         <v>537</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>1148</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -23029,10 +23030,10 @@
         <v>65</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -23040,10 +23041,10 @@
         <v>457</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -23051,10 +23052,10 @@
         <v>348</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -23062,10 +23063,10 @@
         <v>539</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>1156</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -23073,10 +23074,10 @@
         <v>389</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -23084,10 +23085,10 @@
         <v>119</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -23095,10 +23096,10 @@
         <v>267</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>1162</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -23106,10 +23107,10 @@
         <v>55</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>1164</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -23117,10 +23118,10 @@
         <v>79</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>1166</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -23128,10 +23129,10 @@
         <v>17</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -23139,10 +23140,10 @@
         <v>458</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>1170</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -23150,10 +23151,10 @@
         <v>206</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>1172</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -23161,10 +23162,10 @@
         <v>274</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>1174</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -23172,10 +23173,10 @@
         <v>565</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>1176</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -23183,10 +23184,10 @@
         <v>124</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -23194,10 +23195,10 @@
         <v>248</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>1180</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -23205,10 +23206,10 @@
         <v>334</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>1182</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -23216,10 +23217,10 @@
         <v>227</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>1184</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -23227,10 +23228,10 @@
         <v>373</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>1186</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -23238,10 +23239,10 @@
         <v>138</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>1188</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -23249,10 +23250,10 @@
         <v>158</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>1190</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -23260,10 +23261,10 @@
         <v>246</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>1192</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -23271,10 +23272,10 @@
         <v>212</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>1194</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -23282,10 +23283,10 @@
         <v>37</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>1196</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -23293,10 +23294,10 @@
         <v>122</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>1198</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -23304,10 +23305,10 @@
         <v>365</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>1200</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -23315,10 +23316,10 @@
         <v>281</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>1202</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -23326,10 +23327,10 @@
         <v>359</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>1204</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -23337,10 +23338,10 @@
         <v>390</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>1206</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -23348,10 +23349,10 @@
         <v>393</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>1208</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -23359,10 +23360,10 @@
         <v>254</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>1210</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -23370,10 +23371,10 @@
         <v>135</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>1212</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -23381,10 +23382,10 @@
         <v>220</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>1214</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -23392,10 +23393,10 @@
         <v>69</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>1216</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -23403,10 +23404,10 @@
         <v>354</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>1218</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -23414,10 +23415,10 @@
         <v>98</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>1220</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -23425,10 +23426,10 @@
         <v>384</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>1222</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -23436,10 +23437,10 @@
         <v>258</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>1224</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -23447,10 +23448,10 @@
         <v>232</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>1226</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -23458,10 +23459,10 @@
         <v>291</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>1228</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -23469,10 +23470,10 @@
         <v>310</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>1230</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -23480,10 +23481,10 @@
         <v>361</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>1232</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -23491,10 +23492,10 @@
         <v>381</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>1234</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -23502,10 +23503,10 @@
         <v>57</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>1236</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -23513,10 +23514,10 @@
         <v>315</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>1238</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -23524,10 +23525,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>1240</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -23535,10 +23536,10 @@
         <v>226</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>1242</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -23546,10 +23547,10 @@
         <v>395</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>1244</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -23557,10 +23558,10 @@
         <v>332</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>1246</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -23568,10 +23569,10 @@
         <v>208</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>1248</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -23579,10 +23580,10 @@
         <v>131</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>1250</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -23590,10 +23591,10 @@
         <v>31</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>1252</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -23601,10 +23602,10 @@
         <v>268</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>1254</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -23612,10 +23613,10 @@
         <v>185</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>1256</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -23623,10 +23624,10 @@
         <v>203</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>1258</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -23634,10 +23635,10 @@
         <v>296</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>1260</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -23645,10 +23646,10 @@
         <v>82</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>1262</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -23656,10 +23657,10 @@
         <v>177</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>1264</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -23667,10 +23668,10 @@
         <v>149</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>1266</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -23678,10 +23679,10 @@
         <v>351</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>1268</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -23689,10 +23690,10 @@
         <v>76</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>1270</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -23700,10 +23701,10 @@
         <v>266</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>1272</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -23711,10 +23712,10 @@
         <v>216</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>1274</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -23722,10 +23723,10 @@
         <v>329</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>1276</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -23733,10 +23734,10 @@
         <v>250</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>1278</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -23744,10 +23745,10 @@
         <v>343</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>1280</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -23755,10 +23756,10 @@
         <v>271</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>1282</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -23766,10 +23767,10 @@
         <v>387</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>1284</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -23777,10 +23778,10 @@
         <v>276</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>1286</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -23788,10 +23789,10 @@
         <v>169</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -23799,10 +23800,10 @@
         <v>338</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>1290</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -23810,10 +23811,10 @@
         <v>286</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>1292</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -23821,10 +23822,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>1294</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -23832,10 +23833,10 @@
         <v>63</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>1296</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -23843,10 +23844,10 @@
         <v>103</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>1298</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -23854,10 +23855,10 @@
         <v>111</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>1300</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -23865,10 +23866,10 @@
         <v>23</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>1302</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -23876,10 +23877,10 @@
         <v>326</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>1304</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -23887,10 +23888,10 @@
         <v>303</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>1306</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -23898,10 +23899,10 @@
         <v>95</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>1308</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -23909,10 +23910,10 @@
         <v>190</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>1310</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -23920,10 +23921,10 @@
         <v>87</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>1312</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -23931,10 +23932,10 @@
         <v>379</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>1314</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -23942,10 +23943,10 @@
         <v>320</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>1316</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -23953,10 +23954,10 @@
         <v>188</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>1318</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -23964,10 +23965,10 @@
         <v>143</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>1320</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -23975,10 +23976,10 @@
         <v>307</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -23986,10 +23987,10 @@
         <v>301</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>1324</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -23997,10 +23998,10 @@
         <v>181</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>1326</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -24008,10 +24009,10 @@
         <v>126</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>1328</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -24019,10 +24020,10 @@
         <v>51</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>1330</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -24030,10 +24031,10 @@
         <v>165</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>1332</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -24041,10 +24042,10 @@
         <v>228</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>1334</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -24052,10 +24053,10 @@
         <v>239</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>1336</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -24063,10 +24064,10 @@
         <v>262</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>1338</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -24074,10 +24075,10 @@
         <v>293</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>1340</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24085,10 +24086,10 @@
         <v>323</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>1342</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24096,10 +24097,10 @@
         <v>139</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>1344</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -24107,10 +24108,10 @@
         <v>64</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>1346</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -24118,10 +24119,10 @@
         <v>255</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>1348</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -24129,10 +24130,10 @@
         <v>127</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>1350</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -24140,10 +24141,10 @@
         <v>277</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>1352</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -24151,10 +24152,10 @@
         <v>123</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>1354</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -24162,10 +24163,10 @@
         <v>234</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>1356</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -24173,10 +24174,10 @@
         <v>205</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>1358</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -24184,10 +24185,10 @@
         <v>247</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>1360</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -24195,10 +24196,10 @@
         <v>200</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>1362</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -24206,10 +24207,10 @@
         <v>339</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>1364</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -24217,10 +24218,10 @@
         <v>48</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>1366</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -24228,10 +24229,10 @@
         <v>78</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>1368</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -24239,10 +24240,10 @@
         <v>105</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>1370</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -24250,10 +24251,10 @@
         <v>259</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>1372</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -24261,10 +24262,10 @@
         <v>327</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>1374</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -24272,10 +24273,10 @@
         <v>70</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>1376</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -24283,10 +24284,10 @@
         <v>241</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>1378</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -24294,10 +24295,10 @@
         <v>347</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>1380</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -24305,10 +24306,10 @@
         <v>33</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>1382</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -24316,10 +24317,10 @@
         <v>40</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>1384</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24327,10 +24328,10 @@
         <v>163</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>1386</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -24338,10 +24339,10 @@
         <v>209</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>1388</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -24349,10 +24350,10 @@
         <v>283</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>1390</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -24360,10 +24361,10 @@
         <v>333</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>1392</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -24371,10 +24372,10 @@
         <v>273</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>1394</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -24382,10 +24383,10 @@
         <v>251</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>1396</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -24393,10 +24394,10 @@
         <v>154</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>1398</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -24404,10 +24405,10 @@
         <v>114</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>1400</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -24415,10 +24416,10 @@
         <v>186</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>1402</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24426,10 +24427,10 @@
         <v>178</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>1404</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -24437,10 +24438,10 @@
         <v>297</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>1406</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -24448,10 +24449,10 @@
         <v>308</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>1408</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -24459,10 +24460,10 @@
         <v>345</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>1410</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -24470,10 +24471,10 @@
         <v>84</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>1412</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -24481,10 +24482,10 @@
         <v>171</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>1414</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -24492,10 +24493,10 @@
         <v>72</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>1416</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -24503,10 +24504,10 @@
         <v>89</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>1418</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24514,10 +24515,10 @@
         <v>174</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>1420</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -24525,10 +24526,10 @@
         <v>317</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>1422</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -24536,10 +24537,10 @@
         <v>287</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>1424</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -24547,10 +24548,10 @@
         <v>107</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>1426</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -24558,10 +24559,10 @@
         <v>221</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>1428</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -24569,10 +24570,10 @@
         <v>161</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>1430</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -24580,10 +24581,10 @@
         <v>150</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>1432</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -24591,10 +24592,10 @@
         <v>182</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>1434</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -24602,10 +24603,10 @@
         <v>355</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>1436</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -24613,10 +24614,10 @@
         <v>198</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>1438</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -24624,10 +24625,10 @@
         <v>27</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>1440</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -24635,10 +24636,10 @@
         <v>217</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>1442</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -24646,10 +24647,10 @@
         <v>145</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>1444</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -24657,10 +24658,10 @@
         <v>117</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>1446</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -24668,10 +24669,10 @@
         <v>152</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>1448</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -24679,10 +24680,10 @@
         <v>213</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>1450</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -24690,10 +24691,10 @@
         <v>237</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>1452</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -24701,10 +24702,10 @@
         <v>264</v>
       </c>
       <c r="B278" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>1454</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -24712,10 +24713,10 @@
         <v>397</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>1456</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -24723,10 +24724,10 @@
         <v>396</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>1458</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -24734,10 +24735,10 @@
         <v>66</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>1460</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -24745,10 +24746,10 @@
         <v>400</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>1462</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -24756,10 +24757,10 @@
         <v>402</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>1464</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -24767,10 +24768,10 @@
         <v>404</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>1466</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -24778,10 +24779,10 @@
         <v>405</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>1468</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -24789,10 +24790,10 @@
         <v>409</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>1470</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -24800,10 +24801,10 @@
         <v>414</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>1472</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -24811,10 +24812,10 @@
         <v>416</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>1474</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -24822,10 +24823,10 @@
         <v>417</v>
       </c>
       <c r="B289" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C289" s="1" t="s">
         <v>1476</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -24833,10 +24834,10 @@
         <v>419</v>
       </c>
       <c r="B290" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C290" s="1" t="s">
         <v>1478</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -24844,10 +24845,10 @@
         <v>426</v>
       </c>
       <c r="B291" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>1480</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -24855,10 +24856,10 @@
         <v>428</v>
       </c>
       <c r="B292" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C292" t="s">
         <v>1482</v>
-      </c>
-      <c r="C292" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -24866,10 +24867,10 @@
         <v>430</v>
       </c>
       <c r="B293" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C293" t="s">
         <v>1484</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -24877,10 +24878,10 @@
         <v>432</v>
       </c>
       <c r="B294" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C294" t="s">
         <v>1486</v>
-      </c>
-      <c r="C294" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -24888,10 +24889,10 @@
         <v>434</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -24899,10 +24900,10 @@
         <v>439</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -24910,10 +24911,10 @@
         <v>442</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
   </sheetData>
@@ -24952,354 +24953,354 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1490</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1491</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1492</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>1495</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>1498</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>1501</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>1504</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>1507</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>1510</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>1513</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1515</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>1516</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>1519</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>1522</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>1525</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>1527</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>1530</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>1533</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>1536</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>1539</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>1542</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>1545</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>1548</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>1551</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>1554</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>1557</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>1559</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>1560</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>1563</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>1566</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>1569</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>675</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>1574</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>1577</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>1580</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -25307,10 +25308,10 @@
         <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -25318,10 +25319,10 @@
         <v>141</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -25329,10 +25330,10 @@
         <v>193</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -25340,10 +25341,10 @@
         <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -25351,10 +25352,10 @@
         <v>172</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -25362,10 +25363,10 @@
         <v>305</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -25373,10 +25374,10 @@
         <v>235</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>878</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -25384,43 +25385,43 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>1582</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>1583</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>1585</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>1586</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
-    <sheet name="퍼스널리티" sheetId="2" r:id="rId2"/>
-    <sheet name="보너스" sheetId="3" r:id="rId3"/>
-    <sheet name="던전" sheetId="4" r:id="rId4"/>
-    <sheet name="설명" sheetId="5" r:id="rId5"/>
-    <sheet name="기타번역" sheetId="6" r:id="rId6"/>
-    <sheet name="캐릭번역" sheetId="7" r:id="rId7"/>
-    <sheet name="특성번역" sheetId="8" r:id="rId8"/>
+    <sheet name="버디" sheetId="2" r:id="rId2"/>
+    <sheet name="퍼스널리티" sheetId="3" r:id="rId3"/>
+    <sheet name="보너스" sheetId="4" r:id="rId4"/>
+    <sheet name="던전" sheetId="5" r:id="rId5"/>
+    <sheet name="설명" sheetId="6" r:id="rId6"/>
+    <sheet name="기타번역" sheetId="7" r:id="rId7"/>
+    <sheet name="캐릭번역" sheetId="8" r:id="rId8"/>
+    <sheet name="특성번역" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">보너스!$A$1:$D$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">보너스!$A$1:$D$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">캐릭터!$A$1:$Q$288</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="1595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="1625">
   <si>
     <t>아이디</t>
   </si>
@@ -1361,6 +1362,48 @@
     <t>미야비노카미</t>
   </si>
   <si>
+    <t>미나르카</t>
+  </si>
+  <si>
+    <t>101010131</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>네메시스</t>
+  </si>
+  <si>
+    <t>애쉬티어</t>
+  </si>
+  <si>
+    <t>101060161</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>버디 코드</t>
+  </si>
+  <si>
+    <t>선행 캐릭터</t>
+  </si>
+  <si>
+    <t>테트라</t>
+  </si>
+  <si>
+    <t>코로보</t>
+  </si>
+  <si>
+    <t>우쿨렐레 님</t>
+  </si>
+  <si>
+    <t>올챙이맨더</t>
+  </si>
+  <si>
     <t>ES 여부</t>
   </si>
   <si>
@@ -1826,6 +1869,12 @@
     <t>창,동방,왕족</t>
   </si>
   <si>
+    <t>검,대식가</t>
+  </si>
+  <si>
+    <t>안경,권갑,총,과학자</t>
+  </si>
+  <si>
     <t>보너스타입 (천명 or 배수)</t>
   </si>
   <si>
@@ -2495,6 +2544,9 @@
     <t>地</t>
   </si>
   <si>
+    <t>루나틱/무속성/기타</t>
+  </si>
+  <si>
     <t>Etc.</t>
   </si>
   <si>
@@ -2711,9 +2763,6 @@
     <t>パーソナリティ</t>
   </si>
   <si>
-    <t>이름</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -4478,24 +4527,24 @@
     <t>Kelkale</t>
   </si>
   <si>
-    <t>ケリュケール</t>
-  </si>
-  <si>
     <t>Avesta</t>
   </si>
   <si>
-    <t>アヴェスター</t>
-  </si>
-  <si>
     <t>Unknown Rose</t>
   </si>
   <si>
-    <t>アンノーンローズ</t>
-  </si>
-  <si>
     <t>Gotoku Cat</t>
   </si>
   <si>
+    <t>Tsukiha (Alter)</t>
+  </si>
+  <si>
+    <t>Miyabinokami</t>
+  </si>
+  <si>
+    <t>ミヤビノカミ</t>
+  </si>
+  <si>
     <t>장비</t>
   </si>
   <si>
@@ -4796,15 +4845,164 @@
     <t>COA</t>
   </si>
   <si>
-    <t>Tsukiha (Alter)</t>
+    <t>Ashtear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ミヤビノカミ</t>
-  </si>
-  <si>
-    <t>Miyabinokami</t>
+    <t>Minalca</t>
+  </si>
+  <si>
+    <t>Tetra</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lord Ukulele</t>
+  </si>
+  <si>
+    <t>Corobo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nemesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimander</t>
+  </si>
+  <si>
+    <r>
+      <t>オタマンダ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ウクレレ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>様</t>
+    </r>
+  </si>
+  <si>
+    <t>ミナルカ</t>
+  </si>
+  <si>
+    <t>アシュティア</t>
+  </si>
+  <si>
+    <t>ネメシス</t>
+  </si>
+  <si>
+    <t>コロボ</t>
+  </si>
+  <si>
+    <t>テトラ</t>
+  </si>
+  <si>
+    <r>
+      <t>ケリュケ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ル</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>アヴェスタ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>アンノ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ンロ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ズ</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4880,11 +5078,11 @@
     </r>
   </si>
   <si>
-    <t>경전록</t>
+    <t>코로보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루나틱/무속성/기타</t>
+    <t>Unknown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4892,7 +5090,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4936,6 +5134,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5278,11 +5484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S288"/>
+  <dimension ref="A1:S291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B305" sqref="B305"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16690,7 +16896,115 @@
         <v>442</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>1593</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C289" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G289" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I289" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J289" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L289" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G290" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I290" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J290" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K290" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="M290" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="N290" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G291" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I291" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J291" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16706,10 +17020,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>289</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>290</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2000000003</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2000000004</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2000000005</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E159"/>
+  <sheetViews>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16719,8 +17193,8 @@
     <col min="4" max="4" width="25" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="2" customWidth="1"/>
     <col min="6" max="19" width="25" style="1" customWidth="1"/>
-    <col min="20" max="30" width="9" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
+    <col min="20" max="31" width="9" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -16728,13 +17202,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -16748,7 +17222,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="E2" s="1">
         <v>101000011</v>
@@ -16756,13 +17230,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="E3" s="1">
         <v>101000021</v>
@@ -16776,7 +17250,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="E4" s="1">
         <v>101000031</v>
@@ -16790,7 +17264,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="E5" s="1">
         <v>101000041</v>
@@ -16818,7 +17292,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="E7" s="1">
         <v>101000061</v>
@@ -16826,13 +17300,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="E8" s="1">
         <v>101000071</v>
@@ -16860,7 +17334,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="E10" s="1">
         <v>101000101</v>
@@ -16874,10 +17348,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="E11" s="1">
         <v>101000111</v>
@@ -16891,7 +17365,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="E12" s="1">
         <v>101000121</v>
@@ -16905,7 +17379,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="E13" s="1">
         <v>101000141</v>
@@ -16913,7 +17387,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>0</v>
@@ -16927,13 +17401,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="E15" s="1">
         <v>101000161</v>
@@ -16947,7 +17421,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="E16" s="1">
         <v>101000171</v>
@@ -16961,7 +17435,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="E17" s="1">
         <v>101000191</v>
@@ -16975,7 +17449,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="E18" s="1">
         <v>101000201</v>
@@ -16983,13 +17457,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="E19" s="1">
         <v>101000211</v>
@@ -17003,7 +17477,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="E20" s="1">
         <v>101000221</v>
@@ -17017,7 +17491,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="E21" s="1">
         <v>101000231</v>
@@ -17031,7 +17505,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="E22" s="1">
         <v>101000241</v>
@@ -17045,10 +17519,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="E23" s="1">
         <v>101000251</v>
@@ -17062,7 +17536,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="E24" s="1">
         <v>101000261</v>
@@ -17076,7 +17550,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="E25" s="1">
         <v>101000271</v>
@@ -17104,7 +17578,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="E27" s="1">
         <v>101000291</v>
@@ -17118,7 +17592,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="E28" s="1">
         <v>101010011</v>
@@ -17126,13 +17600,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="B29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="E29" s="1">
         <v>101010021</v>
@@ -17146,10 +17620,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="E30" s="1">
         <v>101010031</v>
@@ -17163,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="E31" s="1">
         <v>101010041</v>
@@ -17177,7 +17651,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="E32" s="1">
         <v>101010041</v>
@@ -17191,7 +17665,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="E33" s="1">
         <v>101010051</v>
@@ -17199,13 +17673,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="B34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="E34" s="1">
         <v>101010061</v>
@@ -17233,7 +17707,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="E36" s="1">
         <v>101010091</v>
@@ -17247,7 +17721,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="E37" s="1">
         <v>101010101</v>
@@ -17261,7 +17735,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="E38" s="1">
         <v>101010111</v>
@@ -17275,7 +17749,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="E39" s="1">
         <v>101010121</v>
@@ -17289,7 +17763,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="E40" s="1">
         <v>101020011</v>
@@ -17303,7 +17777,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="E41" s="1">
         <v>101020021</v>
@@ -17317,7 +17791,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="E42" s="1">
         <v>101020031</v>
@@ -17331,7 +17805,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="E43" s="1">
         <v>101020041</v>
@@ -17345,7 +17819,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="E44" s="1">
         <v>101020051</v>
@@ -17359,10 +17833,10 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="E45" s="1">
         <v>101020071</v>
@@ -17376,10 +17850,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="E46" s="1">
         <v>101020071</v>
@@ -17393,7 +17867,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="E47" s="1">
         <v>101020081</v>
@@ -17407,7 +17881,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="E48" s="1">
         <v>101020081</v>
@@ -17421,10 +17895,10 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="E49" s="1">
         <v>101020091</v>
@@ -17438,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="E50" s="1">
         <v>101020101</v>
@@ -17466,7 +17940,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="E52" s="1">
         <v>101020121</v>
@@ -17480,7 +17954,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="E53" s="1">
         <v>101020131</v>
@@ -17494,7 +17968,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="E54" s="1">
         <v>101020141</v>
@@ -17508,10 +17982,10 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="E55" s="1">
         <v>101020151</v>
@@ -17519,7 +17993,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="B56" s="1" t="b">
         <v>0</v>
@@ -17533,13 +18007,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="B57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="E57" s="1">
         <v>101030021</v>
@@ -17547,7 +18021,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="B58" s="1" t="b">
         <v>0</v>
@@ -17561,7 +18035,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="B59" s="1" t="b">
         <v>0</v>
@@ -17575,13 +18049,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="B60" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="E60" s="1">
         <v>101030051</v>
@@ -17589,13 +18063,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="B61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="E61" s="1">
         <v>101030061</v>
@@ -17609,10 +18083,10 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="E62" s="1">
         <v>101030071</v>
@@ -17626,10 +18100,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="E63" s="1">
         <v>101030071</v>
@@ -17637,13 +18111,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="B64" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="E64" s="1">
         <v>101030081</v>
@@ -17657,10 +18131,10 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="E65" s="1">
         <v>101030091</v>
@@ -17674,7 +18148,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="E66" s="1">
         <v>101030101</v>
@@ -17702,7 +18176,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="E68" s="1">
         <v>101030121</v>
@@ -17716,7 +18190,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="E69" s="1">
         <v>101030131</v>
@@ -17730,7 +18204,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="E70" s="1">
         <v>101030141</v>
@@ -17744,7 +18218,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="E71" s="1">
         <v>101030151</v>
@@ -17758,7 +18232,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="E72" s="1">
         <v>101030161</v>
@@ -17780,13 +18254,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="B74" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="E74" s="1">
         <v>101040011</v>
@@ -17800,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="E75" s="1">
         <v>101040021</v>
@@ -17814,10 +18288,10 @@
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="E76" s="1">
         <v>101040031</v>
@@ -17831,10 +18305,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="E77" s="1">
         <v>101040031</v>
@@ -17842,13 +18316,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="B78" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="E78" s="1">
         <v>101040041</v>
@@ -17862,7 +18336,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="E79" s="1">
         <v>101040051</v>
@@ -17876,7 +18350,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="E80" s="1">
         <v>101040071</v>
@@ -17890,7 +18364,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="E81" s="1">
         <v>101040081</v>
@@ -17904,10 +18378,10 @@
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="E82" s="1">
         <v>101040091</v>
@@ -17921,7 +18395,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="E83" s="1">
         <v>101040101</v>
@@ -17935,7 +18409,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="E84" s="1">
         <v>101040111</v>
@@ -17949,7 +18423,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="E85" s="1">
         <v>101040121</v>
@@ -17963,7 +18437,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="E86" s="1">
         <v>101040131</v>
@@ -17977,7 +18451,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="E87" s="1">
         <v>101040141</v>
@@ -17991,7 +18465,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="E88" s="1">
         <v>101040161</v>
@@ -18005,7 +18479,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="E89" s="1">
         <v>101040171</v>
@@ -18019,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="E90" s="1">
         <v>101050021</v>
@@ -18027,13 +18501,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="B91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="E91" s="1">
         <v>101050031</v>
@@ -18041,13 +18515,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="B92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="E92" s="1">
         <v>101050041</v>
@@ -18055,13 +18529,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="B93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="E93" s="1">
         <v>101050051</v>
@@ -18083,13 +18557,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="B95" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="E95" s="1">
         <v>101050071</v>
@@ -18103,7 +18577,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="E96" s="1">
         <v>101050081</v>
@@ -18117,7 +18591,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="E97" s="1">
         <v>101050091</v>
@@ -18131,7 +18605,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="E98" s="1">
         <v>101050101</v>
@@ -18159,7 +18633,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="E100" s="1">
         <v>101050121</v>
@@ -18173,7 +18647,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="E101" s="1">
         <v>101050131</v>
@@ -18187,7 +18661,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="E102" s="1">
         <v>101050141</v>
@@ -18201,7 +18675,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="E103" s="1">
         <v>101050151</v>
@@ -18223,13 +18697,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="B105" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="E105" s="1">
         <v>101060021</v>
@@ -18243,10 +18717,10 @@
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="E106" s="1">
         <v>101060031</v>
@@ -18254,13 +18728,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="B107" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="E107" s="1">
         <v>101060051</v>
@@ -18268,13 +18742,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="B108" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="E108" s="1">
         <v>101060061</v>
@@ -18282,13 +18756,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="B109" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="E109" s="1">
         <v>101060071</v>
@@ -18302,7 +18776,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="E110" s="1">
         <v>101060081</v>
@@ -18316,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="E111" s="1">
         <v>101060091</v>
@@ -18330,7 +18804,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="E112" s="1">
         <v>101060101</v>
@@ -18344,7 +18818,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="E113" s="1">
         <v>101060111</v>
@@ -18358,7 +18832,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="E114" s="1">
         <v>101060121</v>
@@ -18372,10 +18846,10 @@
         <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="E115" s="1">
         <v>101060131</v>
@@ -18389,7 +18863,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="E116" s="1">
         <v>101060141</v>
@@ -18403,7 +18877,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="E117" s="1">
         <v>101070011</v>
@@ -18411,13 +18885,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="B118" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="E118" s="1">
         <v>101070021</v>
@@ -18431,7 +18905,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="E119" s="1">
         <v>101070031</v>
@@ -18445,7 +18919,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="E120" s="1">
         <v>101070051</v>
@@ -18459,10 +18933,10 @@
         <v>0</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="E121" s="1">
         <v>101070061</v>
@@ -18476,10 +18950,10 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="E122" s="1">
         <v>101070061</v>
@@ -18487,13 +18961,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="B123" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="E123" s="1">
         <v>101070071</v>
@@ -18507,7 +18981,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="E124" s="1">
         <v>101070081</v>
@@ -18521,7 +18995,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="E125" s="1">
         <v>101070091</v>
@@ -18535,7 +19009,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="E126" s="1">
         <v>101070101</v>
@@ -18549,7 +19023,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="E127" s="1">
         <v>101070111</v>
@@ -18577,7 +19051,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="E129" s="1">
         <v>101110041</v>
@@ -18591,10 +19065,10 @@
         <v>0</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="E130" s="1">
         <v>101140021</v>
@@ -18608,7 +19082,7 @@
         <v>0</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="E131" s="1">
         <v>101400011</v>
@@ -18622,7 +19096,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="E132" s="1">
         <v>101400071</v>
@@ -18636,7 +19110,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="E133" s="1">
         <v>101410011</v>
@@ -18650,7 +19124,7 @@
         <v>0</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="E134" s="1">
         <v>101420011</v>
@@ -18762,7 +19236,7 @@
         <v>0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="E142" s="1">
         <v>101800041</v>
@@ -18776,7 +19250,7 @@
         <v>0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="E143" s="1">
         <v>101800052</v>
@@ -18784,13 +19258,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="B144" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="E144" s="1">
         <v>101800063</v>
@@ -18804,7 +19278,7 @@
         <v>0</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="E145" s="1">
         <v>101800111</v>
@@ -18818,7 +19292,7 @@
         <v>0</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="E146" s="1">
         <v>101900011</v>
@@ -18832,7 +19306,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="E147" s="1">
         <v>101910011</v>
@@ -18846,7 +19320,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="E148" s="1">
         <v>101920011</v>
@@ -18860,7 +19334,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="E149" s="1">
         <v>101960011</v>
@@ -18874,7 +19348,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="E150" s="1">
         <v>101970011</v>
@@ -18902,7 +19376,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="E152" s="1">
         <v>101000301</v>
@@ -18916,7 +19390,7 @@
         <v>0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>406</v>
@@ -18944,7 +19418,7 @@
         <v>0</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>420</v>
@@ -18958,7 +19432,7 @@
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="E156" s="1">
         <v>101050081</v>
@@ -18972,10 +19446,38 @@
         <v>0</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>440</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B158" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B159" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -18988,7 +19490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S95"/>
   <sheetViews>
@@ -19006,13 +19508,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="C1" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D1" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -19020,41 +19522,41 @@
         <v>348</v>
       </c>
       <c r="B2" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C2" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="D2" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="B3" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C3" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="D3" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="B4" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C4" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="D4" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -19062,27 +19564,27 @@
         <v>380</v>
       </c>
       <c r="B5" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C5" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="D5" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="B6" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C6" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="D6" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -19090,27 +19592,27 @@
         <v>394</v>
       </c>
       <c r="B7" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C7" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="D7" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="B8" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C8" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="D8" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -19118,13 +19620,13 @@
         <v>244</v>
       </c>
       <c r="B9" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C9" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="D9" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -19132,13 +19634,13 @@
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C10" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="D10" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -19146,13 +19648,13 @@
         <v>392</v>
       </c>
       <c r="B11" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C11" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="D11" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -19160,13 +19662,13 @@
         <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C12" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="D12" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -19174,27 +19676,27 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C13" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="D13" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="B14" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C14" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="D14" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -19202,41 +19704,41 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C15" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="D15" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="B16" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C16" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="D16" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="B17" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C17" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="D17" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -19244,27 +19746,27 @@
         <v>389</v>
       </c>
       <c r="B18" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C18" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="D18" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="B19" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C19" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="D19" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -19272,13 +19774,13 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C20" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="D20" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -19286,13 +19788,13 @@
         <v>278</v>
       </c>
       <c r="B21" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C21" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="D21" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -19300,13 +19802,13 @@
         <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C22" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="D22" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -19314,13 +19816,13 @@
         <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C23" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="D23" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -19328,13 +19830,13 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C24" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="D24" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -19342,13 +19844,13 @@
         <v>240</v>
       </c>
       <c r="B25" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C25" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="D25" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -19356,13 +19858,13 @@
         <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C26" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="D26" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -19370,13 +19872,13 @@
         <v>242</v>
       </c>
       <c r="B27" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C27" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="D27" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -19384,13 +19886,13 @@
         <v>309</v>
       </c>
       <c r="B28" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C28" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="D28" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -19398,13 +19900,13 @@
         <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C29" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="D29" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -19412,13 +19914,13 @@
         <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C30" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="D30" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -19426,27 +19928,27 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C31" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="D31" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="B32" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C32" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="D32" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -19454,13 +19956,13 @@
         <v>423</v>
       </c>
       <c r="B33" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C33" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="D33" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -19468,13 +19970,13 @@
         <v>155</v>
       </c>
       <c r="B34" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C34" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="D34" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -19482,13 +19984,13 @@
         <v>242</v>
       </c>
       <c r="B35" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C35" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="D35" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -19496,13 +19998,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C36" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="D36" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -19510,13 +20012,13 @@
         <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C37" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="D37" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -19524,13 +20026,13 @@
         <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C38" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="D38" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -19538,13 +20040,13 @@
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C39" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="D39" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -19552,13 +20054,13 @@
         <v>302</v>
       </c>
       <c r="B40" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C40" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="D40" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -19566,13 +20068,13 @@
         <v>243</v>
       </c>
       <c r="B41" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C41" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="D41" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -19580,13 +20082,13 @@
         <v>192</v>
       </c>
       <c r="B42" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C42" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="D42" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -19594,13 +20096,13 @@
         <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C43" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="D43" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -19608,13 +20110,13 @@
         <v>260</v>
       </c>
       <c r="B44" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C44" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="D44" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -19622,13 +20124,13 @@
         <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C45" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="D45" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -19636,13 +20138,13 @@
         <v>192</v>
       </c>
       <c r="B46" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C46" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="D46" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -19650,13 +20152,13 @@
         <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C47" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="D47" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -19664,13 +20166,13 @@
         <v>334</v>
       </c>
       <c r="B48" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C48" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="D48" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -19678,13 +20180,13 @@
         <v>410</v>
       </c>
       <c r="B49" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C49" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="D49" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -19692,13 +20194,13 @@
         <v>243</v>
       </c>
       <c r="B50" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C50" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="D50" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -19706,13 +20208,13 @@
         <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C51" t="s">
         <v>366</v>
       </c>
       <c r="D51" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -19720,13 +20222,13 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C52" t="s">
         <v>366</v>
       </c>
       <c r="D52" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -19734,13 +20236,13 @@
         <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C53" t="s">
         <v>366</v>
       </c>
       <c r="D53" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -19748,13 +20250,13 @@
         <v>304</v>
       </c>
       <c r="B54" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C54" t="s">
         <v>366</v>
       </c>
       <c r="D54" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -19762,13 +20264,13 @@
         <v>378</v>
       </c>
       <c r="B55" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C55" t="s">
         <v>366</v>
       </c>
       <c r="D55" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -19776,13 +20278,13 @@
         <v>382</v>
       </c>
       <c r="B56" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C56" t="s">
         <v>366</v>
       </c>
       <c r="D56" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -19790,13 +20292,13 @@
         <v>364</v>
       </c>
       <c r="B57" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C57" t="s">
         <v>366</v>
       </c>
       <c r="D57" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -19807,7 +20309,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -19818,7 +20320,7 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -19829,7 +20331,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -19840,7 +20342,7 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -19856,24 +20358,24 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -19895,7 +20397,7 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -19906,7 +20408,7 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -19917,7 +20419,7 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -19928,7 +20430,7 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -19939,7 +20441,7 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -19972,7 +20474,7 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -19983,7 +20485,7 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -20016,7 +20518,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -20027,7 +20529,7 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -20049,7 +20551,7 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -20060,7 +20562,7 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -20071,7 +20573,7 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -20082,7 +20584,7 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -20093,7 +20595,7 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -20104,7 +20606,7 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -20115,7 +20617,7 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -20126,7 +20628,7 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -20159,7 +20661,7 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -20170,7 +20672,7 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -20181,7 +20683,7 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -20192,7 +20694,7 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -20203,7 +20705,7 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -20214,7 +20716,7 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -20228,7 +20730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V43"/>
   <sheetViews>
@@ -20250,16 +20752,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -20267,13 +20769,13 @@
         <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -20281,13 +20783,13 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -20295,13 +20797,13 @@
         <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -20309,13 +20811,13 @@
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -20323,13 +20825,13 @@
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -20337,13 +20839,13 @@
         <v>204</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -20351,97 +20853,97 @@
         <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -20449,13 +20951,13 @@
         <v>96</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -20463,69 +20965,69 @@
         <v>366</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -20533,13 +21035,13 @@
         <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -20547,13 +21049,13 @@
         <v>132</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -20561,27 +21063,27 @@
         <v>272</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -20589,111 +21091,111 @@
         <v>112</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -20701,153 +21203,153 @@
         <v>388</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>765</v>
+        <v>781</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -20892,11 +21394,11 @@
     <hyperlink ref="B40" r:id="rId37" tooltip="Sapient Complex: Midnight (Another Dungeon)" display="https://anothereden.miraheze.org/wiki/Sapient_Complex:_Midnight_(Another_Dungeon)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -20913,166 +21415,166 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>797</v>
+        <v>813</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -21188,11 +21690,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -21203,13 +21705,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -21217,10 +21719,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -21228,10 +21730,10 @@
         <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>813</v>
+        <v>829</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -21239,10 +21741,10 @@
         <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -21250,10 +21752,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>817</v>
+        <v>833</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>818</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -21261,142 +21763,142 @@
         <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1594</v>
+        <v>837</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>822</v>
+        <v>839</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>824</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>825</v>
+        <v>842</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>826</v>
+        <v>843</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>827</v>
+        <v>844</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>828</v>
+        <v>845</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>829</v>
+        <v>846</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>830</v>
+        <v>847</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>831</v>
+        <v>848</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>832</v>
+        <v>849</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>833</v>
+        <v>850</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>834</v>
+        <v>851</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>835</v>
+        <v>852</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>836</v>
+        <v>853</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>837</v>
+        <v>854</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>839</v>
+        <v>856</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>840</v>
+        <v>857</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>841</v>
+        <v>858</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>842</v>
+        <v>859</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>843</v>
+        <v>860</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>844</v>
+        <v>861</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>846</v>
+        <v>863</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>848</v>
+        <v>865</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>849</v>
+        <v>866</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>850</v>
+        <v>867</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>851</v>
+        <v>868</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>852</v>
+        <v>869</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>853</v>
+        <v>870</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>854</v>
+        <v>871</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -21404,10 +21906,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>855</v>
+        <v>872</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>856</v>
+        <v>873</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -21415,10 +21917,10 @@
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>857</v>
+        <v>874</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -21426,10 +21928,10 @@
         <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>860</v>
+        <v>877</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -21437,10 +21939,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>862</v>
+        <v>879</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -21448,10 +21950,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>863</v>
+        <v>880</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>864</v>
+        <v>881</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -21459,10 +21961,10 @@
         <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -21470,10 +21972,10 @@
         <v>141</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>868</v>
+        <v>885</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -21481,10 +21983,10 @@
         <v>193</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>869</v>
+        <v>886</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>870</v>
+        <v>887</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -21492,10 +21994,10 @@
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>871</v>
+        <v>888</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>872</v>
+        <v>889</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -21503,10 +22005,10 @@
         <v>172</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>873</v>
+        <v>890</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>874</v>
+        <v>891</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -21514,10 +22016,10 @@
         <v>305</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>876</v>
+        <v>893</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -21525,10 +22027,10 @@
         <v>235</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>877</v>
+        <v>894</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -21536,10 +22038,10 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>880</v>
+        <v>897</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -21547,10 +22049,10 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>881</v>
+        <v>898</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -21558,65 +22060,65 @@
         <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>883</v>
+        <v>900</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>884</v>
+        <v>901</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>885</v>
+        <v>902</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>886</v>
+        <v>903</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>887</v>
+        <v>904</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>888</v>
+        <v>905</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>889</v>
+        <v>906</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>890</v>
+        <v>907</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>891</v>
+        <v>908</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>892</v>
+        <v>909</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>893</v>
+        <v>450</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>894</v>
+        <v>910</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>895</v>
+        <v>911</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>896</v>
+        <v>912</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>897</v>
+        <v>913</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -21624,25 +22126,25 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>899</v>
+        <v>915</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>900</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C297"/>
+  <dimension ref="A1:C305"/>
   <sheetViews>
-    <sheetView topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="B288" sqref="B288"/>
+    <sheetView topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21652,13 +22154,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -21666,21 +22168,21 @@
         <v>294</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -21688,10 +22190,10 @@
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -21699,10 +22201,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>908</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -21710,21 +22212,21 @@
         <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>909</v>
+        <v>925</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>910</v>
+        <v>926</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>911</v>
+        <v>927</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>912</v>
+        <v>928</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -21732,21 +22234,21 @@
         <v>376</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>913</v>
+        <v>929</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>916</v>
+        <v>932</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -21754,10 +22256,10 @@
         <v>240</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>917</v>
+        <v>933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>918</v>
+        <v>934</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -21765,10 +22267,10 @@
         <v>164</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>919</v>
+        <v>935</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>920</v>
+        <v>936</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -21776,10 +22278,10 @@
         <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>921</v>
+        <v>937</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>922</v>
+        <v>938</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -21787,10 +22289,10 @@
         <v>243</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>923</v>
+        <v>939</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>924</v>
+        <v>940</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -21798,10 +22300,10 @@
         <v>252</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>925</v>
+        <v>941</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>926</v>
+        <v>942</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -21809,10 +22311,10 @@
         <v>311</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>928</v>
+        <v>944</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -21820,10 +22322,10 @@
         <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>929</v>
+        <v>945</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>930</v>
+        <v>946</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -21831,10 +22333,10 @@
         <v>218</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>931</v>
+        <v>947</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>932</v>
+        <v>948</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -21842,10 +22344,10 @@
         <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>933</v>
+        <v>949</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>934</v>
+        <v>950</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -21853,10 +22355,10 @@
         <v>309</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>935</v>
+        <v>951</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>936</v>
+        <v>952</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -21864,10 +22366,10 @@
         <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>938</v>
+        <v>954</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -21875,10 +22377,10 @@
         <v>410</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>939</v>
+        <v>955</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>940</v>
+        <v>956</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -21886,10 +22388,10 @@
         <v>166</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>941</v>
+        <v>957</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>942</v>
+        <v>958</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -21897,10 +22399,10 @@
         <v>229</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>943</v>
+        <v>959</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>944</v>
+        <v>960</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -21908,10 +22410,10 @@
         <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>945</v>
+        <v>961</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>946</v>
+        <v>962</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -21919,10 +22421,10 @@
         <v>394</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -21930,10 +22432,10 @@
         <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>949</v>
+        <v>965</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>950</v>
+        <v>966</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -21941,10 +22443,10 @@
         <v>328</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>951</v>
+        <v>967</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -21952,10 +22454,10 @@
         <v>318</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>953</v>
+        <v>969</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>954</v>
+        <v>970</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -21963,32 +22465,32 @@
         <v>288</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>955</v>
+        <v>971</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>956</v>
+        <v>972</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>957</v>
+        <v>973</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>958</v>
+        <v>974</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>959</v>
+        <v>975</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>960</v>
+        <v>976</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -21996,10 +22498,10 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>961</v>
+        <v>977</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>962</v>
+        <v>978</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -22007,10 +22509,10 @@
         <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>963</v>
+        <v>979</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>964</v>
+        <v>980</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -22018,10 +22520,10 @@
         <v>269</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>965</v>
+        <v>981</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>966</v>
+        <v>982</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -22029,10 +22531,10 @@
         <v>144</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>967</v>
+        <v>983</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>968</v>
+        <v>984</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -22040,10 +22542,10 @@
         <v>322</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>969</v>
+        <v>985</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>970</v>
+        <v>986</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -22051,21 +22553,21 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>971</v>
+        <v>987</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>972</v>
+        <v>988</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>973</v>
+        <v>989</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>974</v>
+        <v>990</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -22073,10 +22575,10 @@
         <v>377</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>975</v>
+        <v>991</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>976</v>
+        <v>992</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -22084,21 +22586,21 @@
         <v>100</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>977</v>
+        <v>993</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>978</v>
+        <v>994</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>979</v>
+        <v>995</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>980</v>
+        <v>996</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -22106,10 +22608,10 @@
         <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>981</v>
+        <v>997</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>982</v>
+        <v>998</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -22117,10 +22619,10 @@
         <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>983</v>
+        <v>999</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>984</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -22128,10 +22630,10 @@
         <v>106</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>985</v>
+        <v>1001</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>986</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -22139,32 +22641,32 @@
         <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>987</v>
+        <v>1003</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>988</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>989</v>
+        <v>1005</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>990</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>991</v>
+        <v>1007</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>992</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -22172,10 +22674,10 @@
         <v>187</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>993</v>
+        <v>1009</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>994</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -22183,10 +22685,10 @@
         <v>363</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>995</v>
+        <v>1011</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>996</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -22194,10 +22696,10 @@
         <v>284</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>997</v>
+        <v>1013</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>998</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -22205,10 +22707,10 @@
         <v>391</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>999</v>
+        <v>1015</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1000</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -22216,21 +22718,21 @@
         <v>435</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1001</v>
+        <v>1017</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1002</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1004</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -22238,21 +22740,21 @@
         <v>238</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1006</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1007</v>
+        <v>1023</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1008</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -22260,10 +22762,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1009</v>
+        <v>1025</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1010</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -22271,10 +22773,10 @@
         <v>356</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1011</v>
+        <v>1027</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1012</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -22282,10 +22784,10 @@
         <v>304</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1013</v>
+        <v>1029</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1014</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -22293,10 +22795,10 @@
         <v>367</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1015</v>
+        <v>1031</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1016</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -22304,21 +22806,21 @@
         <v>242</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1017</v>
+        <v>1033</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1018</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1020</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -22326,10 +22828,10 @@
         <v>214</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1021</v>
+        <v>1037</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -22337,10 +22839,10 @@
         <v>298</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1023</v>
+        <v>1039</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1024</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -22348,10 +22850,10 @@
         <v>371</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1026</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -22359,10 +22861,10 @@
         <v>191</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1027</v>
+        <v>1043</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1028</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -22370,21 +22872,21 @@
         <v>336</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1029</v>
+        <v>1045</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1030</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1031</v>
+        <v>1047</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1032</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -22392,21 +22894,21 @@
         <v>378</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1033</v>
+        <v>1049</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1034</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1035</v>
+        <v>1051</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1036</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -22414,10 +22916,10 @@
         <v>210</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1037</v>
+        <v>1053</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1038</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -22425,10 +22927,10 @@
         <v>374</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1039</v>
+        <v>1055</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1040</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -22436,10 +22938,10 @@
         <v>265</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1041</v>
+        <v>1057</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1042</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -22447,21 +22949,21 @@
         <v>340</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1043</v>
+        <v>1059</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1044</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1045</v>
+        <v>1061</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -22469,10 +22971,10 @@
         <v>179</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1047</v>
+        <v>1063</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1048</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -22480,21 +22982,21 @@
         <v>136</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1049</v>
+        <v>1065</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1050</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1051</v>
+        <v>1067</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1052</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -22502,10 +23004,10 @@
         <v>368</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1053</v>
+        <v>1069</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1054</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -22513,10 +23015,10 @@
         <v>189</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1055</v>
+        <v>1071</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1056</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -22524,10 +23026,10 @@
         <v>146</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1057</v>
+        <v>1073</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1058</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -22535,10 +23037,10 @@
         <v>372</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1059</v>
+        <v>1075</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1060</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -22546,10 +23048,10 @@
         <v>370</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1061</v>
+        <v>1077</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1062</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -22557,10 +23059,10 @@
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1063</v>
+        <v>1079</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1064</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -22568,10 +23070,10 @@
         <v>222</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1065</v>
+        <v>1081</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1066</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -22579,10 +23081,10 @@
         <v>380</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1067</v>
+        <v>1083</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1068</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -22590,10 +23092,10 @@
         <v>155</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1069</v>
+        <v>1085</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1070</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -22601,10 +23103,10 @@
         <v>140</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1071</v>
+        <v>1087</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1072</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -22612,10 +23114,10 @@
         <v>423</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1073</v>
+        <v>1089</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1074</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -22623,32 +23125,32 @@
         <v>71</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1075</v>
+        <v>1091</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1076</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1077</v>
+        <v>1093</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1078</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1079</v>
+        <v>1095</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1080</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -22656,10 +23158,10 @@
         <v>330</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1081</v>
+        <v>1097</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1082</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -22667,10 +23169,10 @@
         <v>324</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1083</v>
+        <v>1099</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1084</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -22678,10 +23180,10 @@
         <v>260</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1085</v>
+        <v>1101</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1086</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -22689,10 +23191,10 @@
         <v>360</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1087</v>
+        <v>1103</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1088</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -22700,10 +23202,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1089</v>
+        <v>1105</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1090</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -22711,10 +23213,10 @@
         <v>175</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1091</v>
+        <v>1107</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1092</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -22722,10 +23224,10 @@
         <v>120</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1093</v>
+        <v>1109</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -22733,10 +23235,10 @@
         <v>244</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1095</v>
+        <v>1111</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1096</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -22744,10 +23246,10 @@
         <v>201</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1097</v>
+        <v>1113</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1098</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -22755,10 +23257,10 @@
         <v>302</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1099</v>
+        <v>1115</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1100</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -22766,10 +23268,10 @@
         <v>183</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1101</v>
+        <v>1117</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1102</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -22777,10 +23279,10 @@
         <v>278</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1103</v>
+        <v>1119</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1104</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -22788,10 +23290,10 @@
         <v>289</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1105</v>
+        <v>1121</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1106</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -22799,10 +23301,10 @@
         <v>60</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1107</v>
+        <v>1123</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1108</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -22810,10 +23312,10 @@
         <v>383</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1109</v>
+        <v>1125</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1110</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -22821,10 +23323,10 @@
         <v>375</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1111</v>
+        <v>1127</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1112</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -22832,21 +23334,21 @@
         <v>386</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1113</v>
+        <v>1129</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1114</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1115</v>
+        <v>1131</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1116</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -22854,10 +23356,10 @@
         <v>97</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1117</v>
+        <v>1133</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1118</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -22865,10 +23367,10 @@
         <v>369</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1119</v>
+        <v>1135</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1120</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -22876,10 +23378,10 @@
         <v>382</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1121</v>
+        <v>1137</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1122</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -22887,21 +23389,21 @@
         <v>364</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1123</v>
+        <v>1139</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1124</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1125</v>
+        <v>1141</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1126</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -22909,10 +23411,10 @@
         <v>292</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1127</v>
+        <v>1143</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1128</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -22920,10 +23422,10 @@
         <v>392</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1129</v>
+        <v>1145</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1130</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -22931,10 +23433,10 @@
         <v>256</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1131</v>
+        <v>1147</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1132</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -22942,10 +23444,10 @@
         <v>192</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1133</v>
+        <v>1149</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1134</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -22953,21 +23455,21 @@
         <v>335</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1135</v>
+        <v>1151</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1136</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1137</v>
+        <v>1153</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1138</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -22975,10 +23477,10 @@
         <v>352</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1139</v>
+        <v>1155</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1140</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -22986,21 +23488,21 @@
         <v>29</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1141</v>
+        <v>1157</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1142</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1143</v>
+        <v>1159</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1144</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -23008,21 +23510,21 @@
         <v>362</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1145</v>
+        <v>1161</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1146</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1147</v>
+        <v>1163</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1148</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -23030,21 +23532,21 @@
         <v>65</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1149</v>
+        <v>1165</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1150</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1151</v>
+        <v>1167</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1152</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -23052,21 +23554,21 @@
         <v>348</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1153</v>
+        <v>1169</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1154</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1155</v>
+        <v>1171</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1156</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -23074,10 +23576,10 @@
         <v>389</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1157</v>
+        <v>1173</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1158</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -23085,10 +23587,10 @@
         <v>119</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1159</v>
+        <v>1175</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1160</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -23096,10 +23598,10 @@
         <v>267</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1161</v>
+        <v>1177</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1162</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -23107,10 +23609,10 @@
         <v>55</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1163</v>
+        <v>1179</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1164</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -23118,10 +23620,10 @@
         <v>79</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1165</v>
+        <v>1181</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1166</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -23129,21 +23631,21 @@
         <v>17</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1167</v>
+        <v>1183</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1168</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1169</v>
+        <v>1185</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1170</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -23151,10 +23653,10 @@
         <v>206</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1171</v>
+        <v>1187</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1172</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -23162,21 +23664,21 @@
         <v>274</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1173</v>
+        <v>1189</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1174</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1175</v>
+        <v>1191</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1176</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -23184,10 +23686,10 @@
         <v>124</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1177</v>
+        <v>1193</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1178</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -23195,10 +23697,10 @@
         <v>248</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -23206,10 +23708,10 @@
         <v>334</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1181</v>
+        <v>1197</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1182</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -23217,10 +23719,10 @@
         <v>227</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1183</v>
+        <v>1199</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1184</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -23228,10 +23730,10 @@
         <v>373</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1185</v>
+        <v>1201</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1186</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -23239,10 +23741,10 @@
         <v>138</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1187</v>
+        <v>1203</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1188</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -23250,10 +23752,10 @@
         <v>158</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1189</v>
+        <v>1205</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1190</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -23261,10 +23763,10 @@
         <v>246</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1191</v>
+        <v>1207</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -23272,10 +23774,10 @@
         <v>212</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1193</v>
+        <v>1209</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1194</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -23283,10 +23785,10 @@
         <v>37</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1195</v>
+        <v>1211</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1196</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -23294,10 +23796,10 @@
         <v>122</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1197</v>
+        <v>1213</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1198</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -23305,10 +23807,10 @@
         <v>365</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1199</v>
+        <v>1215</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1200</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -23316,10 +23818,10 @@
         <v>281</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1201</v>
+        <v>1217</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1202</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -23327,10 +23829,10 @@
         <v>359</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1203</v>
+        <v>1219</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1204</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -23338,10 +23840,10 @@
         <v>390</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1205</v>
+        <v>1221</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1206</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -23349,10 +23851,10 @@
         <v>393</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1207</v>
+        <v>1223</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1208</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -23360,10 +23862,10 @@
         <v>254</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1209</v>
+        <v>1225</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1210</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -23371,10 +23873,10 @@
         <v>135</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1211</v>
+        <v>1227</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1212</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -23382,10 +23884,10 @@
         <v>220</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1213</v>
+        <v>1229</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1214</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -23393,10 +23895,10 @@
         <v>69</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1215</v>
+        <v>1231</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1216</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -23404,10 +23906,10 @@
         <v>354</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1217</v>
+        <v>1233</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1218</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -23415,10 +23917,10 @@
         <v>98</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1219</v>
+        <v>1235</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1220</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -23426,10 +23928,10 @@
         <v>384</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1221</v>
+        <v>1237</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1222</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -23437,10 +23939,10 @@
         <v>258</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1223</v>
+        <v>1239</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1224</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -23448,10 +23950,10 @@
         <v>232</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1225</v>
+        <v>1241</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1226</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -23459,10 +23961,10 @@
         <v>291</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1227</v>
+        <v>1243</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1228</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -23470,10 +23972,10 @@
         <v>310</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1229</v>
+        <v>1245</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1230</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -23481,10 +23983,10 @@
         <v>361</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1231</v>
+        <v>1247</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1232</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -23492,10 +23994,10 @@
         <v>381</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1233</v>
+        <v>1249</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1234</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -23503,10 +24005,10 @@
         <v>57</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1235</v>
+        <v>1251</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1236</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -23514,10 +24016,10 @@
         <v>315</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1237</v>
+        <v>1253</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1238</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -23525,10 +24027,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1239</v>
+        <v>1255</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1240</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -23536,10 +24038,10 @@
         <v>226</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1241</v>
+        <v>1257</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1242</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -23547,10 +24049,10 @@
         <v>395</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1244</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -23558,10 +24060,10 @@
         <v>332</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1245</v>
+        <v>1261</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1246</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -23569,10 +24071,10 @@
         <v>208</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1248</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -23580,10 +24082,10 @@
         <v>131</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1249</v>
+        <v>1265</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1250</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -23591,10 +24093,10 @@
         <v>31</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1251</v>
+        <v>1267</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1252</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -23602,10 +24104,10 @@
         <v>268</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1253</v>
+        <v>1269</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1254</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -23613,10 +24115,10 @@
         <v>185</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1255</v>
+        <v>1271</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1256</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -23624,10 +24126,10 @@
         <v>203</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1257</v>
+        <v>1273</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1258</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -23635,10 +24137,10 @@
         <v>296</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1259</v>
+        <v>1275</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1260</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -23646,10 +24148,10 @@
         <v>82</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1261</v>
+        <v>1277</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1262</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -23657,10 +24159,10 @@
         <v>177</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1263</v>
+        <v>1279</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1264</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -23668,10 +24170,10 @@
         <v>149</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1265</v>
+        <v>1281</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1266</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -23679,10 +24181,10 @@
         <v>351</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1267</v>
+        <v>1283</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1268</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -23690,10 +24192,10 @@
         <v>76</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1269</v>
+        <v>1285</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1270</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -23701,10 +24203,10 @@
         <v>266</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1271</v>
+        <v>1287</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1272</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -23712,10 +24214,10 @@
         <v>216</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1273</v>
+        <v>1289</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1274</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -23723,10 +24225,10 @@
         <v>329</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1275</v>
+        <v>1291</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1276</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -23734,10 +24236,10 @@
         <v>250</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1277</v>
+        <v>1293</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1278</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -23745,10 +24247,10 @@
         <v>343</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1279</v>
+        <v>1295</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1280</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -23756,10 +24258,10 @@
         <v>271</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1281</v>
+        <v>1297</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1282</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -23767,10 +24269,10 @@
         <v>387</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1283</v>
+        <v>1299</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1284</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -23778,10 +24280,10 @@
         <v>276</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1285</v>
+        <v>1301</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1286</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -23789,10 +24291,10 @@
         <v>169</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1287</v>
+        <v>1303</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1288</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -23800,10 +24302,10 @@
         <v>338</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1289</v>
+        <v>1305</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1290</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -23811,10 +24313,10 @@
         <v>286</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1291</v>
+        <v>1307</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1292</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -23822,10 +24324,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1293</v>
+        <v>1309</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1294</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -23833,10 +24335,10 @@
         <v>63</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1295</v>
+        <v>1311</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1296</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -23844,10 +24346,10 @@
         <v>103</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1297</v>
+        <v>1313</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1298</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -23855,10 +24357,10 @@
         <v>111</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1299</v>
+        <v>1315</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1300</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -23866,10 +24368,10 @@
         <v>23</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1301</v>
+        <v>1317</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1302</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -23877,10 +24379,10 @@
         <v>326</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1303</v>
+        <v>1319</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1304</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -23888,10 +24390,10 @@
         <v>303</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1305</v>
+        <v>1321</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1306</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -23899,10 +24401,10 @@
         <v>95</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1307</v>
+        <v>1323</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1308</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -23910,10 +24412,10 @@
         <v>190</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1310</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -23921,10 +24423,10 @@
         <v>87</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1311</v>
+        <v>1327</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1312</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -23932,10 +24434,10 @@
         <v>379</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1313</v>
+        <v>1329</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1314</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -23943,10 +24445,10 @@
         <v>320</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1315</v>
+        <v>1331</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -23954,10 +24456,10 @@
         <v>188</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1317</v>
+        <v>1333</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1318</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -23965,10 +24467,10 @@
         <v>143</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1319</v>
+        <v>1335</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -23976,10 +24478,10 @@
         <v>307</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1322</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -23987,10 +24489,10 @@
         <v>301</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1323</v>
+        <v>1339</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1324</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -23998,10 +24500,10 @@
         <v>181</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1326</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -24009,10 +24511,10 @@
         <v>126</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1327</v>
+        <v>1343</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1328</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -24020,10 +24522,10 @@
         <v>51</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1329</v>
+        <v>1345</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1330</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -24031,10 +24533,10 @@
         <v>165</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1331</v>
+        <v>1347</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -24042,10 +24544,10 @@
         <v>228</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1333</v>
+        <v>1349</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1334</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -24053,10 +24555,10 @@
         <v>239</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1335</v>
+        <v>1351</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1336</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -24064,10 +24566,10 @@
         <v>262</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1337</v>
+        <v>1353</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1338</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -24075,10 +24577,10 @@
         <v>293</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1339</v>
+        <v>1355</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1340</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24086,10 +24588,10 @@
         <v>323</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1341</v>
+        <v>1357</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1342</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24097,10 +24599,10 @@
         <v>139</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1343</v>
+        <v>1359</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1344</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -24108,10 +24610,10 @@
         <v>64</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1345</v>
+        <v>1361</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1346</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -24119,10 +24621,10 @@
         <v>255</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1347</v>
+        <v>1363</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1348</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -24130,10 +24632,10 @@
         <v>127</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1349</v>
+        <v>1365</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1350</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -24141,10 +24643,10 @@
         <v>277</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1351</v>
+        <v>1367</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1352</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -24152,10 +24654,10 @@
         <v>123</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1353</v>
+        <v>1369</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1354</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -24163,10 +24665,10 @@
         <v>234</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1355</v>
+        <v>1371</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1356</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -24174,10 +24676,10 @@
         <v>205</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1357</v>
+        <v>1373</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1358</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -24185,10 +24687,10 @@
         <v>247</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1359</v>
+        <v>1375</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1360</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -24196,10 +24698,10 @@
         <v>200</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1361</v>
+        <v>1377</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1362</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -24207,10 +24709,10 @@
         <v>339</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1363</v>
+        <v>1379</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1364</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -24218,10 +24720,10 @@
         <v>48</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1365</v>
+        <v>1381</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1366</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -24229,10 +24731,10 @@
         <v>78</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1367</v>
+        <v>1383</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1368</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -24240,10 +24742,10 @@
         <v>105</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1369</v>
+        <v>1385</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1370</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -24251,10 +24753,10 @@
         <v>259</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1371</v>
+        <v>1387</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1372</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -24262,10 +24764,10 @@
         <v>327</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1373</v>
+        <v>1389</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1374</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -24273,10 +24775,10 @@
         <v>70</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1375</v>
+        <v>1391</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1376</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -24284,10 +24786,10 @@
         <v>241</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1377</v>
+        <v>1393</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1378</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -24295,10 +24797,10 @@
         <v>347</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1379</v>
+        <v>1395</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1380</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -24306,10 +24808,10 @@
         <v>33</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1381</v>
+        <v>1397</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1382</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -24317,10 +24819,10 @@
         <v>40</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1383</v>
+        <v>1399</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1384</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24328,10 +24830,10 @@
         <v>163</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1385</v>
+        <v>1401</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1386</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -24339,10 +24841,10 @@
         <v>209</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1387</v>
+        <v>1403</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1388</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -24350,10 +24852,10 @@
         <v>283</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1389</v>
+        <v>1405</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1390</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -24361,10 +24863,10 @@
         <v>333</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1391</v>
+        <v>1407</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1392</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -24372,10 +24874,10 @@
         <v>273</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1393</v>
+        <v>1409</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1394</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -24383,10 +24885,10 @@
         <v>251</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1395</v>
+        <v>1411</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1396</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -24394,10 +24896,10 @@
         <v>154</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1397</v>
+        <v>1413</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1398</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -24405,10 +24907,10 @@
         <v>114</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1399</v>
+        <v>1415</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1400</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -24416,10 +24918,10 @@
         <v>186</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1401</v>
+        <v>1417</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1402</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24427,10 +24929,10 @@
         <v>178</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1403</v>
+        <v>1419</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1404</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -24438,10 +24940,10 @@
         <v>297</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1405</v>
+        <v>1421</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1406</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -24449,10 +24951,10 @@
         <v>308</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1407</v>
+        <v>1423</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1408</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -24460,10 +24962,10 @@
         <v>345</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1409</v>
+        <v>1425</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1410</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -24471,10 +24973,10 @@
         <v>84</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1411</v>
+        <v>1427</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1412</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -24482,10 +24984,10 @@
         <v>171</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1413</v>
+        <v>1429</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1414</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -24493,10 +24995,10 @@
         <v>72</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1415</v>
+        <v>1431</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1416</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -24504,10 +25006,10 @@
         <v>89</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1417</v>
+        <v>1433</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1418</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24515,10 +25017,10 @@
         <v>174</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1419</v>
+        <v>1435</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1420</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -24526,10 +25028,10 @@
         <v>317</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1421</v>
+        <v>1437</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1422</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -24537,10 +25039,10 @@
         <v>287</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1423</v>
+        <v>1439</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1424</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -24548,10 +25050,10 @@
         <v>107</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1425</v>
+        <v>1441</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1426</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -24559,10 +25061,10 @@
         <v>221</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1427</v>
+        <v>1443</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1428</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -24570,10 +25072,10 @@
         <v>161</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1429</v>
+        <v>1445</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1430</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -24581,10 +25083,10 @@
         <v>150</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1431</v>
+        <v>1447</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1432</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -24592,10 +25094,10 @@
         <v>182</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1433</v>
+        <v>1449</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1434</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -24603,10 +25105,10 @@
         <v>355</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1435</v>
+        <v>1451</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1436</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -24614,10 +25116,10 @@
         <v>198</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1437</v>
+        <v>1453</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1438</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -24625,10 +25127,10 @@
         <v>27</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1439</v>
+        <v>1455</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1440</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -24636,10 +25138,10 @@
         <v>217</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1441</v>
+        <v>1457</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1442</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -24647,10 +25149,10 @@
         <v>145</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1443</v>
+        <v>1459</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1444</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -24658,10 +25160,10 @@
         <v>117</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1445</v>
+        <v>1461</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1446</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -24669,10 +25171,10 @@
         <v>152</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1447</v>
+        <v>1463</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1448</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -24680,10 +25182,10 @@
         <v>213</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1449</v>
+        <v>1465</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1450</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -24691,10 +25193,10 @@
         <v>237</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1451</v>
+        <v>1467</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1452</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -24702,10 +25204,10 @@
         <v>264</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1453</v>
+        <v>1469</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1454</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -24713,10 +25215,10 @@
         <v>397</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1455</v>
+        <v>1471</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1456</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -24724,10 +25226,10 @@
         <v>396</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1457</v>
+        <v>1473</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1458</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -24735,10 +25237,10 @@
         <v>66</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1459</v>
+        <v>1475</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1460</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -24746,10 +25248,10 @@
         <v>400</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1461</v>
+        <v>1477</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1462</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -24757,10 +25259,10 @@
         <v>402</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1463</v>
+        <v>1479</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1464</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -24768,10 +25270,10 @@
         <v>404</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1465</v>
+        <v>1481</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1466</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -24779,10 +25281,10 @@
         <v>405</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1467</v>
+        <v>1483</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1468</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -24790,10 +25292,10 @@
         <v>409</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1469</v>
+        <v>1485</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1470</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -24801,10 +25303,10 @@
         <v>414</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1471</v>
+        <v>1487</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1472</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -24812,10 +25314,10 @@
         <v>416</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1473</v>
+        <v>1489</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1474</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -24823,10 +25325,10 @@
         <v>417</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1475</v>
+        <v>1491</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1476</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -24834,10 +25336,10 @@
         <v>419</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1477</v>
+        <v>1493</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1478</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -24845,76 +25347,164 @@
         <v>426</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1479</v>
+        <v>1495</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1480</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>428</v>
       </c>
-      <c r="B292" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C292" t="s">
-        <v>1482</v>
+      <c r="B292" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>430</v>
       </c>
-      <c r="B293" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1484</v>
+      <c r="B293" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>1619</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>432</v>
       </c>
-      <c r="B294" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C294" t="s">
-        <v>1486</v>
+      <c r="B294" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="3" t="s">
+      <c r="A295" t="s">
         <v>434</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>1487</v>
+        <v>1500</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>1591</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="3" t="s">
+      <c r="A296" t="s">
         <v>439</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>1588</v>
+        <v>1501</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>1592</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="3" t="s">
+      <c r="A297" t="s">
         <v>442</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>1590</v>
+        <v>1502</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>1589</v>
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>448</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>443</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>453</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>456</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>455</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>447</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>1615</v>
       </c>
     </row>
   </sheetData>
@@ -24927,7 +25517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
@@ -24942,365 +25532,365 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1488</v>
+        <v>1504</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1489</v>
+        <v>1505</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>864</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1490</v>
+        <v>1506</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1491</v>
+        <v>1507</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1492</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1493</v>
+        <v>1509</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1494</v>
+        <v>1510</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1495</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1496</v>
+        <v>1512</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1497</v>
+        <v>1513</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1498</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1499</v>
+        <v>1515</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1500</v>
+        <v>1516</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1501</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1502</v>
+        <v>1518</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1503</v>
+        <v>1519</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1504</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1505</v>
+        <v>1521</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1506</v>
+        <v>1522</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1507</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1508</v>
+        <v>1524</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1509</v>
+        <v>1525</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1510</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1511</v>
+        <v>1527</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1512</v>
+        <v>1528</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1513</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1514</v>
+        <v>1530</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1515</v>
+        <v>1531</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1516</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1517</v>
+        <v>1533</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1518</v>
+        <v>1534</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1519</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1520</v>
+        <v>1536</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1521</v>
+        <v>1537</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1522</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1523</v>
+        <v>1539</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1524</v>
+        <v>1540</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1525</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1526</v>
+        <v>1542</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1285</v>
+        <v>1301</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1527</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1528</v>
+        <v>1544</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1529</v>
+        <v>1545</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1530</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1531</v>
+        <v>1547</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1532</v>
+        <v>1548</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1533</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1534</v>
+        <v>1550</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1535</v>
+        <v>1551</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1536</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1537</v>
+        <v>1553</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1538</v>
+        <v>1554</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1539</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>1540</v>
+        <v>1556</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1541</v>
+        <v>1557</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1542</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1543</v>
+        <v>1559</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1544</v>
+        <v>1560</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1545</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>1546</v>
+        <v>1562</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1547</v>
+        <v>1563</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1549</v>
+        <v>1565</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1550</v>
+        <v>1566</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1551</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1552</v>
+        <v>1568</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1553</v>
+        <v>1569</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1554</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>1555</v>
+        <v>1571</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1556</v>
+        <v>1572</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1557</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1558</v>
+        <v>1574</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1559</v>
+        <v>1575</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1560</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>1561</v>
+        <v>1577</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1562</v>
+        <v>1578</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1563</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1564</v>
+        <v>1580</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1565</v>
+        <v>1581</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1566</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>1567</v>
+        <v>1583</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1568</v>
+        <v>1584</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1569</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>1570</v>
+        <v>1586</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1571</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>1572</v>
+        <v>1588</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1573</v>
+        <v>1589</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1574</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>1575</v>
+        <v>1591</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1576</v>
+        <v>1592</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1577</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>1578</v>
+        <v>1594</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1579</v>
+        <v>1595</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1580</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -25308,10 +25898,10 @@
         <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -25319,10 +25909,10 @@
         <v>141</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>868</v>
+        <v>885</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -25330,10 +25920,10 @@
         <v>193</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>869</v>
+        <v>886</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>870</v>
+        <v>887</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -25341,10 +25931,10 @@
         <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>871</v>
+        <v>888</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>872</v>
+        <v>889</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -25352,10 +25942,10 @@
         <v>172</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>873</v>
+        <v>890</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>874</v>
+        <v>891</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -25363,10 +25953,10 @@
         <v>305</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>876</v>
+        <v>893</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -25374,10 +25964,10 @@
         <v>235</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>877</v>
+        <v>894</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -25385,43 +25975,43 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>880</v>
+        <v>897</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>1581</v>
+        <v>1597</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1582</v>
+        <v>1598</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1583</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>1584</v>
+        <v>1600</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1585</v>
+        <v>1601</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1586</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1587</v>
+        <v>1603</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1587</v>
+        <v>1603</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1587</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="1625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="1626">
   <si>
     <t>아이디</t>
   </si>
@@ -5083,6 +5083,10 @@
   </si>
   <si>
     <t>Unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우쿨렐레 님</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17023,7 +17027,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17107,7 +17111,7 @@
         <v>2003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C4" s="1">
         <v>2000000003</v>
@@ -17128,7 +17132,7 @@
         <v>2004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>456</v>
+        <v>1625</v>
       </c>
       <c r="C5" s="1">
         <v>2000000004</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="1626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3963" uniqueCount="1637">
   <si>
     <t>아이디</t>
   </si>
@@ -1398,10 +1398,13 @@
     <t>코로보</t>
   </si>
   <si>
+    <t>올챙이맨더</t>
+  </si>
+  <si>
     <t>우쿨렐레 님</t>
   </si>
   <si>
-    <t>올챙이맨더</t>
+    <t>몰디</t>
   </si>
   <si>
     <t>ES 여부</t>
@@ -1419,7 +1422,7 @@
     <t>레이븐</t>
   </si>
   <si>
-    <t>지팡이,가면</t>
+    <t>지팡이,가면,기억상실</t>
   </si>
   <si>
     <t>지팡이,애묘가,성직자</t>
@@ -1437,6 +1440,9 @@
     <t>지팡이,안경,과학자,채집</t>
   </si>
   <si>
+    <t>지팡이,용</t>
+  </si>
+  <si>
     <t>지팡이,안경,IDA스쿨,로스트 랩</t>
   </si>
   <si>
@@ -1461,6 +1467,9 @@
     <t>지팡이,용궁</t>
   </si>
   <si>
+    <t>지팡이,용궁,기억상실</t>
+  </si>
+  <si>
     <t>노놀드</t>
   </si>
   <si>
@@ -1476,7 +1485,7 @@
     <t>연옥계는 군상 클리어시</t>
   </si>
   <si>
-    <t>지팡이,서방</t>
+    <t>지팡이,서방,기억상실</t>
   </si>
   <si>
     <t>지팡이,대식가</t>
@@ -1506,21 +1515,24 @@
     <t>창,미글랜스 왕궁,왕족</t>
   </si>
   <si>
+    <t>검,미글랜스 왕궁,기억상실</t>
+  </si>
+  <si>
+    <t>뮤론</t>
+  </si>
+  <si>
+    <t>검,성직자</t>
+  </si>
+  <si>
+    <t>검,애묘가,미술</t>
+  </si>
+  <si>
+    <t>검,미식,미술,왕족,독서가</t>
+  </si>
+  <si>
     <t>검,미글랜스 왕궁</t>
   </si>
   <si>
-    <t>뮤론</t>
-  </si>
-  <si>
-    <t>검,성직자</t>
-  </si>
-  <si>
-    <t>검,애묘가,미술</t>
-  </si>
-  <si>
-    <t>검,미식,미술,왕족,독서가</t>
-  </si>
-  <si>
     <t>검,성직자,단것 애호가,서방</t>
   </si>
   <si>
@@ -1551,7 +1563,7 @@
     <t>활,동방,가면,왕족</t>
   </si>
   <si>
-    <t>도,애묘가</t>
+    <t>도,애묘가,기억상실</t>
   </si>
   <si>
     <t>애묘가는 AS 획득 시에만</t>
@@ -1662,7 +1674,7 @@
     <t>창,안경,COA</t>
   </si>
   <si>
-    <t>창,단것 애호가</t>
+    <t>창,단것 애호가,용</t>
   </si>
   <si>
     <t>창,음유시인,서방</t>
@@ -1695,7 +1707,10 @@
     <t>라비나</t>
   </si>
   <si>
-    <t>활,IDA스쿨,왕족,독서가</t>
+    <t>활,IDA스쿨,왕족,독서가,용</t>
+  </si>
+  <si>
+    <t>용은 ES 획득 시</t>
   </si>
   <si>
     <t>활,동방,요리</t>
@@ -1713,6 +1728,9 @@
     <t>활,음유시인,북방</t>
   </si>
   <si>
+    <t>활,기억상실</t>
+  </si>
+  <si>
     <t>링리</t>
   </si>
   <si>
@@ -1821,7 +1839,7 @@
     <t>검,안경,가면,마음의 괴도단,총</t>
   </si>
   <si>
-    <t>검,마음의 괴도단</t>
+    <t>검,마음의 괴도단,기억상실</t>
   </si>
   <si>
     <t>검,마수,명계의 부름,왕족</t>
@@ -1842,7 +1860,7 @@
     <t>지팡이,애묘가,요리</t>
   </si>
   <si>
-    <t>검,주인공,천계의 인도,채집</t>
+    <t>검,주인공,천계의 인도,채집,용</t>
   </si>
   <si>
     <t>도,동방,천계의 인도</t>
@@ -3636,7 +3654,7 @@
     <t>オルレイア</t>
   </si>
   <si>
-    <t>Mammy</t>
+    <t>Milla</t>
   </si>
   <si>
     <t>マミー</t>
@@ -4527,24 +4545,87 @@
     <t>Kelkale</t>
   </si>
   <si>
+    <t>ケリュケール</t>
+  </si>
+  <si>
     <t>Avesta</t>
   </si>
   <si>
+    <t>アヴェスター</t>
+  </si>
+  <si>
     <t>Unknown Rose</t>
   </si>
   <si>
+    <t>アンノーンローズ</t>
+  </si>
+  <si>
     <t>Gotoku Cat</t>
   </si>
   <si>
+    <t>五徳猫</t>
+  </si>
+  <si>
     <t>Tsukiha (Alter)</t>
   </si>
   <si>
+    <t>花咲の姫君ツキハ</t>
+  </si>
+  <si>
     <t>Miyabinokami</t>
   </si>
   <si>
     <t>ミヤビノカミ</t>
   </si>
   <si>
+    <t>Ashtear</t>
+  </si>
+  <si>
+    <t>アシュティア</t>
+  </si>
+  <si>
+    <t>Minalca</t>
+  </si>
+  <si>
+    <t>ミナルカ</t>
+  </si>
+  <si>
+    <t>Tetra</t>
+  </si>
+  <si>
+    <t>テトラ</t>
+  </si>
+  <si>
+    <t>Minimander</t>
+  </si>
+  <si>
+    <t>オタマンダー</t>
+  </si>
+  <si>
+    <t>Moldi</t>
+  </si>
+  <si>
+    <t>モルディ</t>
+  </si>
+  <si>
+    <t>Corobo</t>
+  </si>
+  <si>
+    <t>コロボ</t>
+  </si>
+  <si>
+    <t>Lord Ukulele</t>
+  </si>
+  <si>
+    <t>ウクレレ様</t>
+  </si>
+  <si>
+    <t>Nemesis</t>
+  </si>
+  <si>
+    <t>ネメシス</t>
+  </si>
+  <si>
     <t>장비</t>
   </si>
   <si>
@@ -4845,256 +4926,40 @@
     <t>COA</t>
   </si>
   <si>
-    <t>Ashtear</t>
+    <t>기억상실</t>
+  </si>
+  <si>
+    <t>용</t>
+  </si>
+  <si>
+    <t>Dragon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Minalca</t>
-  </si>
-  <si>
-    <t>Tetra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lord Ukulele</t>
-  </si>
-  <si>
-    <t>Corobo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nemesis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimander</t>
-  </si>
-  <si>
-    <r>
-      <t>オタマンダ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ウクレレ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>様</t>
-    </r>
-  </si>
-  <si>
-    <t>ミナルカ</t>
-  </si>
-  <si>
-    <t>アシュティア</t>
-  </si>
-  <si>
-    <t>ネメシス</t>
-  </si>
-  <si>
-    <t>コロボ</t>
-  </si>
-  <si>
-    <t>テトラ</t>
-  </si>
-  <si>
-    <r>
-      <t>ケリュケ</t>
-    </r>
+    <t>Amnesia</t>
+  </si>
+  <si>
+    <t>記憶喪失</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ー</t>
+      <t>竜</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ル</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>アヴェスタ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>アンノ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ンロ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ズ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>五</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>徳</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>猫</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>花</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>咲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>姫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>君ツキハ</t>
-    </r>
-  </si>
-  <si>
-    <t>코로보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unknown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우쿨렐레 님</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5136,15 +5001,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -5491,7 +5348,7 @@
   <dimension ref="A1:S291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1:J1"/>
     </sheetView>
   </sheetViews>
@@ -17026,8 +16883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17111,7 +16968,7 @@
         <v>2003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C4" s="1">
         <v>2000000003</v>
@@ -17132,7 +16989,7 @@
         <v>2004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1625</v>
+        <v>456</v>
       </c>
       <c r="C5" s="1">
         <v>2000000004</v>
@@ -17153,7 +17010,7 @@
         <v>2005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1624</v>
+        <v>457</v>
       </c>
       <c r="C6" s="1">
         <v>2000000005</v>
@@ -17186,8 +17043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17197,8 +17054,8 @@
     <col min="4" max="4" width="25" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="2" customWidth="1"/>
     <col min="6" max="19" width="25" style="1" customWidth="1"/>
-    <col min="20" max="31" width="9" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="1"/>
+    <col min="20" max="32" width="9" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -17206,13 +17063,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -17226,7 +17083,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E2" s="1">
         <v>101000011</v>
@@ -17234,13 +17091,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E3" s="1">
         <v>101000021</v>
@@ -17254,7 +17111,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E4" s="1">
         <v>101000031</v>
@@ -17268,7 +17125,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E5" s="1">
         <v>101000041</v>
@@ -17296,7 +17153,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E7" s="1">
         <v>101000061</v>
@@ -17304,13 +17161,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E8" s="1">
         <v>101000071</v>
@@ -17324,7 +17181,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>469</v>
       </c>
       <c r="E9" s="1">
         <v>101000081</v>
@@ -17338,7 +17195,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E10" s="1">
         <v>101000101</v>
@@ -17352,10 +17209,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E11" s="1">
         <v>101000111</v>
@@ -17369,7 +17226,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E12" s="1">
         <v>101000121</v>
@@ -17383,7 +17240,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E13" s="1">
         <v>101000141</v>
@@ -17391,7 +17248,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>0</v>
@@ -17405,13 +17262,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E15" s="1">
         <v>101000161</v>
@@ -17425,7 +17282,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E16" s="1">
         <v>101000171</v>
@@ -17439,7 +17296,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E17" s="1">
         <v>101000191</v>
@@ -17453,7 +17310,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E18" s="1">
         <v>101000201</v>
@@ -17461,13 +17318,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E19" s="1">
         <v>101000211</v>
@@ -17481,7 +17338,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E20" s="1">
         <v>101000221</v>
@@ -17495,7 +17352,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E21" s="1">
         <v>101000231</v>
@@ -17509,7 +17366,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E22" s="1">
         <v>101000241</v>
@@ -17523,10 +17380,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E23" s="1">
         <v>101000251</v>
@@ -17540,7 +17397,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E24" s="1">
         <v>101000261</v>
@@ -17554,7 +17411,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E25" s="1">
         <v>101000271</v>
@@ -17568,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>469</v>
       </c>
       <c r="E26" s="1">
         <v>101000281</v>
@@ -17582,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E27" s="1">
         <v>101000291</v>
@@ -17596,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E28" s="1">
         <v>101010011</v>
@@ -17604,13 +17461,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E29" s="1">
         <v>101010021</v>
@@ -17624,10 +17481,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E30" s="1">
         <v>101010031</v>
@@ -17641,7 +17498,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E31" s="1">
         <v>101010041</v>
@@ -17655,7 +17512,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E32" s="1">
         <v>101010041</v>
@@ -17669,7 +17526,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E33" s="1">
         <v>101010051</v>
@@ -17677,13 +17534,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E34" s="1">
         <v>101010061</v>
@@ -17711,7 +17568,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E36" s="1">
         <v>101010091</v>
@@ -17725,7 +17582,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E37" s="1">
         <v>101010101</v>
@@ -17739,7 +17596,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="E38" s="1">
         <v>101010111</v>
@@ -17753,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E39" s="1">
         <v>101010121</v>
@@ -17767,7 +17624,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E40" s="1">
         <v>101020011</v>
@@ -17781,7 +17638,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E41" s="1">
         <v>101020021</v>
@@ -17795,7 +17652,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E42" s="1">
         <v>101020031</v>
@@ -17809,7 +17666,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E43" s="1">
         <v>101020041</v>
@@ -17823,7 +17680,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E44" s="1">
         <v>101020051</v>
@@ -17837,10 +17694,10 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E45" s="1">
         <v>101020071</v>
@@ -17854,10 +17711,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E46" s="1">
         <v>101020071</v>
@@ -17871,7 +17728,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E47" s="1">
         <v>101020081</v>
@@ -17885,7 +17742,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E48" s="1">
         <v>101020081</v>
@@ -17899,10 +17756,10 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E49" s="1">
         <v>101020091</v>
@@ -17916,7 +17773,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E50" s="1">
         <v>101020101</v>
@@ -17944,7 +17801,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E52" s="1">
         <v>101020121</v>
@@ -17958,7 +17815,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E53" s="1">
         <v>101020131</v>
@@ -17972,7 +17829,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E54" s="1">
         <v>101020141</v>
@@ -17986,10 +17843,10 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E55" s="1">
         <v>101020151</v>
@@ -17997,7 +17854,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B56" s="1" t="b">
         <v>0</v>
@@ -18011,13 +17868,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E57" s="1">
         <v>101030021</v>
@@ -18025,7 +17882,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B58" s="1" t="b">
         <v>0</v>
@@ -18039,7 +17896,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B59" s="1" t="b">
         <v>0</v>
@@ -18053,13 +17910,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B60" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E60" s="1">
         <v>101030051</v>
@@ -18067,13 +17924,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E61" s="1">
         <v>101030061</v>
@@ -18087,10 +17944,10 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E62" s="1">
         <v>101030071</v>
@@ -18104,10 +17961,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E63" s="1">
         <v>101030071</v>
@@ -18115,13 +17972,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B64" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E64" s="1">
         <v>101030081</v>
@@ -18135,10 +17992,10 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E65" s="1">
         <v>101030091</v>
@@ -18152,7 +18009,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="E66" s="1">
         <v>101030101</v>
@@ -18180,7 +18037,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E68" s="1">
         <v>101030121</v>
@@ -18194,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="E69" s="1">
         <v>101030131</v>
@@ -18208,7 +18065,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E70" s="1">
         <v>101030141</v>
@@ -18222,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E71" s="1">
         <v>101030151</v>
@@ -18236,7 +18093,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E72" s="1">
         <v>101030161</v>
@@ -18258,13 +18115,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B74" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E74" s="1">
         <v>101040011</v>
@@ -18278,7 +18135,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E75" s="1">
         <v>101040021</v>
@@ -18292,10 +18149,10 @@
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E76" s="1">
         <v>101040031</v>
@@ -18309,10 +18166,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E77" s="1">
         <v>101040031</v>
@@ -18320,13 +18177,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B78" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E78" s="1">
         <v>101040041</v>
@@ -18340,7 +18197,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E79" s="1">
         <v>101040051</v>
@@ -18354,7 +18211,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E80" s="1">
         <v>101040071</v>
@@ -18368,7 +18225,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E81" s="1">
         <v>101040081</v>
@@ -18382,10 +18239,10 @@
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E82" s="1">
         <v>101040091</v>
@@ -18399,7 +18256,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E83" s="1">
         <v>101040101</v>
@@ -18413,7 +18270,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E84" s="1">
         <v>101040111</v>
@@ -18427,7 +18284,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E85" s="1">
         <v>101040121</v>
@@ -18441,7 +18298,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E86" s="1">
         <v>101040131</v>
@@ -18455,7 +18312,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="E87" s="1">
         <v>101040141</v>
@@ -18469,7 +18326,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E88" s="1">
         <v>101040161</v>
@@ -18483,7 +18340,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E89" s="1">
         <v>101040171</v>
@@ -18497,7 +18354,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E90" s="1">
         <v>101050021</v>
@@ -18505,13 +18362,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E91" s="1">
         <v>101050031</v>
@@ -18519,13 +18376,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="E92" s="1">
         <v>101050041</v>
@@ -18533,13 +18390,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E93" s="1">
         <v>101050051</v>
@@ -18561,13 +18418,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B95" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E95" s="1">
         <v>101050071</v>
@@ -18581,7 +18438,10 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>554</v>
+        <v>558</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="E96" s="1">
         <v>101050081</v>
@@ -18595,7 +18455,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E97" s="1">
         <v>101050091</v>
@@ -18609,7 +18469,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="E98" s="1">
         <v>101050101</v>
@@ -18637,7 +18497,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="E100" s="1">
         <v>101050121</v>
@@ -18651,7 +18511,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="E101" s="1">
         <v>101050131</v>
@@ -18665,7 +18525,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="E102" s="1">
         <v>101050141</v>
@@ -18679,7 +18539,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E103" s="1">
         <v>101050151</v>
@@ -18693,7 +18553,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>172</v>
+        <v>565</v>
       </c>
       <c r="E104" s="1">
         <v>101050161</v>
@@ -18701,13 +18561,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B105" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="E105" s="1">
         <v>101060021</v>
@@ -18721,10 +18581,10 @@
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="E106" s="1">
         <v>101060031</v>
@@ -18732,13 +18592,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B107" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="E107" s="1">
         <v>101060051</v>
@@ -18746,13 +18606,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B108" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E108" s="1">
         <v>101060061</v>
@@ -18760,13 +18620,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B109" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="E109" s="1">
         <v>101060071</v>
@@ -18780,7 +18640,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="E110" s="1">
         <v>101060081</v>
@@ -18794,7 +18654,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="E111" s="1">
         <v>101060091</v>
@@ -18808,7 +18668,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="E112" s="1">
         <v>101060101</v>
@@ -18822,7 +18682,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="E113" s="1">
         <v>101060111</v>
@@ -18836,7 +18696,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="E114" s="1">
         <v>101060121</v>
@@ -18850,10 +18710,10 @@
         <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="E115" s="1">
         <v>101060131</v>
@@ -18867,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="E116" s="1">
         <v>101060141</v>
@@ -18881,7 +18741,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E117" s="1">
         <v>101070011</v>
@@ -18889,13 +18749,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B118" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="E118" s="1">
         <v>101070021</v>
@@ -18909,7 +18769,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="E119" s="1">
         <v>101070031</v>
@@ -18923,7 +18783,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="E120" s="1">
         <v>101070051</v>
@@ -18937,10 +18797,10 @@
         <v>0</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="E121" s="1">
         <v>101070061</v>
@@ -18954,10 +18814,10 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="E122" s="1">
         <v>101070061</v>
@@ -18965,13 +18825,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B123" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="E123" s="1">
         <v>101070071</v>
@@ -18985,7 +18845,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="E124" s="1">
         <v>101070081</v>
@@ -18999,7 +18859,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="E125" s="1">
         <v>101070091</v>
@@ -19013,7 +18873,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="E126" s="1">
         <v>101070101</v>
@@ -19027,7 +18887,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="E127" s="1">
         <v>101070111</v>
@@ -19055,7 +18915,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="E129" s="1">
         <v>101110041</v>
@@ -19069,10 +18929,10 @@
         <v>0</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="E130" s="1">
         <v>101140021</v>
@@ -19086,7 +18946,7 @@
         <v>0</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="E131" s="1">
         <v>101400011</v>
@@ -19100,7 +18960,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="E132" s="1">
         <v>101400071</v>
@@ -19114,7 +18974,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="E133" s="1">
         <v>101410011</v>
@@ -19128,7 +18988,7 @@
         <v>0</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="E134" s="1">
         <v>101420011</v>
@@ -19240,7 +19100,7 @@
         <v>0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="E142" s="1">
         <v>101800041</v>
@@ -19254,7 +19114,7 @@
         <v>0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="E143" s="1">
         <v>101800052</v>
@@ -19262,13 +19122,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B144" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="E144" s="1">
         <v>101800063</v>
@@ -19282,7 +19142,7 @@
         <v>0</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="E145" s="1">
         <v>101800111</v>
@@ -19296,7 +19156,7 @@
         <v>0</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="E146" s="1">
         <v>101900011</v>
@@ -19310,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="E147" s="1">
         <v>101910011</v>
@@ -19324,7 +19184,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="E148" s="1">
         <v>101920011</v>
@@ -19338,7 +19198,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="E149" s="1">
         <v>101960011</v>
@@ -19352,7 +19212,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E150" s="1">
         <v>101970011</v>
@@ -19380,7 +19240,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="E152" s="1">
         <v>101000301</v>
@@ -19394,7 +19254,7 @@
         <v>0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>406</v>
@@ -19422,7 +19282,7 @@
         <v>0</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>420</v>
@@ -19436,7 +19296,7 @@
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="E156" s="1">
         <v>101050081</v>
@@ -19450,7 +19310,7 @@
         <v>0</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>440</v>
@@ -19464,7 +19324,7 @@
         <v>0</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>444</v>
@@ -19478,7 +19338,7 @@
         <v>0</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>449</v>
@@ -19512,13 +19372,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C1" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D1" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -19526,41 +19386,41 @@
         <v>348</v>
       </c>
       <c r="B2" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C2" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D2" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B3" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C3" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D3" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B4" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C4" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D4" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -19568,27 +19428,27 @@
         <v>380</v>
       </c>
       <c r="B5" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C5" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D5" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B6" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C6" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D6" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -19596,27 +19456,27 @@
         <v>394</v>
       </c>
       <c r="B7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B8" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C8" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D8" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -19624,13 +19484,13 @@
         <v>244</v>
       </c>
       <c r="B9" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C9" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D9" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -19638,13 +19498,13 @@
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C10" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D10" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -19652,13 +19512,13 @@
         <v>392</v>
       </c>
       <c r="B11" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C11" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D11" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -19666,13 +19526,13 @@
         <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C12" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D12" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -19680,27 +19540,27 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C13" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D13" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B14" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C14" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D14" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -19708,41 +19568,41 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C15" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D15" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B16" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C16" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D16" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B17" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C17" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D17" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -19750,27 +19610,27 @@
         <v>389</v>
       </c>
       <c r="B18" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C18" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D18" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B19" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C19" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D19" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -19778,13 +19638,13 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C20" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D20" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -19792,13 +19652,13 @@
         <v>278</v>
       </c>
       <c r="B21" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C21" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D21" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -19806,13 +19666,13 @@
         <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C22" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D22" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -19820,13 +19680,13 @@
         <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C23" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D23" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -19834,13 +19694,13 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C24" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D24" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -19848,13 +19708,13 @@
         <v>240</v>
       </c>
       <c r="B25" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C25" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D25" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -19862,13 +19722,13 @@
         <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C26" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D26" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -19876,13 +19736,13 @@
         <v>242</v>
       </c>
       <c r="B27" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C27" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D27" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -19890,13 +19750,13 @@
         <v>309</v>
       </c>
       <c r="B28" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C28" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D28" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -19904,13 +19764,13 @@
         <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C29" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D29" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -19918,13 +19778,13 @@
         <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C30" t="s">
+        <v>631</v>
+      </c>
+      <c r="D30" t="s">
         <v>625</v>
-      </c>
-      <c r="D30" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -19932,27 +19792,27 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C31" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D31" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B32" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C32" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D32" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -19960,13 +19820,13 @@
         <v>423</v>
       </c>
       <c r="B33" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C33" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D33" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -19974,13 +19834,13 @@
         <v>155</v>
       </c>
       <c r="B34" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C34" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D34" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -19988,13 +19848,13 @@
         <v>242</v>
       </c>
       <c r="B35" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C35" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D35" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -20002,13 +19862,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C36" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D36" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -20016,13 +19876,13 @@
         <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C37" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D37" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -20030,13 +19890,13 @@
         <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C38" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D38" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -20044,13 +19904,13 @@
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C39" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D39" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -20058,13 +19918,13 @@
         <v>302</v>
       </c>
       <c r="B40" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C40" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="D40" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -20072,13 +19932,13 @@
         <v>243</v>
       </c>
       <c r="B41" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C41" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="D41" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -20086,13 +19946,13 @@
         <v>192</v>
       </c>
       <c r="B42" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C42" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="D42" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -20100,13 +19960,13 @@
         <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C43" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="D43" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -20114,13 +19974,13 @@
         <v>260</v>
       </c>
       <c r="B44" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C44" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="D44" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -20128,13 +19988,13 @@
         <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C45" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="D45" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -20142,13 +20002,13 @@
         <v>192</v>
       </c>
       <c r="B46" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C46" t="s">
+        <v>638</v>
+      </c>
+      <c r="D46" t="s">
         <v>632</v>
-      </c>
-      <c r="D46" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -20156,13 +20016,13 @@
         <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C47" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D47" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -20170,13 +20030,13 @@
         <v>334</v>
       </c>
       <c r="B48" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C48" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D48" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -20184,13 +20044,13 @@
         <v>410</v>
       </c>
       <c r="B49" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C49" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D49" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -20198,13 +20058,13 @@
         <v>243</v>
       </c>
       <c r="B50" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C50" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D50" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -20212,13 +20072,13 @@
         <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C51" t="s">
         <v>366</v>
       </c>
       <c r="D51" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -20226,13 +20086,13 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C52" t="s">
         <v>366</v>
       </c>
       <c r="D52" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -20240,13 +20100,13 @@
         <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C53" t="s">
         <v>366</v>
       </c>
       <c r="D53" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -20254,13 +20114,13 @@
         <v>304</v>
       </c>
       <c r="B54" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C54" t="s">
         <v>366</v>
       </c>
       <c r="D54" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -20268,13 +20128,13 @@
         <v>378</v>
       </c>
       <c r="B55" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C55" t="s">
         <v>366</v>
       </c>
       <c r="D55" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -20282,13 +20142,13 @@
         <v>382</v>
       </c>
       <c r="B56" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C56" t="s">
         <v>366</v>
       </c>
       <c r="D56" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -20296,13 +20156,13 @@
         <v>364</v>
       </c>
       <c r="B57" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C57" t="s">
         <v>366</v>
       </c>
       <c r="D57" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -20313,7 +20173,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -20324,7 +20184,7 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -20335,7 +20195,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -20346,7 +20206,7 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -20362,24 +20222,24 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -20401,7 +20261,7 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -20412,7 +20272,7 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -20423,7 +20283,7 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -20434,7 +20294,7 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -20445,7 +20305,7 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -20478,7 +20338,7 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -20489,7 +20349,7 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -20522,7 +20382,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -20533,7 +20393,7 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -20555,7 +20415,7 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -20566,7 +20426,7 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -20577,7 +20437,7 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -20588,7 +20448,7 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -20599,7 +20459,7 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -20610,7 +20470,7 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -20621,7 +20481,7 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -20632,7 +20492,7 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -20665,7 +20525,7 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -20676,7 +20536,7 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -20687,7 +20547,7 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -20698,7 +20558,7 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -20709,7 +20569,7 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -20720,7 +20580,7 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -20756,16 +20616,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -20773,13 +20633,13 @@
         <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -20787,13 +20647,13 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -20801,13 +20661,13 @@
         <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -20815,13 +20675,13 @@
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -20829,13 +20689,13 @@
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -20843,13 +20703,13 @@
         <v>204</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -20857,97 +20717,97 @@
         <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -20955,13 +20815,13 @@
         <v>96</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -20969,69 +20829,69 @@
         <v>366</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -21039,13 +20899,13 @@
         <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -21053,13 +20913,13 @@
         <v>132</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -21067,27 +20927,27 @@
         <v>272</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -21095,111 +20955,111 @@
         <v>112</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -21207,153 +21067,153 @@
         <v>388</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -21419,166 +21279,166 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -21709,13 +21569,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -21723,10 +21583,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -21734,10 +21594,10 @@
         <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -21745,10 +21605,10 @@
         <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -21756,10 +21616,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -21767,142 +21627,142 @@
         <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -21910,10 +21770,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -21921,10 +21781,10 @@
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -21932,10 +21792,10 @@
         <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -21943,10 +21803,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -21954,10 +21814,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -21965,10 +21825,10 @@
         <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -21976,10 +21836,10 @@
         <v>141</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -21987,10 +21847,10 @@
         <v>193</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -21998,10 +21858,10 @@
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -22009,10 +21869,10 @@
         <v>172</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -22020,10 +21880,10 @@
         <v>305</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -22031,10 +21891,10 @@
         <v>235</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -22042,10 +21902,10 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -22053,10 +21913,10 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -22064,43 +21924,43 @@
         <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -22108,21 +21968,21 @@
         <v>450</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -22130,10 +21990,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
     </row>
   </sheetData>
@@ -22147,8 +22007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C305"/>
   <sheetViews>
-    <sheetView topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302"/>
+    <sheetView topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22158,13 +22018,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -22172,21 +22032,21 @@
         <v>294</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -22194,10 +22054,10 @@
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -22205,10 +22065,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -22216,21 +22076,21 @@
         <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -22238,21 +22098,21 @@
         <v>376</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -22260,10 +22120,10 @@
         <v>240</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -22271,10 +22131,10 @@
         <v>164</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -22282,10 +22142,10 @@
         <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -22293,10 +22153,10 @@
         <v>243</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -22304,10 +22164,10 @@
         <v>252</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -22315,10 +22175,10 @@
         <v>311</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -22326,10 +22186,10 @@
         <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -22337,10 +22197,10 @@
         <v>218</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -22348,10 +22208,10 @@
         <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -22359,10 +22219,10 @@
         <v>309</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -22370,10 +22230,10 @@
         <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -22381,10 +22241,10 @@
         <v>410</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -22392,10 +22252,10 @@
         <v>166</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -22403,10 +22263,10 @@
         <v>229</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -22414,10 +22274,10 @@
         <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -22425,10 +22285,10 @@
         <v>394</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -22436,10 +22296,10 @@
         <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -22447,10 +22307,10 @@
         <v>328</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -22458,10 +22318,10 @@
         <v>318</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -22469,32 +22329,32 @@
         <v>288</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -22502,10 +22362,10 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -22513,10 +22373,10 @@
         <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -22524,10 +22384,10 @@
         <v>269</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -22535,10 +22395,10 @@
         <v>144</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -22546,10 +22406,10 @@
         <v>322</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -22557,21 +22417,21 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -22579,10 +22439,10 @@
         <v>377</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -22590,21 +22450,21 @@
         <v>100</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -22612,10 +22472,10 @@
         <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -22623,10 +22483,10 @@
         <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -22634,10 +22494,10 @@
         <v>106</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -22645,32 +22505,32 @@
         <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -22678,10 +22538,10 @@
         <v>187</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -22689,10 +22549,10 @@
         <v>363</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -22700,10 +22560,10 @@
         <v>284</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -22711,10 +22571,10 @@
         <v>391</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -22722,21 +22582,21 @@
         <v>435</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -22744,21 +22604,21 @@
         <v>238</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -22766,10 +22626,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -22777,10 +22637,10 @@
         <v>356</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -22788,10 +22648,10 @@
         <v>304</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -22799,10 +22659,10 @@
         <v>367</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -22810,21 +22670,21 @@
         <v>242</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -22832,10 +22692,10 @@
         <v>214</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -22843,10 +22703,10 @@
         <v>298</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -22854,10 +22714,10 @@
         <v>371</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -22865,10 +22725,10 @@
         <v>191</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -22876,21 +22736,21 @@
         <v>336</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -22898,21 +22758,21 @@
         <v>378</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -22920,10 +22780,10 @@
         <v>210</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -22931,10 +22791,10 @@
         <v>374</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -22942,10 +22802,10 @@
         <v>265</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -22953,21 +22813,21 @@
         <v>340</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -22975,10 +22835,10 @@
         <v>179</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -22986,21 +22846,21 @@
         <v>136</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -23008,10 +22868,10 @@
         <v>368</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -23019,10 +22879,10 @@
         <v>189</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -23030,10 +22890,10 @@
         <v>146</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -23041,10 +22901,10 @@
         <v>372</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -23052,10 +22912,10 @@
         <v>370</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -23063,10 +22923,10 @@
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -23074,10 +22934,10 @@
         <v>222</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -23085,10 +22945,10 @@
         <v>380</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -23096,10 +22956,10 @@
         <v>155</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -23107,10 +22967,10 @@
         <v>140</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -23118,10 +22978,10 @@
         <v>423</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -23129,32 +22989,32 @@
         <v>71</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -23162,10 +23022,10 @@
         <v>330</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -23173,10 +23033,10 @@
         <v>324</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -23184,10 +23044,10 @@
         <v>260</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -23195,10 +23055,10 @@
         <v>360</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -23206,10 +23066,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -23217,10 +23077,10 @@
         <v>175</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -23228,10 +23088,10 @@
         <v>120</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -23239,10 +23099,10 @@
         <v>244</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -23250,10 +23110,10 @@
         <v>201</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -23261,10 +23121,10 @@
         <v>302</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -23272,10 +23132,10 @@
         <v>183</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -23283,10 +23143,10 @@
         <v>278</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -23294,10 +23154,10 @@
         <v>289</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -23305,10 +23165,10 @@
         <v>60</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -23316,10 +23176,10 @@
         <v>383</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -23327,10 +23187,10 @@
         <v>375</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -23338,21 +23198,21 @@
         <v>386</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -23360,10 +23220,10 @@
         <v>97</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -23371,10 +23231,10 @@
         <v>369</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -23382,10 +23242,10 @@
         <v>382</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -23393,21 +23253,21 @@
         <v>364</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -23415,10 +23275,10 @@
         <v>292</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -23426,10 +23286,10 @@
         <v>392</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -23437,10 +23297,10 @@
         <v>256</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -23448,10 +23308,10 @@
         <v>192</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1150</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -23459,21 +23319,21 @@
         <v>335</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -23481,10 +23341,10 @@
         <v>352</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -23492,21 +23352,21 @@
         <v>29</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -23514,21 +23374,21 @@
         <v>362</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -23536,21 +23396,21 @@
         <v>65</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -23558,21 +23418,21 @@
         <v>348</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -23580,10 +23440,10 @@
         <v>389</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1174</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -23591,10 +23451,10 @@
         <v>119</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -23602,10 +23462,10 @@
         <v>267</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1177</v>
+        <v>1183</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -23613,10 +23473,10 @@
         <v>55</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1180</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -23624,10 +23484,10 @@
         <v>79</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -23635,21 +23495,21 @@
         <v>17</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1184</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -23657,10 +23517,10 @@
         <v>206</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -23668,21 +23528,21 @@
         <v>274</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1190</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -23690,10 +23550,10 @@
         <v>124</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -23701,10 +23561,10 @@
         <v>248</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1196</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -23712,10 +23572,10 @@
         <v>334</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -23723,10 +23583,10 @@
         <v>227</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1199</v>
+        <v>1205</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -23734,10 +23594,10 @@
         <v>373</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -23745,10 +23605,10 @@
         <v>138</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -23756,10 +23616,10 @@
         <v>158</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1206</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -23767,10 +23627,10 @@
         <v>246</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -23778,10 +23638,10 @@
         <v>212</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -23789,10 +23649,10 @@
         <v>37</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -23800,10 +23660,10 @@
         <v>122</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -23811,10 +23671,10 @@
         <v>365</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -23822,10 +23682,10 @@
         <v>281</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -23833,10 +23693,10 @@
         <v>359</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -23844,10 +23704,10 @@
         <v>390</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -23855,10 +23715,10 @@
         <v>393</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -23866,10 +23726,10 @@
         <v>254</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -23877,10 +23737,10 @@
         <v>135</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -23888,10 +23748,10 @@
         <v>220</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -23899,10 +23759,10 @@
         <v>69</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1231</v>
+        <v>1237</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1232</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -23910,10 +23770,10 @@
         <v>354</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -23921,10 +23781,10 @@
         <v>98</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1236</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -23932,10 +23792,10 @@
         <v>384</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1238</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -23943,10 +23803,10 @@
         <v>258</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1239</v>
+        <v>1245</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1240</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -23954,10 +23814,10 @@
         <v>232</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1242</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -23965,10 +23825,10 @@
         <v>291</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1243</v>
+        <v>1249</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1244</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -23976,10 +23836,10 @@
         <v>310</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1245</v>
+        <v>1251</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -23987,10 +23847,10 @@
         <v>361</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -23998,10 +23858,10 @@
         <v>381</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1249</v>
+        <v>1255</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -24009,10 +23869,10 @@
         <v>57</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -24020,10 +23880,10 @@
         <v>315</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -24031,10 +23891,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1256</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -24042,10 +23902,10 @@
         <v>226</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1258</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -24053,10 +23913,10 @@
         <v>395</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1260</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -24064,10 +23924,10 @@
         <v>332</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1261</v>
+        <v>1267</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -24075,10 +23935,10 @@
         <v>208</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1264</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -24086,10 +23946,10 @@
         <v>131</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1265</v>
+        <v>1271</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1266</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -24097,10 +23957,10 @@
         <v>31</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1267</v>
+        <v>1273</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -24108,10 +23968,10 @@
         <v>268</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1270</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -24119,10 +23979,10 @@
         <v>185</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1271</v>
+        <v>1277</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1272</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -24130,10 +23990,10 @@
         <v>203</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1273</v>
+        <v>1279</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1274</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -24141,10 +24001,10 @@
         <v>296</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1275</v>
+        <v>1281</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1276</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -24152,10 +24012,10 @@
         <v>82</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -24163,10 +24023,10 @@
         <v>177</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1280</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -24174,10 +24034,10 @@
         <v>149</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1281</v>
+        <v>1287</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1282</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -24185,10 +24045,10 @@
         <v>351</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1283</v>
+        <v>1289</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1284</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -24196,10 +24056,10 @@
         <v>76</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1286</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -24207,10 +24067,10 @@
         <v>266</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1287</v>
+        <v>1293</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1288</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -24218,10 +24078,10 @@
         <v>216</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1289</v>
+        <v>1295</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -24229,10 +24089,10 @@
         <v>329</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1291</v>
+        <v>1297</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1292</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -24240,10 +24100,10 @@
         <v>250</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1293</v>
+        <v>1299</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1294</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -24251,10 +24111,10 @@
         <v>343</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1295</v>
+        <v>1301</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1296</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -24262,10 +24122,10 @@
         <v>271</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1297</v>
+        <v>1303</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1298</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -24273,10 +24133,10 @@
         <v>387</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1299</v>
+        <v>1305</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1300</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -24284,10 +24144,10 @@
         <v>276</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1302</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -24295,10 +24155,10 @@
         <v>169</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1303</v>
+        <v>1309</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1304</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -24306,10 +24166,10 @@
         <v>338</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1305</v>
+        <v>1311</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1306</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -24317,10 +24177,10 @@
         <v>286</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1307</v>
+        <v>1313</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1308</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -24328,10 +24188,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1309</v>
+        <v>1315</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1310</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -24339,10 +24199,10 @@
         <v>63</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1311</v>
+        <v>1317</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -24350,10 +24210,10 @@
         <v>103</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1313</v>
+        <v>1319</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1314</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -24361,10 +24221,10 @@
         <v>111</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1316</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -24372,10 +24232,10 @@
         <v>23</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1317</v>
+        <v>1323</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1318</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -24383,10 +24243,10 @@
         <v>326</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1319</v>
+        <v>1325</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1320</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -24394,10 +24254,10 @@
         <v>303</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1322</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -24405,10 +24265,10 @@
         <v>95</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1323</v>
+        <v>1329</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -24416,10 +24276,10 @@
         <v>190</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1325</v>
+        <v>1331</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1326</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -24427,10 +24287,10 @@
         <v>87</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1328</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -24438,10 +24298,10 @@
         <v>379</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1329</v>
+        <v>1335</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1330</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -24449,10 +24309,10 @@
         <v>320</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1331</v>
+        <v>1337</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1332</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -24460,10 +24320,10 @@
         <v>188</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1333</v>
+        <v>1339</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1334</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -24471,10 +24331,10 @@
         <v>143</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1336</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -24482,10 +24342,10 @@
         <v>307</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1338</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -24493,10 +24353,10 @@
         <v>301</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -24504,10 +24364,10 @@
         <v>181</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1341</v>
+        <v>1347</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -24515,10 +24375,10 @@
         <v>126</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1343</v>
+        <v>1349</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1344</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -24526,10 +24386,10 @@
         <v>51</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1345</v>
+        <v>1351</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1346</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -24537,10 +24397,10 @@
         <v>165</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1348</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -24548,10 +24408,10 @@
         <v>228</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1349</v>
+        <v>1355</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1350</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -24559,10 +24419,10 @@
         <v>239</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1351</v>
+        <v>1357</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1352</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -24570,10 +24430,10 @@
         <v>262</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1353</v>
+        <v>1359</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1354</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -24581,10 +24441,10 @@
         <v>293</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1355</v>
+        <v>1361</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1356</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24592,10 +24452,10 @@
         <v>323</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1358</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24603,10 +24463,10 @@
         <v>139</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1359</v>
+        <v>1365</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1360</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -24614,10 +24474,10 @@
         <v>64</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1361</v>
+        <v>1367</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1362</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -24625,10 +24485,10 @@
         <v>255</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1363</v>
+        <v>1369</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -24636,10 +24496,10 @@
         <v>127</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1365</v>
+        <v>1371</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1366</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -24647,10 +24507,10 @@
         <v>277</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1367</v>
+        <v>1373</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1368</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -24658,10 +24518,10 @@
         <v>123</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1369</v>
+        <v>1375</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1370</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -24669,10 +24529,10 @@
         <v>234</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1372</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -24680,10 +24540,10 @@
         <v>205</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1373</v>
+        <v>1379</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1374</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -24691,10 +24551,10 @@
         <v>247</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1375</v>
+        <v>1381</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1376</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -24702,10 +24562,10 @@
         <v>200</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1377</v>
+        <v>1383</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1378</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -24713,10 +24573,10 @@
         <v>339</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1379</v>
+        <v>1385</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1380</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -24724,10 +24584,10 @@
         <v>48</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1381</v>
+        <v>1387</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1382</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -24735,10 +24595,10 @@
         <v>78</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1384</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -24746,10 +24606,10 @@
         <v>105</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1385</v>
+        <v>1391</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1386</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -24757,10 +24617,10 @@
         <v>259</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1387</v>
+        <v>1393</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1388</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -24768,10 +24628,10 @@
         <v>327</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1390</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -24779,10 +24639,10 @@
         <v>70</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1391</v>
+        <v>1397</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1392</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -24790,10 +24650,10 @@
         <v>241</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1393</v>
+        <v>1399</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1394</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -24801,10 +24661,10 @@
         <v>347</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1395</v>
+        <v>1401</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1396</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -24812,10 +24672,10 @@
         <v>33</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1397</v>
+        <v>1403</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1398</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -24823,10 +24683,10 @@
         <v>40</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1399</v>
+        <v>1405</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1400</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24834,10 +24694,10 @@
         <v>163</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1401</v>
+        <v>1407</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1402</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -24845,10 +24705,10 @@
         <v>209</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1403</v>
+        <v>1409</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1404</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -24856,10 +24716,10 @@
         <v>283</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1405</v>
+        <v>1411</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1406</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -24867,10 +24727,10 @@
         <v>333</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1407</v>
+        <v>1413</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1408</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -24878,10 +24738,10 @@
         <v>273</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1409</v>
+        <v>1415</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1410</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -24889,10 +24749,10 @@
         <v>251</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1411</v>
+        <v>1417</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1412</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -24900,10 +24760,10 @@
         <v>154</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1413</v>
+        <v>1419</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1414</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -24911,10 +24771,10 @@
         <v>114</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1415</v>
+        <v>1421</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1416</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -24922,10 +24782,10 @@
         <v>186</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1417</v>
+        <v>1423</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1418</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24933,10 +24793,10 @@
         <v>178</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1419</v>
+        <v>1425</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1420</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -24944,10 +24804,10 @@
         <v>297</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1421</v>
+        <v>1427</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1422</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -24955,10 +24815,10 @@
         <v>308</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1423</v>
+        <v>1429</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1424</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -24966,10 +24826,10 @@
         <v>345</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1425</v>
+        <v>1431</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1426</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -24977,10 +24837,10 @@
         <v>84</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1427</v>
+        <v>1433</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1428</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -24988,10 +24848,10 @@
         <v>171</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1429</v>
+        <v>1435</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1430</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -24999,10 +24859,10 @@
         <v>72</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1431</v>
+        <v>1437</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1432</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -25010,10 +24870,10 @@
         <v>89</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1433</v>
+        <v>1439</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1434</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -25021,10 +24881,10 @@
         <v>174</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1435</v>
+        <v>1441</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1436</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -25032,10 +24892,10 @@
         <v>317</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1437</v>
+        <v>1443</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1438</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -25043,10 +24903,10 @@
         <v>287</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1439</v>
+        <v>1445</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1440</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -25054,10 +24914,10 @@
         <v>107</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1441</v>
+        <v>1447</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1442</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -25065,10 +24925,10 @@
         <v>221</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1443</v>
+        <v>1449</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1444</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -25076,10 +24936,10 @@
         <v>161</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1445</v>
+        <v>1451</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1446</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -25087,10 +24947,10 @@
         <v>150</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1448</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -25098,10 +24958,10 @@
         <v>182</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1449</v>
+        <v>1455</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1450</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -25109,10 +24969,10 @@
         <v>355</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1451</v>
+        <v>1457</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1452</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -25120,10 +24980,10 @@
         <v>198</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1453</v>
+        <v>1459</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1454</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -25131,10 +24991,10 @@
         <v>27</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1455</v>
+        <v>1461</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1456</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -25142,10 +25002,10 @@
         <v>217</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1457</v>
+        <v>1463</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1458</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -25153,10 +25013,10 @@
         <v>145</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1459</v>
+        <v>1465</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1460</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -25164,10 +25024,10 @@
         <v>117</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1461</v>
+        <v>1467</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1462</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -25175,10 +25035,10 @@
         <v>152</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1463</v>
+        <v>1469</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1464</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -25186,10 +25046,10 @@
         <v>213</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1465</v>
+        <v>1471</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1466</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -25197,10 +25057,10 @@
         <v>237</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1467</v>
+        <v>1473</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1468</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -25208,10 +25068,10 @@
         <v>264</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1469</v>
+        <v>1475</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1470</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -25219,10 +25079,10 @@
         <v>397</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1471</v>
+        <v>1477</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1472</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -25230,10 +25090,10 @@
         <v>396</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1474</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -25241,10 +25101,10 @@
         <v>66</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1475</v>
+        <v>1481</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1476</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -25252,10 +25112,10 @@
         <v>400</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1477</v>
+        <v>1483</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1478</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -25263,10 +25123,10 @@
         <v>402</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1479</v>
+        <v>1485</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1480</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -25274,10 +25134,10 @@
         <v>404</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1481</v>
+        <v>1487</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1482</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -25285,10 +25145,10 @@
         <v>405</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1483</v>
+        <v>1489</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1484</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -25296,10 +25156,10 @@
         <v>409</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1485</v>
+        <v>1491</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1486</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -25307,10 +25167,10 @@
         <v>414</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1487</v>
+        <v>1493</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1488</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -25318,10 +25178,10 @@
         <v>416</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1489</v>
+        <v>1495</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1490</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -25329,10 +25189,10 @@
         <v>417</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1491</v>
+        <v>1497</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1492</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -25340,10 +25200,10 @@
         <v>419</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1493</v>
+        <v>1499</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1494</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -25351,164 +25211,164 @@
         <v>426</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1495</v>
+        <v>1501</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1496</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>428</v>
       </c>
-      <c r="B292" s="3" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>1618</v>
+      <c r="B292" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1504</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>430</v>
       </c>
-      <c r="B293" s="3" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>1619</v>
+      <c r="B293" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1506</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>432</v>
       </c>
-      <c r="B294" s="3" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>1620</v>
+      <c r="B294" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>434</v>
       </c>
-      <c r="B295" s="3" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>1621</v>
+      <c r="B295" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1510</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>439</v>
       </c>
-      <c r="B296" s="3" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>1622</v>
+      <c r="B296" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1512</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>442</v>
       </c>
-      <c r="B297" s="3" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>1503</v>
+      <c r="B297" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>448</v>
       </c>
-      <c r="B298" s="3" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>1614</v>
+      <c r="B298" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>443</v>
       </c>
-      <c r="B299" s="3" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>1613</v>
+      <c r="B299" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1518</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>453</v>
       </c>
-      <c r="B300" s="3" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>1617</v>
+      <c r="B300" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>456</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>1611</v>
+        <v>455</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>1624</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>1624</v>
+        <v>457</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>1623</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>1608</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>1616</v>
+        <v>454</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1526</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>455</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>1612</v>
+        <v>456</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1528</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>447</v>
       </c>
-      <c r="B305" s="3" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>1615</v>
+      <c r="B305" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1530</v>
       </c>
     </row>
   </sheetData>
@@ -25523,10 +25383,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25536,365 +25396,365 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1504</v>
+        <v>1531</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1505</v>
+        <v>1532</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1506</v>
+        <v>1533</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1507</v>
+        <v>1534</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1508</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1509</v>
+        <v>1536</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1510</v>
+        <v>1537</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1511</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1512</v>
+        <v>1539</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1513</v>
+        <v>1540</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1514</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1515</v>
+        <v>1542</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1516</v>
+        <v>1543</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1517</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1518</v>
+        <v>1545</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1519</v>
+        <v>1546</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1520</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1521</v>
+        <v>1548</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1522</v>
+        <v>1549</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1523</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1524</v>
+        <v>1551</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1525</v>
+        <v>1552</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1526</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1527</v>
+        <v>1554</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1528</v>
+        <v>1555</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1529</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1530</v>
+        <v>1557</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1531</v>
+        <v>1558</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1532</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1533</v>
+        <v>1560</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1534</v>
+        <v>1561</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1535</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1536</v>
+        <v>1563</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1537</v>
+        <v>1564</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1538</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1539</v>
+        <v>1566</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1540</v>
+        <v>1567</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1541</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1542</v>
+        <v>1569</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1543</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1544</v>
+        <v>1571</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1545</v>
+        <v>1572</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1546</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1547</v>
+        <v>1574</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1548</v>
+        <v>1575</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1549</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1550</v>
+        <v>1577</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1551</v>
+        <v>1578</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1552</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1553</v>
+        <v>1580</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1554</v>
+        <v>1581</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1555</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>1556</v>
+        <v>1583</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1557</v>
+        <v>1584</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1558</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1559</v>
+        <v>1586</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1560</v>
+        <v>1587</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1561</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>1562</v>
+        <v>1589</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1563</v>
+        <v>1590</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1564</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1565</v>
+        <v>1592</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1566</v>
+        <v>1593</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1567</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1568</v>
+        <v>1595</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1569</v>
+        <v>1596</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1570</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>1571</v>
+        <v>1598</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1572</v>
+        <v>1599</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1573</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1574</v>
+        <v>1601</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1575</v>
+        <v>1602</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1576</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>1577</v>
+        <v>1604</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1578</v>
+        <v>1605</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1579</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1580</v>
+        <v>1607</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1581</v>
+        <v>1608</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1582</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>1583</v>
+        <v>1610</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1584</v>
+        <v>1611</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1585</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>1586</v>
+        <v>1613</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1587</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>1588</v>
+        <v>1615</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1589</v>
+        <v>1616</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1590</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>1591</v>
+        <v>1618</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1592</v>
+        <v>1619</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1593</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>1594</v>
+        <v>1621</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1595</v>
+        <v>1622</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1596</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -25902,10 +25762,10 @@
         <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -25913,10 +25773,10 @@
         <v>141</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -25924,10 +25784,10 @@
         <v>193</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -25935,10 +25795,10 @@
         <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -25946,10 +25806,10 @@
         <v>172</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -25957,10 +25817,10 @@
         <v>305</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -25968,10 +25828,10 @@
         <v>235</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -25979,54 +25839,71 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>1597</v>
+        <v>1624</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1598</v>
+        <v>1625</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1599</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>1600</v>
+        <v>1627</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1601</v>
+        <v>1628</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1602</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1603</v>
+        <v>1630</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1603</v>
+        <v>1630</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1603</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
@@ -5347,9 +5347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S291"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I283" sqref="I283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16511,7 +16511,7 @@
         <v>20</v>
       </c>
       <c r="I282" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" s="1" t="b">
         <v>0</v>
@@ -22008,7 +22008,7 @@
   <dimension ref="A1:C305"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+      <selection activeCell="D291" sqref="D291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25218,13 +25218,13 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+      <c r="A292" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="1" t="s">
         <v>1504</v>
       </c>
     </row>
@@ -25385,7 +25385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
@@ -5347,9 +5347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F291" sqref="F291"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I283" sqref="I283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16555,7 +16555,7 @@
         <v>20</v>
       </c>
       <c r="I283" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283" s="1" t="b">
         <v>0</v>
@@ -22051,7 +22051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+    <sheetView topLeftCell="A275" workbookViewId="0">
       <selection activeCell="C306" sqref="C306"/>
     </sheetView>
   </sheetViews>
@@ -25432,7 +25432,7 @@
     <hyperlink ref="B282" r:id="rId1" tooltip="Shion (Alter)" display="https://anothereden.miraheze.org/wiki/Shion_(Alter)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="특성번역" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'캐릭터'!$A$1:$Q$294</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'캐릭터'!$A$1:$Q$299</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'보너스'!$A$1:$D$87</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -27,7 +27,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -70,6 +70,22 @@
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -475,11 +491,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q294"/>
+  <dimension ref="A1:Q303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P201" sqref="P201"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D296" sqref="D296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -6545,7 +6561,7 @@
       </c>
       <c r="Q113" s="1" t="inlineStr">
         <is>
-          <t>현현</t>
+          <t>진현현</t>
         </is>
       </c>
     </row>
@@ -8653,7 +8669,7 @@
       </c>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>152,153</t>
+          <t>152,153,294</t>
         </is>
       </c>
     </row>
@@ -8701,8 +8717,10 @@
       <c r="K153" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="L153" s="2" t="n">
-        <v>153</v>
+      <c r="L153" s="2" t="inlineStr">
+        <is>
+          <t>153,294</t>
+        </is>
       </c>
       <c r="M153" s="1" t="inlineStr">
         <is>
@@ -15954,8 +15972,451 @@
         </is>
       </c>
     </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" s="1" t="inlineStr">
+        <is>
+          <t>월화의 영애 히스메나</t>
+        </is>
+      </c>
+      <c r="C295" s="1" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="D295" s="2" t="inlineStr">
+        <is>
+          <t>101010141</t>
+        </is>
+      </c>
+      <c r="E295" s="1" t="inlineStr">
+        <is>
+          <t>물</t>
+        </is>
+      </c>
+      <c r="F295" s="1" t="inlineStr">
+        <is>
+          <t>검</t>
+        </is>
+      </c>
+      <c r="G295" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H295" s="1" t="inlineStr">
+        <is>
+          <t>명</t>
+        </is>
+      </c>
+      <c r="I295" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J295" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L295" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M295" s="1" t="inlineStr">
+        <is>
+          <t>프로일라인</t>
+        </is>
+      </c>
+      <c r="N295" s="1" t="inlineStr">
+        <is>
+          <t>경전록</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" s="1" t="inlineStr">
+        <is>
+          <t>로이드</t>
+        </is>
+      </c>
+      <c r="C296" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D296" s="2" t="inlineStr">
+        <is>
+          <t>101450011</t>
+        </is>
+      </c>
+      <c r="E296" s="1" t="inlineStr">
+        <is>
+          <t>불</t>
+        </is>
+      </c>
+      <c r="F296" s="1" t="inlineStr">
+        <is>
+          <t>도</t>
+        </is>
+      </c>
+      <c r="G296" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H296" s="1" t="inlineStr">
+        <is>
+          <t>천</t>
+        </is>
+      </c>
+      <c r="I296" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J296" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L296" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" s="1" t="inlineStr">
+        <is>
+          <t>로이드</t>
+        </is>
+      </c>
+      <c r="C297" s="1" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="D297" s="2" t="inlineStr">
+        <is>
+          <t>101450011</t>
+        </is>
+      </c>
+      <c r="E297" s="1" t="inlineStr">
+        <is>
+          <t>불</t>
+        </is>
+      </c>
+      <c r="F297" s="1" t="inlineStr">
+        <is>
+          <t>도</t>
+        </is>
+      </c>
+      <c r="G297" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H297" s="1" t="inlineStr">
+        <is>
+          <t>천</t>
+        </is>
+      </c>
+      <c r="I297" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J297" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K297" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" s="1" t="inlineStr">
+        <is>
+          <t>콜레트</t>
+        </is>
+      </c>
+      <c r="C298" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D298" s="2" t="inlineStr">
+        <is>
+          <t>101450021</t>
+        </is>
+      </c>
+      <c r="E298" s="1" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="F298" s="1" t="inlineStr">
+        <is>
+          <t>지팡이</t>
+        </is>
+      </c>
+      <c r="G298" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H298" s="1" t="inlineStr">
+        <is>
+          <t>천</t>
+        </is>
+      </c>
+      <c r="I298" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J298" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L298" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" s="1" t="inlineStr">
+        <is>
+          <t>콜레트</t>
+        </is>
+      </c>
+      <c r="C299" s="1" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="D299" s="2" t="inlineStr">
+        <is>
+          <t>101450021</t>
+        </is>
+      </c>
+      <c r="E299" s="1" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="F299" s="1" t="inlineStr">
+        <is>
+          <t>지팡이</t>
+        </is>
+      </c>
+      <c r="G299" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H299" s="1" t="inlineStr">
+        <is>
+          <t>천</t>
+        </is>
+      </c>
+      <c r="I299" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J299" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K299" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" s="1" t="inlineStr">
+        <is>
+          <t>알펜</t>
+        </is>
+      </c>
+      <c r="C300" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D300" s="2" t="inlineStr">
+        <is>
+          <t>101450031</t>
+        </is>
+      </c>
+      <c r="E300" s="1" t="inlineStr">
+        <is>
+          <t>불</t>
+        </is>
+      </c>
+      <c r="F300" s="1" t="inlineStr">
+        <is>
+          <t>검</t>
+        </is>
+      </c>
+      <c r="G300" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H300" s="1" t="inlineStr">
+        <is>
+          <t>명</t>
+        </is>
+      </c>
+      <c r="I300" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J300" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L300" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" s="1" t="inlineStr">
+        <is>
+          <t>알펜</t>
+        </is>
+      </c>
+      <c r="C301" s="1" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="D301" s="2" t="inlineStr">
+        <is>
+          <t>101450031</t>
+        </is>
+      </c>
+      <c r="E301" s="1" t="inlineStr">
+        <is>
+          <t>불</t>
+        </is>
+      </c>
+      <c r="F301" s="1" t="inlineStr">
+        <is>
+          <t>검</t>
+        </is>
+      </c>
+      <c r="G301" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H301" s="1" t="inlineStr">
+        <is>
+          <t>명</t>
+        </is>
+      </c>
+      <c r="I301" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J301" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K301" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" s="1" t="inlineStr">
+        <is>
+          <t>시온 (테일즈)</t>
+        </is>
+      </c>
+      <c r="C302" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D302" s="2" t="inlineStr">
+        <is>
+          <t>101450041</t>
+        </is>
+      </c>
+      <c r="E302" s="1" t="inlineStr">
+        <is>
+          <t>불</t>
+        </is>
+      </c>
+      <c r="F302" s="1" t="inlineStr">
+        <is>
+          <t>활</t>
+        </is>
+      </c>
+      <c r="G302" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H302" s="1" t="inlineStr">
+        <is>
+          <t>명</t>
+        </is>
+      </c>
+      <c r="I302" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J302" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L302" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" s="1" t="inlineStr">
+        <is>
+          <t>시온 (테일즈)</t>
+        </is>
+      </c>
+      <c r="C303" s="1" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="D303" s="2" t="inlineStr">
+        <is>
+          <t>101450041</t>
+        </is>
+      </c>
+      <c r="E303" s="1" t="inlineStr">
+        <is>
+          <t>불</t>
+        </is>
+      </c>
+      <c r="F303" s="1" t="inlineStr">
+        <is>
+          <t>활</t>
+        </is>
+      </c>
+      <c r="G303" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H303" s="1" t="inlineStr">
+        <is>
+          <t>명</t>
+        </is>
+      </c>
+      <c r="I303" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J303" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K303" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q294"/>
+  <autoFilter ref="A1:Q299"/>
   <hyperlinks>
     <hyperlink ref="D270" tooltip="File:101000301 rank5 command.png" display="https://anothereden.miraheze.org/wiki/File:101000301_rank5_command.png" r:id="rId1"/>
   </hyperlinks>
@@ -16157,10 +16618,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E159"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -16170,8 +16631,8 @@
     <col width="25" customWidth="1" style="1" min="4" max="4"/>
     <col width="25" customWidth="1" style="2" min="5" max="5"/>
     <col width="25" customWidth="1" style="1" min="6" max="19"/>
-    <col width="9" customWidth="1" style="1" min="20" max="35"/>
-    <col width="9" customWidth="1" style="1" min="36" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="20" max="37"/>
+    <col width="9" customWidth="1" style="1" min="38" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19149,6 +19610,106 @@
       <c r="E159" s="2" t="inlineStr">
         <is>
           <t>101060161</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>월화의 영애 히스메나</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C160" s="1" t="inlineStr">
+        <is>
+          <t>검,IDA스쿨</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>101010141</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>로이드</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C161" s="1" t="inlineStr">
+        <is>
+          <t>도</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>101450011</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>콜레트</t>
+        </is>
+      </c>
+      <c r="B162" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C162" s="1" t="inlineStr">
+        <is>
+          <t>지팡이</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>101450021</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>알펜</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C163" s="1" t="inlineStr">
+        <is>
+          <t>가면,검,기억상실</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="inlineStr">
+        <is>
+          <t>101450031</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>시온 (테일즈)</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C164" s="1" t="inlineStr">
+        <is>
+          <t>활,대식가,총</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>101450041</t>
         </is>
       </c>
     </row>
@@ -19169,7 +19730,7 @@
   </sheetPr>
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
@@ -22495,7 +23056,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -23178,10 +23739,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C308"/>
+  <dimension ref="A1:C314"/>
   <sheetViews>
-    <sheetView topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="C308" sqref="C308"/>
+    <sheetView topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="C311" sqref="C311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -28425,9 +28986,113 @@
         </is>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>프로일라인</t>
+        </is>
+      </c>
+      <c r="B309" s="1" t="inlineStr">
+        <is>
+          <t>Fraulein</t>
+        </is>
+      </c>
+      <c r="C309" s="1" t="inlineStr">
+        <is>
+          <t>フロイライン</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>월화의 영애 히스메나</t>
+        </is>
+      </c>
+      <c r="B310" s="1" t="inlineStr">
+        <is>
+          <t>Hismena (Alter)</t>
+        </is>
+      </c>
+      <c r="C310" s="1" t="inlineStr">
+        <is>
+          <t>月華の令嬢 ヒスメナ</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>로이드</t>
+        </is>
+      </c>
+      <c r="B311" s="1" t="inlineStr">
+        <is>
+          <t>Lloyd</t>
+        </is>
+      </c>
+      <c r="C311" s="1" t="inlineStr">
+        <is>
+          <t>ロイド</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>콜레트</t>
+        </is>
+      </c>
+      <c r="B312" s="1" t="inlineStr">
+        <is>
+          <t>Colette</t>
+        </is>
+      </c>
+      <c r="C312" s="1" t="inlineStr">
+        <is>
+          <t>コレット</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>알펜</t>
+        </is>
+      </c>
+      <c r="B313" s="1" t="inlineStr">
+        <is>
+          <t>Alphen</t>
+        </is>
+      </c>
+      <c r="C313" s="1" t="inlineStr">
+        <is>
+          <t>アルフェン</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>시온 (테일즈)</t>
+        </is>
+      </c>
+      <c r="B314" s="1" t="inlineStr">
+        <is>
+          <t>Shionne (Tales)</t>
+        </is>
+      </c>
+      <c r="C314" s="1" t="inlineStr">
+        <is>
+          <t>シオン (テイルズ)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B282" tooltip="Shion (Alter)" display="https://anothereden.miraheze.org/wiki/Shion_(Alter)" r:id="rId1"/>
+    <hyperlink ref="C313" display="https://altema.jp/anaden/chara/984" r:id="rId2"/>
+    <hyperlink ref="C314" display="https://altema.jp/anaden/chara/985" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
@@ -4668,12 +4668,6 @@
     <t>アンノーンローズ</t>
   </si>
   <si>
-    <t>Gotoku Cat</t>
-  </si>
-  <si>
-    <t>五徳猫</t>
-  </si>
-  <si>
     <t>Tsukiha (Alter)</t>
   </si>
   <si>
@@ -5104,13 +5098,42 @@
   </si>
   <si>
     <t>竜</t>
+  </si>
+  <si>
+    <t>Fireside Cat</t>
+  </si>
+  <si>
+    <r>
+      <t>五</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>徳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>猫</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5153,6 +5176,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5497,9 +5535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I285" sqref="I285"/>
+      <selection pane="bottomLeft" activeCell="P296" sqref="P296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22678,7 +22716,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22686,8 +22724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C314"/>
   <sheetViews>
-    <sheetView topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="C311" sqref="C311"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="C294" sqref="C294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25930,14 +25968,14 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+      <c r="A295" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B295" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C295" t="s">
-        <v>1546</v>
+      <c r="B295" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -25945,10 +25983,10 @@
         <v>446</v>
       </c>
       <c r="B296" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="C296" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -25956,10 +25994,10 @@
         <v>449</v>
       </c>
       <c r="B297" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="C297" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -25967,10 +26005,10 @@
         <v>455</v>
       </c>
       <c r="B298" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="C298" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -25978,10 +26016,10 @@
         <v>450</v>
       </c>
       <c r="B299" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="C299" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -25989,10 +26027,10 @@
         <v>486</v>
       </c>
       <c r="B300" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="C300" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -26000,10 +26038,10 @@
         <v>488</v>
       </c>
       <c r="B301" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="C301" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -26011,10 +26049,10 @@
         <v>490</v>
       </c>
       <c r="B302" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C302" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -26022,10 +26060,10 @@
         <v>487</v>
       </c>
       <c r="B303" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="C303" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -26033,10 +26071,10 @@
         <v>489</v>
       </c>
       <c r="B304" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C304" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -26044,10 +26082,10 @@
         <v>454</v>
       </c>
       <c r="B305" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="C305" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -26055,10 +26093,10 @@
         <v>458</v>
       </c>
       <c r="B306" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C306" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -26066,10 +26104,10 @@
         <v>460</v>
       </c>
       <c r="B307" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="C307" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -26077,10 +26115,10 @@
         <v>462</v>
       </c>
       <c r="B308" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -26088,10 +26126,10 @@
         <v>466</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -26099,10 +26137,10 @@
         <v>463</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -26110,10 +26148,10 @@
         <v>467</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -26121,10 +26159,10 @@
         <v>471</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -26132,10 +26170,10 @@
         <v>475</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -26143,10 +26181,10 @@
         <v>479</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
   </sheetData>
@@ -26187,10 +26225,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>923</v>
@@ -26198,343 +26236,343 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1587</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1590</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1593</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1596</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1599</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1602</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>1605</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1608</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1611</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1613</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1614</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>1617</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>1620</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1343</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>1625</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1627</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>1628</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>1631</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>1634</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>1637</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>1640</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>1643</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1645</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>1646</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>1649</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>1651</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>1652</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>1655</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>1658</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>1661</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>1664</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>733</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>1669</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1671</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>1672</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>1675</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -26627,57 +26665,57 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>1678</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>1681</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>1685</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>1688</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6124" uniqueCount="1708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6124" uniqueCount="1709">
   <si>
     <t>아이디</t>
   </si>
@@ -5200,6 +5200,10 @@
   </si>
   <si>
     <t>현현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나다라 화산,얼음의 바다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5602,8 +5606,8 @@
   <dimension ref="A1:S305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P102" sqref="P102"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N188" sqref="N188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13175,7 +13179,7 @@
         <v>313</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>60</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="188" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
@@ -5660,9 +5660,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S308"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N309" sqref="N309"/>
+      <selection pane="bottomLeft" activeCell="J307" sqref="J307:J308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17799,7 +17799,7 @@
         <v>0</v>
       </c>
       <c r="J307" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L307" s="2" t="s">
         <v>496</v>
@@ -17834,7 +17834,7 @@
         <v>0</v>
       </c>
       <c r="J308" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K308" s="2" t="s">
         <v>497</v>
@@ -18021,7 +18021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="1727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4174" uniqueCount="1732">
   <si>
     <t>아이디</t>
   </si>
@@ -1746,9 +1746,6 @@
     <t>큐카</t>
   </si>
   <si>
-    <t>도끼,가면</t>
-  </si>
-  <si>
     <t>야즈키</t>
   </si>
   <si>
@@ -1860,9 +1857,6 @@
     <t>용은 ES 획득 시</t>
   </si>
   <si>
-    <t>활,동방,요리</t>
-  </si>
-  <si>
     <t>활,IDA스쿨</t>
   </si>
   <si>
@@ -1963,12 +1957,6 @@
   </si>
   <si>
     <t>망치,동방</t>
-  </si>
-  <si>
-    <t>망치,성직자</t>
-  </si>
-  <si>
-    <t>망치,연옥계</t>
   </si>
   <si>
     <t>엘프는 5성 개방 후</t>
@@ -5217,10 +5205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지팡이,총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>식인 늪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5244,6 +5228,44 @@
   <si>
     <t>안경은 AS 획득 시에만</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지팡이,총,부천수 애호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망치,연옥계,부천수 애호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망치,성직자,부천수 애호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도끼,가면,부천수 애호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도끼,부천수 애호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도,동방,애묘가,부천수 애호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활,동방,요리,부천수 애호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부천수 애호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛党</t>
+  </si>
+  <si>
+    <t>Spicy Lover</t>
   </si>
 </sst>
 </file>
@@ -5660,9 +5682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J307" sqref="J307:J308"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I292" sqref="I292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5980,7 +6002,7 @@
         <v>28</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -17228,7 +17250,7 @@
         <v>20</v>
       </c>
       <c r="I292" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J292" s="1" t="b">
         <v>0</v>
@@ -17781,7 +17803,7 @@
         <v>4.5</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>93</v>
@@ -17816,7 +17838,7 @@
         <v>22</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>93</v>
@@ -17843,7 +17865,7 @@
         <v>498</v>
       </c>
       <c r="N308" s="1" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
     </row>
   </sheetData>
@@ -18021,8 +18043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18751,7 +18773,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>552</v>
+        <v>1727</v>
       </c>
       <c r="E50" s="1">
         <v>101020101</v>
@@ -18880,7 +18902,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>199</v>
+        <v>1726</v>
       </c>
       <c r="E59" s="1">
         <v>101030041</v>
@@ -18894,7 +18916,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>571</v>
+        <v>1725</v>
       </c>
       <c r="E60" s="1">
         <v>101030051</v>
@@ -18902,13 +18924,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="B61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="E61" s="1">
         <v>101030061</v>
@@ -18922,10 +18944,10 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="E62" s="1">
         <v>101030071</v>
@@ -18939,10 +18961,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E63" s="1">
         <v>101030071</v>
@@ -18950,13 +18972,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="B64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="E64" s="1">
         <v>101030081</v>
@@ -18970,7 +18992,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>540</v>
@@ -18987,7 +19009,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E66" s="1">
         <v>101030101</v>
@@ -19015,7 +19037,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E68" s="1">
         <v>101030121</v>
@@ -19029,7 +19051,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E69" s="1">
         <v>101030131</v>
@@ -19043,7 +19065,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E70" s="1">
         <v>101030141</v>
@@ -19057,7 +19079,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E71" s="1">
         <v>101030151</v>
@@ -19071,7 +19093,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E72" s="1">
         <v>101030161</v>
@@ -19093,13 +19115,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="B74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="E74" s="1">
         <v>101040011</v>
@@ -19113,7 +19135,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E75" s="1">
         <v>101040021</v>
@@ -19127,7 +19149,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>564</v>
@@ -19144,7 +19166,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>564</v>
@@ -19155,13 +19177,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="B78" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="E78" s="1">
         <v>101040041</v>
@@ -19175,7 +19197,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E79" s="1">
         <v>101040051</v>
@@ -19189,7 +19211,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E80" s="1">
         <v>101040071</v>
@@ -19203,7 +19225,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E81" s="1">
         <v>101040081</v>
@@ -19217,7 +19239,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>540</v>
@@ -19234,7 +19256,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E83" s="1">
         <v>101040101</v>
@@ -19248,7 +19270,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E84" s="1">
         <v>101040111</v>
@@ -19262,7 +19284,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E85" s="1">
         <v>101040121</v>
@@ -19276,7 +19298,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E86" s="1">
         <v>101040131</v>
@@ -19290,7 +19312,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E87" s="1">
         <v>101040141</v>
@@ -19304,7 +19326,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E88" s="1">
         <v>101040161</v>
@@ -19318,7 +19340,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E89" s="1">
         <v>101040171</v>
@@ -19332,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E90" s="1">
         <v>101050021</v>
@@ -19340,13 +19362,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E91" s="1">
         <v>101050031</v>
@@ -19354,13 +19376,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="B92" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>603</v>
       </c>
       <c r="E92" s="1">
         <v>101050041</v>
@@ -19368,13 +19390,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B93" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="B93" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>605</v>
       </c>
       <c r="E93" s="1">
         <v>101050051</v>
@@ -19396,13 +19418,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B95" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E95" s="1">
         <v>101050071</v>
@@ -19416,10 +19438,10 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="E96" s="1">
         <v>101050081</v>
@@ -19433,7 +19455,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>609</v>
+        <v>1728</v>
       </c>
       <c r="E97" s="1">
         <v>101050091</v>
@@ -19447,7 +19469,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E98" s="1">
         <v>101050101</v>
@@ -19475,7 +19497,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E100" s="1">
         <v>101050121</v>
@@ -19489,7 +19511,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E101" s="1">
         <v>101050131</v>
@@ -19503,7 +19525,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E102" s="1">
         <v>101050141</v>
@@ -19517,7 +19539,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E103" s="1">
         <v>101050151</v>
@@ -19531,7 +19553,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E104" s="1">
         <v>101050161</v>
@@ -19539,13 +19561,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B105" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E105" s="1">
         <v>101060021</v>
@@ -19559,10 +19581,10 @@
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E106" s="1">
         <v>101060031</v>
@@ -19570,13 +19592,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B107" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E107" s="1">
         <v>101060051</v>
@@ -19584,13 +19606,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B108" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E108" s="1">
         <v>101060061</v>
@@ -19598,13 +19620,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B109" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E109" s="1">
         <v>101060071</v>
@@ -19618,7 +19640,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E110" s="1">
         <v>101060081</v>
@@ -19632,7 +19654,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E111" s="1">
         <v>101060091</v>
@@ -19646,10 +19668,10 @@
         <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="E112" s="1">
         <v>101060101</v>
@@ -19663,7 +19685,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E113" s="1">
         <v>101060111</v>
@@ -19677,7 +19699,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E114" s="1">
         <v>101060121</v>
@@ -19691,10 +19713,10 @@
         <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E115" s="1">
         <v>101060131</v>
@@ -19708,7 +19730,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E116" s="1">
         <v>101060141</v>
@@ -19722,7 +19744,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E117" s="1">
         <v>101070011</v>
@@ -19730,13 +19752,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B118" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E118" s="1">
         <v>101070021</v>
@@ -19750,7 +19772,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E119" s="1">
         <v>101070031</v>
@@ -19764,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E120" s="1">
         <v>101070051</v>
@@ -19778,10 +19800,10 @@
         <v>0</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E121" s="1">
         <v>101070061</v>
@@ -19795,10 +19817,10 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E122" s="1">
         <v>101070061</v>
@@ -19806,13 +19828,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B123" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E123" s="1">
         <v>101070071</v>
@@ -19826,7 +19848,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E124" s="1">
         <v>101070081</v>
@@ -19840,7 +19862,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E125" s="1">
         <v>101070091</v>
@@ -19854,7 +19876,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>644</v>
+        <v>1724</v>
       </c>
       <c r="E126" s="1">
         <v>101070101</v>
@@ -19868,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>645</v>
+        <v>1723</v>
       </c>
       <c r="E127" s="1">
         <v>101070111</v>
@@ -19896,7 +19918,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E129" s="1">
         <v>101110041</v>
@@ -19910,10 +19932,10 @@
         <v>0</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E130" s="1">
         <v>101140021</v>
@@ -19927,7 +19949,7 @@
         <v>0</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E131" s="1">
         <v>101400011</v>
@@ -19941,7 +19963,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E132" s="1">
         <v>101400071</v>
@@ -19955,7 +19977,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E133" s="1">
         <v>101410011</v>
@@ -19969,7 +19991,7 @@
         <v>0</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E134" s="1">
         <v>101420011</v>
@@ -20081,7 +20103,7 @@
         <v>0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E142" s="1">
         <v>101800041</v>
@@ -20095,7 +20117,7 @@
         <v>0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E143" s="1">
         <v>101800052</v>
@@ -20103,13 +20125,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B144" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E144" s="1">
         <v>101800063</v>
@@ -20123,7 +20145,7 @@
         <v>0</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E145" s="1">
         <v>101800111</v>
@@ -20137,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E146" s="1">
         <v>101900011</v>
@@ -20151,7 +20173,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E147" s="1">
         <v>101910011</v>
@@ -20165,7 +20187,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E148" s="1">
         <v>101920011</v>
@@ -20179,7 +20201,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E149" s="1">
         <v>101960011</v>
@@ -20193,7 +20215,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E150" s="1">
         <v>101970011</v>
@@ -20221,7 +20243,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E152" s="1">
         <v>101000301</v>
@@ -20235,7 +20257,7 @@
         <v>0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>418</v>
@@ -20263,7 +20285,7 @@
         <v>0</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>432</v>
@@ -20277,7 +20299,7 @@
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E156" s="1">
         <v>101050081</v>
@@ -20291,7 +20313,7 @@
         <v>0</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>452</v>
@@ -20305,7 +20327,7 @@
         <v>0</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>456</v>
@@ -20319,7 +20341,7 @@
         <v>0</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>461</v>
@@ -20333,7 +20355,7 @@
         <v>0</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>469</v>
@@ -20375,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>481</v>
@@ -20389,7 +20411,7 @@
         <v>0</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>485</v>
@@ -20403,7 +20425,7 @@
         <v>1</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E165" s="1">
         <v>101000031</v>
@@ -20417,7 +20439,7 @@
         <v>0</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>491</v>
@@ -20431,10 +20453,10 @@
         <v>0</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
   </sheetData>
@@ -20465,13 +20487,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -20479,27 +20501,27 @@
         <v>360</v>
       </c>
       <c r="B2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -20507,13 +20529,13 @@
         <v>528</v>
       </c>
       <c r="B4" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C4" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -20521,27 +20543,27 @@
         <v>392</v>
       </c>
       <c r="B5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C5" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D5" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B6" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C6" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -20549,13 +20571,13 @@
         <v>406</v>
       </c>
       <c r="B7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -20563,13 +20585,13 @@
         <v>516</v>
       </c>
       <c r="B8" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C8" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D8" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -20577,13 +20599,13 @@
         <v>250</v>
       </c>
       <c r="B9" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C9" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D9" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -20591,13 +20613,13 @@
         <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C10" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D10" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -20605,13 +20627,13 @@
         <v>404</v>
       </c>
       <c r="B11" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C11" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D11" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -20619,13 +20641,13 @@
         <v>212</v>
       </c>
       <c r="B12" t="s">
+        <v>672</v>
+      </c>
+      <c r="C12" t="s">
         <v>676</v>
       </c>
-      <c r="C12" t="s">
-        <v>680</v>
-      </c>
       <c r="D12" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -20633,27 +20655,27 @@
         <v>69</v>
       </c>
       <c r="B13" t="s">
+        <v>672</v>
+      </c>
+      <c r="C13" t="s">
         <v>676</v>
       </c>
-      <c r="C13" t="s">
-        <v>680</v>
-      </c>
       <c r="D13" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B14" t="s">
+        <v>672</v>
+      </c>
+      <c r="C14" t="s">
         <v>676</v>
       </c>
-      <c r="C14" t="s">
-        <v>680</v>
-      </c>
       <c r="D14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -20661,13 +20683,13 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
+        <v>672</v>
+      </c>
+      <c r="C15" t="s">
         <v>676</v>
       </c>
-      <c r="C15" t="s">
-        <v>680</v>
-      </c>
       <c r="D15" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -20675,13 +20697,13 @@
         <v>537</v>
       </c>
       <c r="B16" t="s">
+        <v>672</v>
+      </c>
+      <c r="C16" t="s">
         <v>676</v>
       </c>
-      <c r="C16" t="s">
-        <v>680</v>
-      </c>
       <c r="D16" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -20689,13 +20711,13 @@
         <v>566</v>
       </c>
       <c r="B17" t="s">
+        <v>672</v>
+      </c>
+      <c r="C17" t="s">
         <v>676</v>
       </c>
-      <c r="C17" t="s">
-        <v>680</v>
-      </c>
       <c r="D17" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -20703,27 +20725,27 @@
         <v>401</v>
       </c>
       <c r="B18" t="s">
+        <v>672</v>
+      </c>
+      <c r="C18" t="s">
         <v>676</v>
       </c>
-      <c r="C18" t="s">
-        <v>680</v>
-      </c>
       <c r="D18" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B19" t="s">
+        <v>672</v>
+      </c>
+      <c r="C19" t="s">
         <v>676</v>
       </c>
-      <c r="C19" t="s">
-        <v>680</v>
-      </c>
       <c r="D19" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -20731,13 +20753,13 @@
         <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C20" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D20" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -20745,13 +20767,13 @@
         <v>287</v>
       </c>
       <c r="B21" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C21" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D21" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -20759,13 +20781,13 @@
         <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C22" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D22" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -20773,13 +20795,13 @@
         <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C23" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D23" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -20787,13 +20809,13 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C24" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D24" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -20801,13 +20823,13 @@
         <v>246</v>
       </c>
       <c r="B25" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C25" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D25" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -20815,13 +20837,13 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C26" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D26" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -20829,13 +20851,13 @@
         <v>248</v>
       </c>
       <c r="B27" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C27" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D27" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -20843,13 +20865,13 @@
         <v>320</v>
       </c>
       <c r="B28" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C28" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D28" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -20857,13 +20879,13 @@
         <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C29" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D29" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -20871,13 +20893,13 @@
         <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C30" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D30" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -20885,27 +20907,27 @@
         <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C31" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D31" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B32" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C32" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D32" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -20913,13 +20935,13 @@
         <v>435</v>
       </c>
       <c r="B33" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C33" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D33" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -20927,13 +20949,13 @@
         <v>159</v>
       </c>
       <c r="B34" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C34" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D34" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -20941,13 +20963,13 @@
         <v>248</v>
       </c>
       <c r="B35" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C35" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D35" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -20955,13 +20977,13 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C36" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D36" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -20969,13 +20991,13 @@
         <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C37" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D37" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -20983,13 +21005,13 @@
         <v>246</v>
       </c>
       <c r="B38" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C38" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D38" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -20997,13 +21019,13 @@
         <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C39" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D39" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -21011,13 +21033,13 @@
         <v>312</v>
       </c>
       <c r="B40" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C40" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D40" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -21025,13 +21047,13 @@
         <v>249</v>
       </c>
       <c r="B41" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C41" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D41" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -21039,13 +21061,13 @@
         <v>198</v>
       </c>
       <c r="B42" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C42" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D42" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -21053,13 +21075,13 @@
         <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C43" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D43" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -21067,13 +21089,13 @@
         <v>267</v>
       </c>
       <c r="B44" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C44" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D44" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -21081,13 +21103,13 @@
         <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C45" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D45" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -21095,13 +21117,13 @@
         <v>198</v>
       </c>
       <c r="B46" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C46" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D46" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -21109,13 +21131,13 @@
         <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C47" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D47" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -21123,13 +21145,13 @@
         <v>346</v>
       </c>
       <c r="B48" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C48" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D48" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -21137,13 +21159,13 @@
         <v>422</v>
       </c>
       <c r="B49" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C49" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D49" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -21151,13 +21173,13 @@
         <v>249</v>
       </c>
       <c r="B50" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C50" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D50" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -21165,13 +21187,13 @@
         <v>137</v>
       </c>
       <c r="B51" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C51" t="s">
         <v>378</v>
       </c>
       <c r="D51" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -21179,13 +21201,13 @@
         <v>123</v>
       </c>
       <c r="B52" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C52" t="s">
         <v>378</v>
       </c>
       <c r="D52" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -21193,13 +21215,13 @@
         <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C53" t="s">
         <v>378</v>
       </c>
       <c r="D53" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -21207,13 +21229,13 @@
         <v>315</v>
       </c>
       <c r="B54" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C54" t="s">
         <v>378</v>
       </c>
       <c r="D54" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -21221,13 +21243,13 @@
         <v>390</v>
       </c>
       <c r="B55" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C55" t="s">
         <v>378</v>
       </c>
       <c r="D55" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -21235,13 +21257,13 @@
         <v>394</v>
       </c>
       <c r="B56" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C56" t="s">
         <v>378</v>
       </c>
       <c r="D56" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -21249,13 +21271,13 @@
         <v>376</v>
       </c>
       <c r="B57" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C57" t="s">
         <v>378</v>
       </c>
       <c r="D57" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -21266,7 +21288,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -21277,7 +21299,7 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -21288,7 +21310,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -21299,7 +21321,7 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -21315,24 +21337,24 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -21354,7 +21376,7 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -21365,7 +21387,7 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -21376,7 +21398,7 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -21387,7 +21409,7 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -21398,7 +21420,7 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -21431,7 +21453,7 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -21442,7 +21464,7 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -21475,7 +21497,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -21486,7 +21508,7 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -21508,7 +21530,7 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -21519,7 +21541,7 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -21530,7 +21552,7 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -21541,7 +21563,7 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -21552,7 +21574,7 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -21563,7 +21585,7 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -21574,7 +21596,7 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -21585,7 +21607,7 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -21618,7 +21640,7 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -21629,7 +21651,7 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -21640,7 +21662,7 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -21651,7 +21673,7 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -21662,7 +21684,7 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -21673,7 +21695,7 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -21709,16 +21731,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -21726,13 +21748,13 @@
         <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -21740,13 +21762,13 @@
         <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -21754,13 +21776,13 @@
         <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -21768,13 +21790,13 @@
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -21782,13 +21804,13 @@
         <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -21796,13 +21818,13 @@
         <v>210</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -21810,97 +21832,97 @@
         <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -21908,13 +21930,13 @@
         <v>100</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -21922,69 +21944,69 @@
         <v>378</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -21992,13 +22014,13 @@
         <v>90</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -22006,13 +22028,13 @@
         <v>136</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -22020,27 +22042,27 @@
         <v>281</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -22048,111 +22070,111 @@
         <v>116</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -22160,153 +22182,153 @@
         <v>400</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -22372,166 +22394,166 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -22662,13 +22684,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -22676,10 +22698,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -22687,10 +22709,10 @@
         <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -22698,10 +22720,10 @@
         <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -22709,10 +22731,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -22720,142 +22742,142 @@
         <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -22863,10 +22885,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -22874,10 +22896,10 @@
         <v>122</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -22885,10 +22907,10 @@
         <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -22896,10 +22918,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -22907,10 +22929,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -22918,10 +22940,10 @@
         <v>105</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -22929,10 +22951,10 @@
         <v>145</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -22940,10 +22962,10 @@
         <v>199</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -22951,10 +22973,10 @@
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -22962,10 +22984,10 @@
         <v>176</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -22973,10 +22995,10 @@
         <v>316</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -22984,10 +23006,10 @@
         <v>241</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -22995,10 +23017,10 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -23006,10 +23028,10 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -23017,32 +23039,32 @@
         <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -23050,10 +23072,10 @@
         <v>508</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -23061,21 +23083,21 @@
         <v>499</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -23083,10 +23105,10 @@
         <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -23111,13 +23133,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -23125,21 +23147,21 @@
         <v>304</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -23147,10 +23169,10 @@
         <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -23158,10 +23180,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -23169,10 +23191,10 @@
         <v>137</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -23180,10 +23202,10 @@
         <v>528</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -23191,10 +23213,10 @@
         <v>388</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -23202,10 +23224,10 @@
         <v>566</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -23213,10 +23235,10 @@
         <v>246</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -23224,10 +23246,10 @@
         <v>168</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -23235,10 +23257,10 @@
         <v>155</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -23246,10 +23268,10 @@
         <v>249</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -23257,10 +23279,10 @@
         <v>258</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -23268,10 +23290,10 @@
         <v>322</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -23279,10 +23301,10 @@
         <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -23290,10 +23312,10 @@
         <v>224</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -23301,10 +23323,10 @@
         <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -23312,10 +23334,10 @@
         <v>320</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -23323,10 +23345,10 @@
         <v>157</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -23334,10 +23356,10 @@
         <v>422</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -23345,10 +23367,10 @@
         <v>170</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -23356,10 +23378,10 @@
         <v>235</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -23367,10 +23389,10 @@
         <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -23378,10 +23400,10 @@
         <v>406</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -23389,10 +23411,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -23400,10 +23422,10 @@
         <v>340</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -23411,10 +23433,10 @@
         <v>329</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -23422,21 +23444,21 @@
         <v>298</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -23444,10 +23466,10 @@
         <v>569</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -23455,10 +23477,10 @@
         <v>36</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -23466,10 +23488,10 @@
         <v>112</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -23477,10 +23499,10 @@
         <v>278</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -23488,10 +23510,10 @@
         <v>148</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -23499,10 +23521,10 @@
         <v>334</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -23510,10 +23532,10 @@
         <v>51</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -23521,10 +23543,10 @@
         <v>568</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -23532,10 +23554,10 @@
         <v>389</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -23543,10 +23565,10 @@
         <v>104</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -23554,10 +23576,10 @@
         <v>516</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -23565,10 +23587,10 @@
         <v>76</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -23576,10 +23598,10 @@
         <v>132</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -23587,10 +23609,10 @@
         <v>110</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -23598,32 +23620,32 @@
         <v>103</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -23631,10 +23653,10 @@
         <v>191</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -23642,10 +23664,10 @@
         <v>375</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -23653,10 +23675,10 @@
         <v>293</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -23664,10 +23686,10 @@
         <v>403</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -23675,21 +23697,21 @@
         <v>447</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -23697,21 +23719,21 @@
         <v>244</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -23719,10 +23741,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -23730,10 +23752,10 @@
         <v>368</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -23741,10 +23763,10 @@
         <v>315</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -23752,10 +23774,10 @@
         <v>379</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -23763,21 +23785,21 @@
         <v>248</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -23785,10 +23807,10 @@
         <v>220</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -23796,10 +23818,10 @@
         <v>308</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -23807,10 +23829,10 @@
         <v>383</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -23818,10 +23840,10 @@
         <v>197</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -23829,21 +23851,21 @@
         <v>348</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -23851,21 +23873,21 @@
         <v>390</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -23873,10 +23895,10 @@
         <v>216</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -23884,10 +23906,10 @@
         <v>386</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -23895,10 +23917,10 @@
         <v>272</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -23906,10 +23928,10 @@
         <v>352</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -23917,10 +23939,10 @@
         <v>537</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -23928,10 +23950,10 @@
         <v>183</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -23939,10 +23961,10 @@
         <v>140</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -23950,10 +23972,10 @@
         <v>511</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -23961,10 +23983,10 @@
         <v>380</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -23972,10 +23994,10 @@
         <v>195</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -23983,10 +24005,10 @@
         <v>150</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -23994,10 +24016,10 @@
         <v>384</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -24005,10 +24027,10 @@
         <v>382</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -24016,10 +24038,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -24027,10 +24049,10 @@
         <v>228</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -24038,10 +24060,10 @@
         <v>392</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -24049,10 +24071,10 @@
         <v>159</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -24060,10 +24082,10 @@
         <v>144</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -24071,10 +24093,10 @@
         <v>435</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -24082,21 +24104,21 @@
         <v>73</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -24104,10 +24126,10 @@
         <v>570</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -24115,10 +24137,10 @@
         <v>342</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -24126,10 +24148,10 @@
         <v>336</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -24137,10 +24159,10 @@
         <v>267</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -24148,10 +24170,10 @@
         <v>372</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -24159,10 +24181,10 @@
         <v>96</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -24170,10 +24192,10 @@
         <v>179</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -24181,10 +24203,10 @@
         <v>124</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -24192,10 +24214,10 @@
         <v>250</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -24203,10 +24225,10 @@
         <v>207</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -24214,10 +24236,10 @@
         <v>312</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -24225,10 +24247,10 @@
         <v>187</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -24236,10 +24258,10 @@
         <v>287</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -24247,10 +24269,10 @@
         <v>299</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -24258,10 +24280,10 @@
         <v>62</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -24269,10 +24291,10 @@
         <v>395</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -24280,10 +24302,10 @@
         <v>387</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -24291,10 +24313,10 @@
         <v>398</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -24302,10 +24324,10 @@
         <v>544</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -24313,10 +24335,10 @@
         <v>101</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -24324,10 +24346,10 @@
         <v>381</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -24335,10 +24357,10 @@
         <v>394</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -24346,21 +24368,21 @@
         <v>376</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -24368,10 +24390,10 @@
         <v>302</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -24379,10 +24401,10 @@
         <v>404</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -24390,10 +24412,10 @@
         <v>263</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -24401,10 +24423,10 @@
         <v>198</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -24412,10 +24434,10 @@
         <v>347</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -24423,10 +24445,10 @@
         <v>565</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -24434,10 +24456,10 @@
         <v>364</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -24445,21 +24467,21 @@
         <v>29</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -24467,21 +24489,21 @@
         <v>374</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -24489,10 +24511,10 @@
         <v>67</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -24500,10 +24522,10 @@
         <v>522</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -24511,21 +24533,21 @@
         <v>360</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -24533,10 +24555,10 @@
         <v>401</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -24544,10 +24566,10 @@
         <v>123</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -24555,10 +24577,10 @@
         <v>274</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -24566,10 +24588,10 @@
         <v>57</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -24577,10 +24599,10 @@
         <v>81</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -24588,10 +24610,10 @@
         <v>17</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -24599,10 +24621,10 @@
         <v>523</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -24610,10 +24632,10 @@
         <v>212</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -24621,21 +24643,21 @@
         <v>283</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -24643,10 +24665,10 @@
         <v>128</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -24654,10 +24676,10 @@
         <v>254</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -24665,10 +24687,10 @@
         <v>346</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -24676,10 +24698,10 @@
         <v>233</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -24687,10 +24709,10 @@
         <v>385</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -24698,10 +24720,10 @@
         <v>142</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -24709,10 +24731,10 @@
         <v>162</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -24720,10 +24742,10 @@
         <v>252</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -24731,10 +24753,10 @@
         <v>218</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -24742,10 +24764,10 @@
         <v>39</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -24753,10 +24775,10 @@
         <v>126</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -24764,10 +24786,10 @@
         <v>377</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -24775,10 +24797,10 @@
         <v>290</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -24786,10 +24808,10 @@
         <v>371</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -24797,10 +24819,10 @@
         <v>402</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -24808,10 +24830,10 @@
         <v>405</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -24819,10 +24841,10 @@
         <v>261</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -24830,10 +24852,10 @@
         <v>139</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -24841,10 +24863,10 @@
         <v>226</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -24852,10 +24874,10 @@
         <v>71</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -24863,10 +24885,10 @@
         <v>366</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -24874,10 +24896,10 @@
         <v>102</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -24885,10 +24907,10 @@
         <v>396</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -24896,10 +24918,10 @@
         <v>265</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -24907,10 +24929,10 @@
         <v>238</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24918,10 +24940,10 @@
         <v>301</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -24929,10 +24951,10 @@
         <v>321</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -24940,10 +24962,10 @@
         <v>373</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -24951,10 +24973,10 @@
         <v>393</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -24962,10 +24984,10 @@
         <v>59</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -24973,10 +24995,10 @@
         <v>326</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -24984,10 +25006,10 @@
         <v>48</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -24995,10 +25017,10 @@
         <v>232</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -25006,10 +25028,10 @@
         <v>407</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -25017,10 +25039,10 @@
         <v>344</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -25028,10 +25050,10 @@
         <v>214</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -25039,10 +25061,10 @@
         <v>135</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -25050,10 +25072,10 @@
         <v>32</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -25061,10 +25083,10 @@
         <v>277</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -25072,10 +25094,10 @@
         <v>189</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -25083,10 +25105,10 @@
         <v>209</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -25094,10 +25116,10 @@
         <v>306</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -25105,10 +25127,10 @@
         <v>84</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -25116,10 +25138,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -25127,10 +25149,10 @@
         <v>153</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -25138,10 +25160,10 @@
         <v>363</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -25149,10 +25171,10 @@
         <v>78</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -25160,10 +25182,10 @@
         <v>273</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -25171,10 +25193,10 @@
         <v>222</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -25182,10 +25204,10 @@
         <v>341</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -25193,10 +25215,10 @@
         <v>256</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -25204,10 +25226,10 @@
         <v>355</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -25215,10 +25237,10 @@
         <v>280</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -25226,10 +25248,10 @@
         <v>399</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -25237,10 +25259,10 @@
         <v>285</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -25248,10 +25270,10 @@
         <v>173</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -25259,10 +25281,10 @@
         <v>350</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -25270,10 +25292,10 @@
         <v>296</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -25281,10 +25303,10 @@
         <v>202</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -25292,10 +25314,10 @@
         <v>65</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -25303,10 +25325,10 @@
         <v>107</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -25314,10 +25336,10 @@
         <v>115</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -25325,10 +25347,10 @@
         <v>23</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -25336,10 +25358,10 @@
         <v>338</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -25347,10 +25369,10 @@
         <v>313</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -25358,10 +25380,10 @@
         <v>99</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -25369,10 +25391,10 @@
         <v>196</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -25380,10 +25402,10 @@
         <v>89</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -25391,10 +25413,10 @@
         <v>391</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -25402,10 +25424,10 @@
         <v>332</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -25413,10 +25435,10 @@
         <v>194</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -25424,10 +25446,10 @@
         <v>147</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -25435,10 +25457,10 @@
         <v>318</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -25446,10 +25468,10 @@
         <v>311</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -25457,10 +25479,10 @@
         <v>185</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -25468,10 +25490,10 @@
         <v>130</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -25479,10 +25501,10 @@
         <v>53</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -25490,10 +25512,10 @@
         <v>169</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -25501,10 +25523,10 @@
         <v>234</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -25512,10 +25534,10 @@
         <v>245</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -25523,10 +25545,10 @@
         <v>269</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -25534,10 +25556,10 @@
         <v>303</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25545,10 +25567,10 @@
         <v>335</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -25556,10 +25578,10 @@
         <v>143</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -25567,10 +25589,10 @@
         <v>66</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -25578,10 +25600,10 @@
         <v>262</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -25589,10 +25611,10 @@
         <v>131</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -25600,10 +25622,10 @@
         <v>286</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -25611,10 +25633,10 @@
         <v>127</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -25622,10 +25644,10 @@
         <v>240</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -25633,10 +25655,10 @@
         <v>211</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -25644,10 +25666,10 @@
         <v>253</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -25655,10 +25677,10 @@
         <v>206</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -25666,10 +25688,10 @@
         <v>351</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -25677,10 +25699,10 @@
         <v>50</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -25688,10 +25710,10 @@
         <v>80</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -25699,10 +25721,10 @@
         <v>109</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -25710,10 +25732,10 @@
         <v>266</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -25721,10 +25743,10 @@
         <v>339</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -25732,10 +25754,10 @@
         <v>72</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -25743,10 +25765,10 @@
         <v>247</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -25754,10 +25776,10 @@
         <v>359</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -25765,10 +25787,10 @@
         <v>35</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -25776,10 +25798,10 @@
         <v>42</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -25787,10 +25809,10 @@
         <v>167</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -25798,10 +25820,10 @@
         <v>215</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -25809,10 +25831,10 @@
         <v>292</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -25820,10 +25842,10 @@
         <v>345</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -25831,10 +25853,10 @@
         <v>282</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -25842,10 +25864,10 @@
         <v>257</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -25853,10 +25875,10 @@
         <v>158</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -25864,10 +25886,10 @@
         <v>118</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -25875,10 +25897,10 @@
         <v>190</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -25886,10 +25908,10 @@
         <v>182</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -25897,10 +25919,10 @@
         <v>307</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -25908,10 +25930,10 @@
         <v>319</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -25919,10 +25941,10 @@
         <v>357</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -25930,10 +25952,10 @@
         <v>86</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -25941,10 +25963,10 @@
         <v>175</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -25952,10 +25974,10 @@
         <v>74</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -25963,10 +25985,10 @@
         <v>91</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -25974,10 +25996,10 @@
         <v>178</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -25985,10 +26007,10 @@
         <v>328</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -25996,10 +26018,10 @@
         <v>297</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -26007,10 +26029,10 @@
         <v>111</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -26018,10 +26040,10 @@
         <v>227</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -26029,10 +26051,10 @@
         <v>165</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -26040,10 +26062,10 @@
         <v>154</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -26051,10 +26073,10 @@
         <v>186</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -26062,10 +26084,10 @@
         <v>367</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -26073,10 +26095,10 @@
         <v>204</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -26084,10 +26106,10 @@
         <v>27</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -26095,10 +26117,10 @@
         <v>223</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -26106,10 +26128,10 @@
         <v>149</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -26117,10 +26139,10 @@
         <v>121</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -26128,10 +26150,10 @@
         <v>156</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -26139,10 +26161,10 @@
         <v>219</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -26150,10 +26172,10 @@
         <v>243</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -26161,10 +26183,10 @@
         <v>271</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -26172,10 +26194,10 @@
         <v>409</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -26183,10 +26205,10 @@
         <v>408</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -26194,10 +26216,10 @@
         <v>68</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -26205,10 +26227,10 @@
         <v>412</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -26216,10 +26238,10 @@
         <v>414</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -26227,10 +26249,10 @@
         <v>416</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -26238,10 +26260,10 @@
         <v>417</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -26249,10 +26271,10 @@
         <v>421</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -26260,10 +26282,10 @@
         <v>426</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -26271,10 +26293,10 @@
         <v>428</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -26282,10 +26304,10 @@
         <v>429</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -26293,10 +26315,10 @@
         <v>431</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -26304,10 +26326,10 @@
         <v>438</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -26315,10 +26337,10 @@
         <v>440</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -26326,10 +26348,10 @@
         <v>442</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -26337,10 +26359,10 @@
         <v>444</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -26348,10 +26370,10 @@
         <v>446</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -26359,10 +26381,10 @@
         <v>451</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -26370,10 +26392,10 @@
         <v>454</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -26381,10 +26403,10 @@
         <v>460</v>
       </c>
       <c r="B298" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="C298" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -26392,10 +26414,10 @@
         <v>455</v>
       </c>
       <c r="B299" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C299" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -26403,10 +26425,10 @@
         <v>502</v>
       </c>
       <c r="B300" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="C300" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -26414,10 +26436,10 @@
         <v>504</v>
       </c>
       <c r="B301" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="C301" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -26425,10 +26447,10 @@
         <v>506</v>
       </c>
       <c r="B302" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="C302" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -26436,10 +26458,10 @@
         <v>503</v>
       </c>
       <c r="B303" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="C303" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -26447,10 +26469,10 @@
         <v>505</v>
       </c>
       <c r="B304" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="C304" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -26458,10 +26480,10 @@
         <v>459</v>
       </c>
       <c r="B305" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="C305" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -26469,10 +26491,10 @@
         <v>463</v>
       </c>
       <c r="B306" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="C306" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -26480,10 +26502,10 @@
         <v>465</v>
       </c>
       <c r="B307" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="C307" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -26491,10 +26513,10 @@
         <v>467</v>
       </c>
       <c r="B308" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -26502,10 +26524,10 @@
         <v>471</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -26513,10 +26535,10 @@
         <v>468</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -26524,10 +26546,10 @@
         <v>472</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -26535,10 +26557,10 @@
         <v>476</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -26546,10 +26568,10 @@
         <v>480</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -26557,10 +26579,10 @@
         <v>484</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -26568,10 +26590,10 @@
         <v>489</v>
       </c>
       <c r="B315" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="C315" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -26579,10 +26601,10 @@
         <v>492</v>
       </c>
       <c r="B316" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="C316" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -26590,10 +26612,10 @@
         <v>490</v>
       </c>
       <c r="B317" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="C317" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -26601,10 +26623,10 @@
         <v>495</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -26612,10 +26634,10 @@
         <v>498</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>1722</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -26623,10 +26645,10 @@
         <v>494</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
     </row>
   </sheetData>
@@ -26646,8 +26668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26657,365 +26679,365 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -27023,10 +27045,10 @@
         <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -27034,10 +27056,10 @@
         <v>145</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -27045,10 +27067,10 @@
         <v>199</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -27056,10 +27078,10 @@
         <v>52</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -27067,10 +27089,10 @@
         <v>176</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -27078,10 +27100,10 @@
         <v>316</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -27089,10 +27111,10 @@
         <v>241</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -27100,74 +27122,83 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1730</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B47" r:id="rId1" tooltip="Category:Spicy Lover personality" display="https://anothereden.wiki/w/Category:Spicy_Lover_personality"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
@@ -5165,6 +5165,105 @@
   <si>
     <t>Phantom Thief</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101000321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101000321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식인 늪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>エニ</t>
+  </si>
+  <si>
+    <t>Iphi</t>
+  </si>
+  <si>
+    <t>Carmilla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권갑,총,독서가,안경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안경은 AS 획득 시에만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지팡이,총,부천수 애호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망치,연옥계,부천수 애호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망치,성직자,부천수 애호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도끼,가면,부천수 애호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도끼,부천수 애호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도,동방,애묘가,부천수 애호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활,동방,요리,부천수 애호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부천수 애호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛党</t>
+  </si>
+  <si>
+    <t>Spicy Lover</t>
+  </si>
+  <si>
+    <r>
+      <t>カ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ミラ</t>
+    </r>
   </si>
   <si>
     <r>
@@ -5192,87 +5291,12 @@
       <t>フ</t>
     </r>
   </si>
-  <si>
-    <t>현현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101000321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101000321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식인 늪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>エニ</t>
-  </si>
-  <si>
-    <t>カーミラ</t>
-  </si>
-  <si>
-    <t>Iphi</t>
-  </si>
-  <si>
-    <t>Carmilla</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권갑,총,독서가,안경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안경은 AS 획득 시에만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지팡이,총,부천수 애호가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>망치,연옥계,부천수 애호가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>망치,성직자,부천수 애호가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도끼,가면,부천수 애호가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도끼,부천수 애호가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도,동방,애묘가,부천수 애호가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활,동방,요리,부천수 애호가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부천수 애호가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛党</t>
-  </si>
-  <si>
-    <t>Spicy Lover</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5331,11 +5355,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF444444"/>
-      <name val="MS PGothic"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5376,8 +5408,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5683,8 +5719,8 @@
   <dimension ref="A1:S308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I292" sqref="I292"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K289" sqref="K289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6002,7 +6038,7 @@
         <v>28</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -17142,7 +17178,7 @@
         <v>45</v>
       </c>
       <c r="I289" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J289" s="1" t="b">
         <v>0</v>
@@ -17177,7 +17213,7 @@
         <v>45</v>
       </c>
       <c r="I290" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J290" s="1" t="b">
         <v>0</v>
@@ -17218,7 +17254,7 @@
         <v>20</v>
       </c>
       <c r="I291" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J291" s="1" t="b">
         <v>0</v>
@@ -17803,7 +17839,7 @@
         <v>4.5</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>93</v>
@@ -17838,7 +17874,7 @@
         <v>22</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>93</v>
@@ -17865,7 +17901,7 @@
         <v>498</v>
       </c>
       <c r="N308" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
   </sheetData>
@@ -17884,7 +17920,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17933,8 +17969,8 @@
       <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -17956,8 +17992,8 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -17977,8 +18013,8 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -17998,8 +18034,8 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -18019,8 +18055,8 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -18043,7 +18079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
@@ -18773,7 +18809,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="E50" s="1">
         <v>101020101</v>
@@ -18902,7 +18938,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E59" s="1">
         <v>101030041</v>
@@ -18916,7 +18952,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="E60" s="1">
         <v>101030051</v>
@@ -19455,7 +19491,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="E97" s="1">
         <v>101050091</v>
@@ -19668,10 +19704,10 @@
         <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="E112" s="1">
         <v>101060101</v>
@@ -19876,7 +19912,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="E126" s="1">
         <v>101070101</v>
@@ -19890,7 +19926,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="E127" s="1">
         <v>101070111</v>
@@ -20453,10 +20489,10 @@
         <v>0</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
   </sheetData>
@@ -22381,7 +22417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -23120,10 +23156,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C320"/>
+  <dimension ref="A1:C321"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="B320" sqref="B320"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="C305" sqref="C305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26399,35 +26435,35 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+      <c r="A298" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="1" t="s">
         <v>1565</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+      <c r="A299" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="1" t="s">
         <v>1567</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
+      <c r="A300" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="1" t="s">
         <v>1569</v>
       </c>
     </row>
@@ -26476,24 +26512,24 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+      <c r="A305" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C305" s="1" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+      <c r="A306" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="1" t="s">
         <v>1581</v>
       </c>
     </row>
@@ -26619,25 +26655,25 @@
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="3" t="s">
+      <c r="A318" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C318" s="9" t="s">
         <v>1716</v>
       </c>
+      <c r="C318" s="1" t="s">
+        <v>1715</v>
+      </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="3" t="s">
+      <c r="A319" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B319" s="3" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C319" s="10" t="s">
+      <c r="B319" s="1" t="s">
         <v>1717</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -26647,9 +26683,12 @@
       <c r="B320" s="3" t="s">
         <v>1710</v>
       </c>
-      <c r="C320" s="3" t="s">
-        <v>1711</v>
-      </c>
+      <c r="C320" s="10" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C321" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -26668,7 +26707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -27185,13 +27224,13 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>1729</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>1731</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4205" uniqueCount="1745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4205" uniqueCount="1746">
   <si>
     <t>아이디</t>
   </si>
@@ -5270,6 +5270,10 @@
   </si>
   <si>
     <t>KMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진현현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5695,9 +5699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S310"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I110" sqref="I110"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I293" sqref="I293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14285,7 +14289,7 @@
         <v>41</v>
       </c>
       <c r="Q212" s="1" t="s">
-        <v>25</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="213" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -17304,7 +17308,7 @@
         <v>20</v>
       </c>
       <c r="I293" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J293" s="1" t="b">
         <v>0</v>
@@ -17964,7 +17968,7 @@
     <hyperlink ref="D270" r:id="rId1" tooltip="File:101000301 rank5 command.png" display="https://anothereden.miraheze.org/wiki/File:101000301_rank5_command.png"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -23245,8 +23249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C323"/>
   <sheetViews>
-    <sheetView topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="A323" sqref="A323"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="D304" sqref="D304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26621,13 +26625,13 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+      <c r="A307" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="1" t="s">
         <v>1597</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="1" t="s">
         <v>1598</v>
       </c>
     </row>
@@ -26824,7 +26828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4236" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4237" uniqueCount="1764">
   <si>
     <t>아이디</t>
   </si>
@@ -5393,12 +5393,16 @@
       <t>ー</t>
     </r>
   </si>
+  <si>
+    <t>현현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5447,13 +5451,6 @@
       <color rgb="FF4F443A"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5509,8 +5506,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5817,9 +5816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S312"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B312" sqref="B312"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q201" sqref="Q201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13950,6 +13949,9 @@
       <c r="P200" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="Q200" s="1" t="s">
+        <v>1763</v>
+      </c>
     </row>
     <row r="201" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
@@ -17470,7 +17472,7 @@
         <v>45</v>
       </c>
       <c r="I294" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294" s="1" t="b">
         <v>0</v>
@@ -23455,7 +23457,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23463,8 +23465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C325"/>
   <sheetViews>
-    <sheetView topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="C321" sqref="C321"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="D308" sqref="D308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26850,13 +26852,13 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+      <c r="A308" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="1" t="s">
         <v>1613</v>
       </c>
-      <c r="C308" s="8" t="s">
+      <c r="C308" s="9" t="s">
         <v>1614</v>
       </c>
     </row>
@@ -26963,7 +26965,7 @@
       <c r="A318" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B318" s="9" t="s">
+      <c r="B318" s="8" t="s">
         <v>1633</v>
       </c>
       <c r="C318" s="1" t="s">
@@ -27064,7 +27066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -27618,6 +27620,6 @@
     <hyperlink ref="B47" r:id="rId1" tooltip="Category:Spicy Lover personality" display="https://anothereden.wiki/w/Category:Spicy_Lover_personality"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">보너스!$A$1:$D$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">캐릭터!$A$1:$Q$312</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">캐릭터!$A$1:$Q$313</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4237" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="1775">
   <si>
     <t>아이디</t>
   </si>
@@ -5360,6 +5360,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Outlaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>アウトロ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+  </si>
+  <si>
+    <t>현현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러브 버드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lovebird</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>ディケ</t>
     </r>
@@ -5375,12 +5406,8 @@
     </r>
   </si>
   <si>
-    <t>Outlaw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>アウトロ</t>
+      <t>ラブバ</t>
     </r>
     <r>
       <rPr>
@@ -5388,13 +5415,53 @@
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>ー</t>
     </r>
-  </si>
-  <si>
-    <t>현현</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ド</t>
+    </r>
+  </si>
+  <si>
+    <t>러블리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러브 버드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진현현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202,312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5402,7 +5469,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5465,6 +5532,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -5814,11 +5889,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S312"/>
+  <dimension ref="A1:S313"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q201" sqref="Q201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L314" sqref="L314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13475,7 +13550,7 @@
         <v>79</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>25</v>
+        <v>1771</v>
       </c>
       <c r="Q189" s="1" t="s">
         <v>25</v>
@@ -13950,7 +14025,7 @@
         <v>25</v>
       </c>
       <c r="Q200" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="201" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -14025,8 +14100,8 @@
       <c r="J202" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="L202" s="2">
-        <v>202</v>
+      <c r="L202" s="2" t="s">
+        <v>1773</v>
       </c>
     </row>
     <row r="203" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -14063,6 +14138,9 @@
       <c r="K203" s="2">
         <v>201</v>
       </c>
+      <c r="L203" s="2" t="s">
+        <v>1772</v>
+      </c>
       <c r="M203" s="1" t="s">
         <v>344</v>
       </c>
@@ -18160,8 +18238,49 @@
         <v>54</v>
       </c>
     </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D313" s="1">
+        <v>101060121</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G313" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I313" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J313" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L313" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="M313" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="N313" s="1" t="s">
+        <v>1770</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q312"/>
+  <autoFilter ref="A1:Q313"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D270" r:id="rId1" tooltip="File:101000301 rank5 command.png" display="https://anothereden.miraheze.org/wiki/File:101000301_rank5_command.png"/>
@@ -18355,7 +18474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
@@ -23463,10 +23582,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C325"/>
+  <dimension ref="A1:C326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="D308" sqref="D308"/>
+    <sheetView topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27046,7 +27165,18 @@
         <v>1757</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>1760</v>
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>1766</v>
       </c>
     </row>
   </sheetData>
@@ -27608,10 +27738,10 @@
         <v>1755</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>1761</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1762</v>
       </c>
     </row>
   </sheetData>
